--- a/data/Summer2017/L-curve/compiled_L-curve_data_2017-06-21_updated.xlsx
+++ b/data/Summer2017/L-curve/compiled_L-curve_data_2017-06-21_updated.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19215" windowHeight="9015" firstSheet="4" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19215" windowHeight="9015" firstSheet="16" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="key-to-input-workbooks" sheetId="2" r:id="rId1"/>
@@ -26,6 +26,12 @@
     <sheet name="L-curve_11" sheetId="13" r:id="rId12"/>
     <sheet name="L-curve_12" sheetId="14" r:id="rId13"/>
     <sheet name="L-curve_13" sheetId="15" r:id="rId14"/>
+    <sheet name="L-curve_14" sheetId="17" r:id="rId15"/>
+    <sheet name="L-curve_15" sheetId="18" r:id="rId16"/>
+    <sheet name="L-curve_16" sheetId="19" r:id="rId17"/>
+    <sheet name="L-curve_17" sheetId="20" r:id="rId18"/>
+    <sheet name="L-curve_18" sheetId="21" r:id="rId19"/>
+    <sheet name="L-curve_19" sheetId="22" r:id="rId20"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -37,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="48">
   <si>
     <t>Alpha</t>
   </si>
@@ -2103,7 +2109,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="C1" sqref="C1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2401,6 +2407,1556 @@
       </c>
       <c r="F17">
         <v>186791</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="C2">
+        <v>0.68791881699321678</v>
+      </c>
+      <c r="D2">
+        <v>3.9698464399724104E-2</v>
+      </c>
+      <c r="F2">
+        <v>5566</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C3">
+        <v>0.68291328948189889</v>
+      </c>
+      <c r="D3">
+        <v>4.9830448795372628E-2</v>
+      </c>
+      <c r="F3">
+        <v>5310</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C4">
+        <v>0.66999922178973936</v>
+      </c>
+      <c r="D4">
+        <v>9.146424019072931E-2</v>
+      </c>
+      <c r="F4">
+        <v>5263</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C5">
+        <v>0.663219935192218</v>
+      </c>
+      <c r="D5">
+        <v>0.13967751302975101</v>
+      </c>
+      <c r="F5">
+        <v>6332</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="C6">
+        <v>0.66128503274019501</v>
+      </c>
+      <c r="D6">
+        <v>0.16134052218289091</v>
+      </c>
+      <c r="F6">
+        <v>6487</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="C7">
+        <v>0.65782691362771017</v>
+      </c>
+      <c r="D7">
+        <v>0.21586348922960252</v>
+      </c>
+      <c r="F7">
+        <v>6791</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="C8">
+        <v>0.64413249194007427</v>
+      </c>
+      <c r="D8">
+        <v>0.70504277161053963</v>
+      </c>
+      <c r="F8">
+        <v>17822</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="C9">
+        <v>0.63237818210979091</v>
+      </c>
+      <c r="D9">
+        <v>1.4548716020322894</v>
+      </c>
+      <c r="F9">
+        <v>18961</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="C10">
+        <v>0.63072065862920967</v>
+      </c>
+      <c r="D10">
+        <v>1.639967954892958</v>
+      </c>
+      <c r="F10">
+        <v>21611</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C11">
+        <v>0.62828544007413567</v>
+      </c>
+      <c r="D11">
+        <v>2.0211646214654162</v>
+      </c>
+      <c r="F11">
+        <v>20395</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3">
+        <v>2E-3</v>
+      </c>
+      <c r="C12">
+        <v>0.62579499061626109</v>
+      </c>
+      <c r="D12">
+        <v>2.786500222294511</v>
+      </c>
+      <c r="F12">
+        <v>47059</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C13">
+        <v>0.62490977615146492</v>
+      </c>
+      <c r="D13">
+        <v>3.4017471297556967</v>
+      </c>
+      <c r="F13">
+        <v>66991</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="C14">
+        <v>0.6258421582028727</v>
+      </c>
+      <c r="D14">
+        <v>3.3281147958724504</v>
+      </c>
+      <c r="F14">
+        <v>78562</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C15">
+        <v>0.62573728833487263</v>
+      </c>
+      <c r="D15">
+        <v>3.6880565450585738</v>
+      </c>
+      <c r="F15">
+        <v>37830</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="C16">
+        <v>0.62490778019384996</v>
+      </c>
+      <c r="D16">
+        <v>5.7223452388503837</v>
+      </c>
+      <c r="F16">
+        <v>175369</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="C17">
+        <v>0.62539391806691658</v>
+      </c>
+      <c r="D17">
+        <v>6.5119607436099045</v>
+      </c>
+      <c r="F17">
+        <v>83680</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="C2">
+        <v>0.68866133811885588</v>
+      </c>
+      <c r="D2">
+        <v>4.103946096632214E-2</v>
+      </c>
+      <c r="F2">
+        <v>5156</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C3">
+        <v>0.68316556958397945</v>
+      </c>
+      <c r="D3">
+        <v>5.0923159224345926E-2</v>
+      </c>
+      <c r="F3">
+        <v>5543</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C4">
+        <v>0.66935298605929394</v>
+      </c>
+      <c r="D4">
+        <v>9.5414621421438361E-2</v>
+      </c>
+      <c r="F4">
+        <v>5496</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C5">
+        <v>0.66189379308628282</v>
+      </c>
+      <c r="D5">
+        <v>0.14841996241702199</v>
+      </c>
+      <c r="F5">
+        <v>6087</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="C6">
+        <v>0.6597858664264018</v>
+      </c>
+      <c r="D6">
+        <v>0.17200874319923276</v>
+      </c>
+      <c r="F6">
+        <v>6133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="C7">
+        <v>0.65612341310338373</v>
+      </c>
+      <c r="D7">
+        <v>0.22968738291395793</v>
+      </c>
+      <c r="F7">
+        <v>7115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="C8">
+        <v>0.643845695733263</v>
+      </c>
+      <c r="D8">
+        <v>0.63640740628701187</v>
+      </c>
+      <c r="F8">
+        <v>14032</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="C9">
+        <v>0.63438083747411578</v>
+      </c>
+      <c r="D9">
+        <v>1.3664099638236944</v>
+      </c>
+      <c r="F9">
+        <v>22696</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="C10">
+        <v>0.63298212190445546</v>
+      </c>
+      <c r="D10">
+        <v>1.522119048485199</v>
+      </c>
+      <c r="F10">
+        <v>18602</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C11">
+        <v>0.63097886832687677</v>
+      </c>
+      <c r="D11">
+        <v>1.836863761061734</v>
+      </c>
+      <c r="F11">
+        <v>19602</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3">
+        <v>2E-3</v>
+      </c>
+      <c r="C12">
+        <v>0.62810388250366245</v>
+      </c>
+      <c r="D12">
+        <v>2.7673844391255344</v>
+      </c>
+      <c r="F12">
+        <v>76993</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C13">
+        <v>0.62601379842684923</v>
+      </c>
+      <c r="D13">
+        <v>4.291123089667205</v>
+      </c>
+      <c r="F13">
+        <v>58956</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="C14">
+        <v>0.62507285847650007</v>
+      </c>
+      <c r="D14">
+        <v>5.337544040121057</v>
+      </c>
+      <c r="F14">
+        <v>79730</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C15">
+        <v>0.62395088309421176</v>
+      </c>
+      <c r="D15">
+        <v>7.2638274430653533</v>
+      </c>
+      <c r="F15">
+        <v>52263</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="C16">
+        <v>0.623953542679898</v>
+      </c>
+      <c r="D16">
+        <v>7.263771120766557</v>
+      </c>
+      <c r="F16">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="C17">
+        <v>0.62196201344626334</v>
+      </c>
+      <c r="D17">
+        <v>14.722421895298639</v>
+      </c>
+      <c r="F17">
+        <v>131896</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="C2">
+        <v>0.72936953473083099</v>
+      </c>
+      <c r="D2">
+        <v>4.2606717608913255E-2</v>
+      </c>
+      <c r="F2">
+        <v>4941</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C3">
+        <v>0.72310207718960506</v>
+      </c>
+      <c r="D3">
+        <v>5.2806815587148906E-2</v>
+      </c>
+      <c r="F3">
+        <v>3064</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C4">
+        <v>0.70830394364467963</v>
+      </c>
+      <c r="D4">
+        <v>0.10009237457623489</v>
+      </c>
+      <c r="F4">
+        <v>5085</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C5">
+        <v>0.70044237522816699</v>
+      </c>
+      <c r="D5">
+        <v>0.15598037374439538</v>
+      </c>
+      <c r="F5">
+        <v>5885</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="C6">
+        <v>0.69823434434176612</v>
+      </c>
+      <c r="D6">
+        <v>0.18067777152232453</v>
+      </c>
+      <c r="F6">
+        <v>5836</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="C7">
+        <v>0.69455083515204175</v>
+      </c>
+      <c r="D7">
+        <v>0.23856418767983434</v>
+      </c>
+      <c r="F7">
+        <v>6307</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="C8">
+        <v>0.68100907496548191</v>
+      </c>
+      <c r="D8">
+        <v>0.69450571674601458</v>
+      </c>
+      <c r="F8">
+        <v>12988</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="C9">
+        <v>0.67682985858225564</v>
+      </c>
+      <c r="D9">
+        <v>0.98449051145698219</v>
+      </c>
+      <c r="F9">
+        <v>13703</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="C10">
+        <v>0.67581625068245665</v>
+      </c>
+      <c r="D10">
+        <v>1.0981005998191022</v>
+      </c>
+      <c r="F10">
+        <v>13232</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C11">
+        <v>0.67352160709217956</v>
+      </c>
+      <c r="D11">
+        <v>1.4649324749801729</v>
+      </c>
+      <c r="F11">
+        <v>19792</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3">
+        <v>2E-3</v>
+      </c>
+      <c r="C12">
+        <v>0.6700996735435838</v>
+      </c>
+      <c r="D12">
+        <v>2.5449143699944541</v>
+      </c>
+      <c r="F12">
+        <v>36431</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C13">
+        <v>0.66832597304123131</v>
+      </c>
+      <c r="D13">
+        <v>4.2531287818974652</v>
+      </c>
+      <c r="F13">
+        <v>18064</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="C14">
+        <v>0.66832597304123131</v>
+      </c>
+      <c r="D14">
+        <v>4.2531287818974652</v>
+      </c>
+      <c r="F14">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C15">
+        <v>0.66832597304123131</v>
+      </c>
+      <c r="D15">
+        <v>4.2531287818974652</v>
+      </c>
+      <c r="F15">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="C16">
+        <v>0.66832597304123131</v>
+      </c>
+      <c r="D16">
+        <v>4.2531287818974652</v>
+      </c>
+      <c r="F16">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="C17">
+        <v>0.66832597304123131</v>
+      </c>
+      <c r="D17">
+        <v>4.2531287818974652</v>
+      </c>
+      <c r="F17">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="C2">
+        <v>0.76236412149413024</v>
+      </c>
+      <c r="D2">
+        <v>4.5143492958560814E-2</v>
+      </c>
+      <c r="F2">
+        <v>4393</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C3">
+        <v>0.7554648980875629</v>
+      </c>
+      <c r="D3">
+        <v>5.6367574363057497E-2</v>
+      </c>
+      <c r="F3">
+        <v>2891</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C4">
+        <v>0.7394239789579059</v>
+      </c>
+      <c r="D4">
+        <v>0.10755859842313549</v>
+      </c>
+      <c r="F4">
+        <v>4483</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C5">
+        <v>0.73100889152628012</v>
+      </c>
+      <c r="D5">
+        <v>0.16737025201914787</v>
+      </c>
+      <c r="F5">
+        <v>5085</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="C6">
+        <v>0.72865484435529948</v>
+      </c>
+      <c r="D6">
+        <v>0.19369797832056473</v>
+      </c>
+      <c r="F6">
+        <v>5039</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="C7">
+        <v>0.72479380212674605</v>
+      </c>
+      <c r="D7">
+        <v>0.25429851828379091</v>
+      </c>
+      <c r="F7">
+        <v>5815</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="C8">
+        <v>0.72033268759984392</v>
+      </c>
+      <c r="D8">
+        <v>0.39477647949025652</v>
+      </c>
+      <c r="F8">
+        <v>7232</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="C9">
+        <v>0.71744957380214769</v>
+      </c>
+      <c r="D9">
+        <v>0.60478867615297283</v>
+      </c>
+      <c r="F9">
+        <v>9514</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="C10">
+        <v>0.71631269096353967</v>
+      </c>
+      <c r="D10">
+        <v>0.73263032495683145</v>
+      </c>
+      <c r="F10">
+        <v>9087</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C11">
+        <v>0.71070963720796287</v>
+      </c>
+      <c r="D11">
+        <v>1.6427186744502029</v>
+      </c>
+      <c r="F11">
+        <v>17167</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3">
+        <v>2E-3</v>
+      </c>
+      <c r="C12">
+        <v>0.70629601336924641</v>
+      </c>
+      <c r="D12">
+        <v>3.0464830908566358</v>
+      </c>
+      <c r="F12">
+        <v>26086</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C13">
+        <v>0.70371490551913218</v>
+      </c>
+      <c r="D13">
+        <v>4.8894209673976885</v>
+      </c>
+      <c r="F13">
+        <v>23405</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="C14">
+        <v>0.70302972609143854</v>
+      </c>
+      <c r="D14">
+        <v>5.6556766869262125</v>
+      </c>
+      <c r="F14">
+        <v>14072</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C15">
+        <v>0.70174377553738965</v>
+      </c>
+      <c r="D15">
+        <v>7.6859424122868889</v>
+      </c>
+      <c r="F15">
+        <v>20493</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="C16">
+        <v>0.69742910397805169</v>
+      </c>
+      <c r="D16">
+        <v>14.561462732684472</v>
+      </c>
+      <c r="F16">
+        <v>57741</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="C17">
+        <v>0.69682813352657724</v>
+      </c>
+      <c r="D17">
+        <v>18.613458482198251</v>
+      </c>
+      <c r="F17">
+        <v>42328</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="C2">
+        <v>0.76186991482325828</v>
+      </c>
+      <c r="D2">
+        <v>4.6724324378102804E-2</v>
+      </c>
+      <c r="F2">
+        <v>3716</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C3">
+        <v>0.75840147377786138</v>
+      </c>
+      <c r="D3">
+        <v>5.2188062621261376E-2</v>
+      </c>
+      <c r="F3">
+        <v>2158</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C4">
+        <v>0.75385603144806879</v>
+      </c>
+      <c r="D4">
+        <v>6.6672440464272564E-2</v>
+      </c>
+      <c r="F4">
+        <v>3171</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C5">
+        <v>0.74975576053793935</v>
+      </c>
+      <c r="D5">
+        <v>9.7463878043194369E-2</v>
+      </c>
+      <c r="F5">
+        <v>4731</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="C6">
+        <v>0.7476099466023155</v>
+      </c>
+      <c r="D6">
+        <v>0.12158281794445765</v>
+      </c>
+      <c r="F6">
+        <v>4457</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="C7">
+        <v>0.74312091732082308</v>
+      </c>
+      <c r="D7">
+        <v>0.19249059253048034</v>
+      </c>
+      <c r="F7">
+        <v>5040</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="C8">
+        <v>0.73787402386834511</v>
+      </c>
+      <c r="D8">
+        <v>0.35670172719321774</v>
+      </c>
+      <c r="F8">
+        <v>6016</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="C9">
+        <v>0.72383373318051047</v>
+      </c>
+      <c r="D9">
+        <v>1.0789618866121891</v>
+      </c>
+      <c r="F9">
+        <v>16469</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="C10">
+        <v>0.7228838550284411</v>
+      </c>
+      <c r="D10">
+        <v>1.1850672870595931</v>
+      </c>
+      <c r="F10">
+        <v>11322</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C11">
+        <v>0.72127181117087191</v>
+      </c>
+      <c r="D11">
+        <v>1.4396618030239434</v>
+      </c>
+      <c r="F11">
+        <v>13198</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3">
+        <v>2E-3</v>
+      </c>
+      <c r="C12">
+        <v>0.71887572689706525</v>
+      </c>
+      <c r="D12">
+        <v>2.2096319701593607</v>
+      </c>
+      <c r="F12">
+        <v>26255</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C13">
+        <v>0.71735874563517676</v>
+      </c>
+      <c r="D13">
+        <v>3.2950681077748047</v>
+      </c>
+      <c r="F13">
+        <v>35569</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="C14">
+        <v>0.71692326980985444</v>
+      </c>
+      <c r="D14">
+        <v>3.7825142186560776</v>
+      </c>
+      <c r="F14">
+        <v>22288</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C15">
+        <v>0.71612078067264107</v>
+      </c>
+      <c r="D15">
+        <v>5.0563139489368298</v>
+      </c>
+      <c r="F15">
+        <v>23483</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="C16">
+        <v>0.7150778829294806</v>
+      </c>
+      <c r="D16">
+        <v>8.2335963939262111</v>
+      </c>
+      <c r="F16">
+        <v>37057</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="C17">
+        <v>0.71475476782735314</v>
+      </c>
+      <c r="D17">
+        <v>10.363926401084274</v>
+      </c>
+      <c r="F17">
+        <v>36622</v>
       </c>
     </row>
   </sheetData>
@@ -2838,6 +4394,190 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="C2">
+        <v>0.77716455328614087</v>
+      </c>
+      <c r="D2">
+        <v>4.8789511002059943E-2</v>
+      </c>
+      <c r="F2">
+        <v>3104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C3">
+        <v>0.77333702775012425</v>
+      </c>
+      <c r="D3">
+        <v>5.481689957026703E-2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3">
+        <v>8.0000000000000004E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
@@ -4205,7 +5945,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>

--- a/data/Summer2017/L-curve/compiled_L-curve_data_2017-06-21_updated.xlsx
+++ b/data/Summer2017/L-curve/compiled_L-curve_data_2017-06-21_updated.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nvafadar\Desktop\L-curve_Summer2017\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kdahlqui\Documents\Lab Records\L-curve_Analysis_Summer-2017\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19215" windowHeight="9015" firstSheet="16" activeTab="19"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19215" windowHeight="9015" tabRatio="851"/>
   </bookViews>
   <sheets>
     <sheet name="key-to-input-workbooks" sheetId="2" r:id="rId1"/>
@@ -32,6 +32,25 @@
     <sheet name="L-curve_17" sheetId="20" r:id="rId18"/>
     <sheet name="L-curve_18" sheetId="21" r:id="rId19"/>
     <sheet name="L-curve_19" sheetId="22" r:id="rId20"/>
+    <sheet name="L-curve_20" sheetId="23" r:id="rId21"/>
+    <sheet name="L-curve_21" sheetId="24" r:id="rId22"/>
+    <sheet name="L-curve_22" sheetId="25" r:id="rId23"/>
+    <sheet name="L-curve_23" sheetId="26" r:id="rId24"/>
+    <sheet name="L-curve_24" sheetId="27" r:id="rId25"/>
+    <sheet name="L-curve_25" sheetId="28" r:id="rId26"/>
+    <sheet name="L-curve_26" sheetId="29" r:id="rId27"/>
+    <sheet name="L-curve_27" sheetId="30" r:id="rId28"/>
+    <sheet name="L-curve_28" sheetId="31" r:id="rId29"/>
+    <sheet name="L-curve_29" sheetId="32" r:id="rId30"/>
+    <sheet name="L-curve_30" sheetId="33" r:id="rId31"/>
+    <sheet name="L-curve_31" sheetId="34" r:id="rId32"/>
+    <sheet name="L-curve_32" sheetId="35" r:id="rId33"/>
+    <sheet name="L-curve_33" sheetId="36" r:id="rId34"/>
+    <sheet name="L-curve_34" sheetId="41" r:id="rId35"/>
+    <sheet name="L-curve_35" sheetId="42" r:id="rId36"/>
+    <sheet name="L-curve_36" sheetId="43" r:id="rId37"/>
+    <sheet name="L-curve_37" sheetId="44" r:id="rId38"/>
+    <sheet name="L-curve_38" sheetId="45" r:id="rId39"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -43,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="48">
   <si>
     <t>Alpha</t>
   </si>
@@ -193,8 +212,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.000000"/>
+    <numFmt numFmtId="166" formatCode="0.00000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -221,18 +242,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -247,14 +262,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -537,20 +553,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="134.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="134.28515625" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>31</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
@@ -558,7 +572,7 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>39</v>
       </c>
     </row>
@@ -566,7 +580,7 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="4" t="s">
         <v>40</v>
       </c>
     </row>
@@ -574,7 +588,7 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="4" t="s">
         <v>41</v>
       </c>
     </row>
@@ -598,7 +612,7 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>19</v>
       </c>
     </row>
@@ -606,7 +620,7 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="4" t="s">
         <v>20</v>
       </c>
     </row>
@@ -614,7 +628,7 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>21</v>
       </c>
     </row>
@@ -622,7 +636,7 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -630,7 +644,7 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="7" t="s">
         <v>23</v>
       </c>
     </row>
@@ -638,7 +652,7 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="4" t="s">
         <v>24</v>
       </c>
     </row>
@@ -646,7 +660,7 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="4" t="s">
         <v>25</v>
       </c>
     </row>
@@ -654,7 +668,7 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -670,7 +684,7 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -678,7 +692,7 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -686,7 +700,7 @@
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -694,7 +708,7 @@
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="4" t="s">
         <v>10</v>
       </c>
     </row>
@@ -702,7 +716,7 @@
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="4" t="s">
         <v>9</v>
       </c>
     </row>
@@ -710,7 +724,7 @@
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -718,7 +732,7 @@
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="4" t="s">
         <v>7</v>
       </c>
     </row>
@@ -726,7 +740,7 @@
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -734,7 +748,7 @@
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -742,7 +756,7 @@
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="4" t="s">
         <v>4</v>
       </c>
     </row>
@@ -750,7 +764,7 @@
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="4" t="s">
         <v>32</v>
       </c>
     </row>
@@ -758,7 +772,7 @@
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="4" t="s">
         <v>33</v>
       </c>
     </row>
@@ -766,7 +780,7 @@
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="4" t="s">
         <v>26</v>
       </c>
     </row>
@@ -774,7 +788,7 @@
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="4" t="s">
         <v>34</v>
       </c>
     </row>
@@ -782,7 +796,7 @@
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="4" t="s">
         <v>35</v>
       </c>
     </row>
@@ -790,7 +804,7 @@
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="4" t="s">
         <v>36</v>
       </c>
     </row>
@@ -798,7 +812,7 @@
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="4" t="s">
         <v>37</v>
       </c>
     </row>
@@ -806,7 +820,7 @@
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="4" t="s">
         <v>27</v>
       </c>
     </row>
@@ -814,7 +828,7 @@
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="4" t="s">
         <v>38</v>
       </c>
     </row>
@@ -822,7 +836,7 @@
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="4" t="s">
         <v>29</v>
       </c>
     </row>
@@ -830,7 +844,7 @@
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -838,7 +852,7 @@
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="4" t="s">
         <v>30</v>
       </c>
     </row>
@@ -846,7 +860,7 @@
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="4" t="s">
         <v>17</v>
       </c>
     </row>
@@ -854,7 +868,7 @@
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="4" t="s">
         <v>28</v>
       </c>
     </row>
@@ -4398,7 +4412,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -4574,6 +4588,1900 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0.79561300000000001</v>
+      </c>
+      <c r="D2" s="5">
+        <v>5.5077000000000001E-2</v>
+      </c>
+      <c r="F2">
+        <v>2414</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0.79169599999999996</v>
+      </c>
+      <c r="D3" s="5">
+        <v>6.1234999999999998E-2</v>
+      </c>
+      <c r="F3">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.78730199999999995</v>
+      </c>
+      <c r="D4" s="5">
+        <v>7.4854000000000004E-2</v>
+      </c>
+      <c r="F4">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.78516600000000003</v>
+      </c>
+      <c r="D5" s="5">
+        <v>9.0206999999999996E-2</v>
+      </c>
+      <c r="F5">
+        <v>2678</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0.78442299999999998</v>
+      </c>
+      <c r="D6" s="5">
+        <v>9.8545999999999995E-2</v>
+      </c>
+      <c r="F6">
+        <v>2416</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0.78250299999999995</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0.12948899999999999</v>
+      </c>
+      <c r="F7">
+        <v>3027</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0.77431899999999998</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0.44880300000000001</v>
+      </c>
+      <c r="F8">
+        <v>5498</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0.76992499999999997</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0.74981399999999998</v>
+      </c>
+      <c r="F9">
+        <v>5177</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0.76908500000000002</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0.84362599999999999</v>
+      </c>
+      <c r="F10">
+        <v>5563</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0.76771400000000001</v>
+      </c>
+      <c r="D11" s="5">
+        <v>1.05983</v>
+      </c>
+      <c r="F11">
+        <v>5328</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3">
+        <v>2E-3</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0.76592300000000002</v>
+      </c>
+      <c r="D12" s="5">
+        <v>1.624252</v>
+      </c>
+      <c r="F12">
+        <v>10808</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C13" s="5">
+        <v>0.76505800000000002</v>
+      </c>
+      <c r="D13" s="5">
+        <v>2.234686</v>
+      </c>
+      <c r="F13">
+        <v>17626</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0.764845</v>
+      </c>
+      <c r="D14" s="5">
+        <v>2.4730300000000001</v>
+      </c>
+      <c r="F14">
+        <v>20512</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0.76447500000000002</v>
+      </c>
+      <c r="D15">
+        <v>3.0567959999999998</v>
+      </c>
+      <c r="F15">
+        <v>18748</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="C16" s="5">
+        <v>0.76375499999999996</v>
+      </c>
+      <c r="D16" s="5">
+        <v>5.523002</v>
+      </c>
+      <c r="F16">
+        <v>31172</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0.76284099999999999</v>
+      </c>
+      <c r="D17" s="6">
+        <v>11.812939999999999</v>
+      </c>
+      <c r="F17">
+        <v>37328</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="C2">
+        <v>0.82028299999999998</v>
+      </c>
+      <c r="D2" s="5">
+        <v>3.9623999999999999E-2</v>
+      </c>
+      <c r="F2">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C3">
+        <v>0.81631299999999996</v>
+      </c>
+      <c r="D3">
+        <v>4.5878000000000002E-2</v>
+      </c>
+      <c r="F3">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C4">
+        <v>0.81157299999999999</v>
+      </c>
+      <c r="D4">
+        <v>6.0649000000000002E-2</v>
+      </c>
+      <c r="F4">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C5">
+        <v>0.80917600000000001</v>
+      </c>
+      <c r="D5">
+        <v>7.7882000000000007E-2</v>
+      </c>
+      <c r="F5">
+        <v>1884</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="C6">
+        <v>0.808342</v>
+      </c>
+      <c r="D6">
+        <v>8.7243000000000001E-2</v>
+      </c>
+      <c r="F6">
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="C7">
+        <v>0.80617099999999997</v>
+      </c>
+      <c r="D7">
+        <v>0.12224400000000001</v>
+      </c>
+      <c r="F7">
+        <v>2314</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="C8">
+        <v>0.80229600000000001</v>
+      </c>
+      <c r="D8">
+        <v>0.24330299999999999</v>
+      </c>
+      <c r="F8">
+        <v>2914</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="C9">
+        <v>0.79327800000000004</v>
+      </c>
+      <c r="D9">
+        <v>0.78342500000000004</v>
+      </c>
+      <c r="F9">
+        <v>5011</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="C10">
+        <v>0.79240299999999997</v>
+      </c>
+      <c r="D10">
+        <v>0.88105599999999995</v>
+      </c>
+      <c r="F10">
+        <v>4094</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0.79096</v>
+      </c>
+      <c r="D11">
+        <v>1.108789</v>
+      </c>
+      <c r="F11">
+        <v>5555</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3">
+        <v>2E-3</v>
+      </c>
+      <c r="C12">
+        <v>0.78894600000000004</v>
+      </c>
+      <c r="D12">
+        <v>1.748054</v>
+      </c>
+      <c r="F12">
+        <v>7429</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C13">
+        <v>0.787856</v>
+      </c>
+      <c r="D13">
+        <v>2.5180530000000001</v>
+      </c>
+      <c r="F13">
+        <v>14557</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="C14">
+        <v>0.787578</v>
+      </c>
+      <c r="D14">
+        <v>2.8278479999999999</v>
+      </c>
+      <c r="F14">
+        <v>10686</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C15">
+        <v>0.78709799999999996</v>
+      </c>
+      <c r="D15">
+        <v>3.5887880000000001</v>
+      </c>
+      <c r="F15">
+        <v>10422</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="C16">
+        <v>0.78641499999999998</v>
+      </c>
+      <c r="D16">
+        <v>5.7745259999999998</v>
+      </c>
+      <c r="F16">
+        <v>18630</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="C17">
+        <v>0.78570700000000004</v>
+      </c>
+      <c r="D17">
+        <v>11.012869999999999</v>
+      </c>
+      <c r="F17">
+        <v>23698</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0.911049</v>
+      </c>
+      <c r="D2" s="5">
+        <v>4.3668999999999999E-2</v>
+      </c>
+      <c r="F2">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0.90627100000000005</v>
+      </c>
+      <c r="D3" s="5">
+        <v>5.1194999999999997E-2</v>
+      </c>
+      <c r="F3">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.90058899999999997</v>
+      </c>
+      <c r="D4" s="5">
+        <v>6.8884000000000001E-2</v>
+      </c>
+      <c r="F4">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.89776100000000003</v>
+      </c>
+      <c r="D5" s="5">
+        <v>8.9200000000000002E-2</v>
+      </c>
+      <c r="F5">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0.89678100000000005</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0.10020800000000001</v>
+      </c>
+      <c r="F6">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0.894208</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0.14171600000000001</v>
+      </c>
+      <c r="F7">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0.88959600000000005</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0.28540500000000002</v>
+      </c>
+      <c r="F8">
+        <v>2173</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0.880907</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0.85133700000000001</v>
+      </c>
+      <c r="F9">
+        <v>3955</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0.87997700000000001</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0.95500300000000005</v>
+      </c>
+      <c r="F10">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0.87862799999999996</v>
+      </c>
+      <c r="D11" s="5">
+        <v>1.1664129999999999</v>
+      </c>
+      <c r="F11">
+        <v>3138</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3">
+        <v>2E-3</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0.87717800000000001</v>
+      </c>
+      <c r="D12" s="5">
+        <v>1.6180289999999999</v>
+      </c>
+      <c r="F12">
+        <v>5578</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C13" s="5">
+        <v>0.87649299999999997</v>
+      </c>
+      <c r="D13" s="5">
+        <v>2.1055649999999999</v>
+      </c>
+      <c r="F13">
+        <v>6288</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0.87629299999999999</v>
+      </c>
+      <c r="D14" s="5">
+        <v>2.32999</v>
+      </c>
+      <c r="F14">
+        <v>5327</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0.87584499999999998</v>
+      </c>
+      <c r="D15" s="5">
+        <v>3.0476429999999999</v>
+      </c>
+      <c r="F15">
+        <v>10071</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="C16" s="5">
+        <v>0.87428099999999997</v>
+      </c>
+      <c r="D16" s="5">
+        <v>8.5875529999999998</v>
+      </c>
+      <c r="F16">
+        <v>19707</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0.87256900000000004</v>
+      </c>
+      <c r="D17" s="6">
+        <v>20.343769999999999</v>
+      </c>
+      <c r="F17">
+        <v>8795</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0.90961400000000003</v>
+      </c>
+      <c r="D2" s="5">
+        <v>3.8592000000000001E-2</v>
+      </c>
+      <c r="F2">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0.90677799999999997</v>
+      </c>
+      <c r="D3" s="5">
+        <v>4.3091999999999998E-2</v>
+      </c>
+      <c r="F3">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.90237800000000001</v>
+      </c>
+      <c r="D4" s="5">
+        <v>5.7159000000000001E-2</v>
+      </c>
+      <c r="F4">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.89959900000000004</v>
+      </c>
+      <c r="D5" s="5">
+        <v>7.7237E-2</v>
+      </c>
+      <c r="F5">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0.89859</v>
+      </c>
+      <c r="D6" s="5">
+        <v>8.8568999999999995E-2</v>
+      </c>
+      <c r="F6">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0.895845</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0.13295799999999999</v>
+      </c>
+      <c r="F7">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0.890957</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0.28337099999999998</v>
+      </c>
+      <c r="F8">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0.88931400000000005</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0.39913799999999999</v>
+      </c>
+      <c r="F9">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0.88802400000000004</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0.54540100000000002</v>
+      </c>
+      <c r="F10">
+        <v>2550</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0.88351299999999999</v>
+      </c>
+      <c r="D11" s="5">
+        <v>1.2791090000000001</v>
+      </c>
+      <c r="F11">
+        <v>2450</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3">
+        <v>2E-3</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0.872784</v>
+      </c>
+      <c r="D12" s="5">
+        <v>4.6713560000000003</v>
+      </c>
+      <c r="F12">
+        <v>2341</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C13" s="5">
+        <v>0.86825300000000005</v>
+      </c>
+      <c r="D13" s="5">
+        <v>7.8478659999999998</v>
+      </c>
+      <c r="F13">
+        <v>2084</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0.86721000000000004</v>
+      </c>
+      <c r="D14" s="5">
+        <v>9.0115739999999995</v>
+      </c>
+      <c r="F14">
+        <v>1929</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0.86549500000000001</v>
+      </c>
+      <c r="D15" s="6">
+        <v>11.690099999999999</v>
+      </c>
+      <c r="F15">
+        <v>2111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="C16" s="5">
+        <v>0.86465499999999995</v>
+      </c>
+      <c r="D16" s="6">
+        <v>14.07443</v>
+      </c>
+      <c r="F16">
+        <v>1738</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0.86465499999999995</v>
+      </c>
+      <c r="D17" s="6">
+        <v>14.07443</v>
+      </c>
+      <c r="F17">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="C2" s="5">
+        <v>1.088158</v>
+      </c>
+      <c r="D2" s="5">
+        <v>3.4117000000000001E-2</v>
+      </c>
+      <c r="F2">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C3" s="5">
+        <v>1.0852059999999999</v>
+      </c>
+      <c r="D3" s="5">
+        <v>3.8807000000000001E-2</v>
+      </c>
+      <c r="F3">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1.080344</v>
+      </c>
+      <c r="D4" s="5">
+        <v>5.4455000000000003E-2</v>
+      </c>
+      <c r="F4">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1.077102</v>
+      </c>
+      <c r="D5" s="5">
+        <v>7.7882999999999994E-2</v>
+      </c>
+      <c r="F5">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1.0759479999999999</v>
+      </c>
+      <c r="D6" s="5">
+        <v>9.0838000000000002E-2</v>
+      </c>
+      <c r="F6">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1.072803</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0.14181099999999999</v>
+      </c>
+      <c r="F7">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1.0654600000000001</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0.37390699999999999</v>
+      </c>
+      <c r="F8">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1.0628200000000001</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0.55657500000000004</v>
+      </c>
+      <c r="F9">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1.062276</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0.61726199999999998</v>
+      </c>
+      <c r="F10">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C11" s="5">
+        <v>1.0613539999999999</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0.763104</v>
+      </c>
+      <c r="F11">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3">
+        <v>2E-3</v>
+      </c>
+      <c r="C12" s="5">
+        <v>1.0566770000000001</v>
+      </c>
+      <c r="D12" s="5">
+        <v>2.3751340000000001</v>
+      </c>
+      <c r="F12">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C13" s="5">
+        <v>1.054835</v>
+      </c>
+      <c r="D13" s="5">
+        <v>3.6678039999999998</v>
+      </c>
+      <c r="F13">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="C14" s="5">
+        <v>1.0543990000000001</v>
+      </c>
+      <c r="D14" s="5">
+        <v>4.1556030000000002</v>
+      </c>
+      <c r="F14">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C15" s="5">
+        <v>1.0536570000000001</v>
+      </c>
+      <c r="D15" s="5">
+        <v>5.3260310000000004</v>
+      </c>
+      <c r="F15">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="C16" s="5">
+        <v>1.052713</v>
+      </c>
+      <c r="D16" s="5">
+        <v>8.2841609999999992</v>
+      </c>
+      <c r="F16">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="C17" s="5">
+        <v>1.0522830000000001</v>
+      </c>
+      <c r="D17" s="6">
+        <v>11.304959999999999</v>
+      </c>
+      <c r="F17">
+        <v>849</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0.781362</v>
+      </c>
+      <c r="D2" s="5">
+        <v>3.7957999999999999E-2</v>
+      </c>
+      <c r="F2">
+        <v>5821</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0.78020599999999996</v>
+      </c>
+      <c r="D3" s="5">
+        <v>4.2890999999999999E-2</v>
+      </c>
+      <c r="F3">
+        <v>6048</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.77824000000000004</v>
+      </c>
+      <c r="D4" s="5">
+        <v>5.0349999999999999E-2</v>
+      </c>
+      <c r="F4">
+        <v>5482</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.77367399999999997</v>
+      </c>
+      <c r="D5" s="5">
+        <v>8.4301000000000001E-2</v>
+      </c>
+      <c r="F5">
+        <v>6905</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0.77238300000000004</v>
+      </c>
+      <c r="D6" s="5">
+        <v>9.8834000000000005E-2</v>
+      </c>
+      <c r="F6">
+        <v>6337</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0.76934899999999995</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0.14769599999999999</v>
+      </c>
+      <c r="F7">
+        <v>8560</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0.76215699999999997</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0.39043600000000001</v>
+      </c>
+      <c r="F8">
+        <v>14207</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0.75368100000000005</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0.99561699999999997</v>
+      </c>
+      <c r="F9">
+        <v>21972</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0.75137500000000002</v>
+      </c>
+      <c r="D10" s="5">
+        <v>1.2532840000000001</v>
+      </c>
+      <c r="F10">
+        <v>21466</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0.747888</v>
+      </c>
+      <c r="D11" s="5">
+        <v>1.8012010000000001</v>
+      </c>
+      <c r="F11">
+        <v>23641</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3">
+        <v>2E-3</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0.743085</v>
+      </c>
+      <c r="D12" s="5">
+        <v>3.3332199999999998</v>
+      </c>
+      <c r="F12">
+        <v>43862</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C13" s="5">
+        <v>0.73970100000000005</v>
+      </c>
+      <c r="D13" s="5">
+        <v>5.3484660000000002</v>
+      </c>
+      <c r="F13">
+        <v>110189</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0.73909899999999995</v>
+      </c>
+      <c r="D14" s="5">
+        <v>5.9845329999999999</v>
+      </c>
+      <c r="F14">
+        <v>81983</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0.73851999999999995</v>
+      </c>
+      <c r="D15" s="5">
+        <v>6.8936580000000003</v>
+      </c>
+      <c r="F15">
+        <v>75037</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="C16" s="5">
+        <v>0.73851999999999995</v>
+      </c>
+      <c r="D16" s="5">
+        <v>6.8936279999999996</v>
+      </c>
+      <c r="F16">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0.73743099999999995</v>
+      </c>
+      <c r="D17" s="6">
+        <v>11.874309999999999</v>
+      </c>
+      <c r="F17">
+        <v>83852</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4896,6 +6804,128 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S34" sqref="S34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H17"/>

--- a/data/Summer2017/L-curve/compiled_L-curve_data_2017-06-21_updated.xlsx
+++ b/data/Summer2017/L-curve/compiled_L-curve_data_2017-06-21_updated.xlsx
@@ -9,48 +9,49 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19215" windowHeight="9015" tabRatio="851"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19215" windowHeight="9015" tabRatio="851" firstSheet="17" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="key-to-input-workbooks" sheetId="2" r:id="rId1"/>
-    <sheet name="L-curve_1" sheetId="1" r:id="rId2"/>
-    <sheet name="L-curve_2" sheetId="3" r:id="rId3"/>
-    <sheet name="L-curve_3" sheetId="4" r:id="rId4"/>
-    <sheet name="L-curve_4" sheetId="5" r:id="rId5"/>
-    <sheet name="L-curve_5" sheetId="6" r:id="rId6"/>
-    <sheet name="L-curve_6" sheetId="16" r:id="rId7"/>
-    <sheet name="L-curve_7" sheetId="7" r:id="rId8"/>
-    <sheet name="L-curve_8" sheetId="8" r:id="rId9"/>
-    <sheet name="L-curve_9" sheetId="9" r:id="rId10"/>
-    <sheet name="L-curve_10" sheetId="10" r:id="rId11"/>
-    <sheet name="L-curve_11" sheetId="13" r:id="rId12"/>
-    <sheet name="L-curve_12" sheetId="14" r:id="rId13"/>
-    <sheet name="L-curve_13" sheetId="15" r:id="rId14"/>
-    <sheet name="L-curve_14" sheetId="17" r:id="rId15"/>
-    <sheet name="L-curve_15" sheetId="18" r:id="rId16"/>
-    <sheet name="L-curve_16" sheetId="19" r:id="rId17"/>
-    <sheet name="L-curve_17" sheetId="20" r:id="rId18"/>
-    <sheet name="L-curve_18" sheetId="21" r:id="rId19"/>
-    <sheet name="L-curve_19" sheetId="22" r:id="rId20"/>
-    <sheet name="L-curve_20" sheetId="23" r:id="rId21"/>
-    <sheet name="L-curve_21" sheetId="24" r:id="rId22"/>
-    <sheet name="L-curve_22" sheetId="25" r:id="rId23"/>
-    <sheet name="L-curve_23" sheetId="26" r:id="rId24"/>
-    <sheet name="L-curve_24" sheetId="27" r:id="rId25"/>
-    <sheet name="L-curve_25" sheetId="28" r:id="rId26"/>
-    <sheet name="L-curve_26" sheetId="29" r:id="rId27"/>
-    <sheet name="L-curve_27" sheetId="30" r:id="rId28"/>
-    <sheet name="L-curve_28" sheetId="31" r:id="rId29"/>
-    <sheet name="L-curve_29" sheetId="32" r:id="rId30"/>
-    <sheet name="L-curve_30" sheetId="33" r:id="rId31"/>
-    <sheet name="L-curve_31" sheetId="34" r:id="rId32"/>
-    <sheet name="L-curve_32" sheetId="35" r:id="rId33"/>
-    <sheet name="L-curve_33" sheetId="36" r:id="rId34"/>
-    <sheet name="L-curve_34" sheetId="41" r:id="rId35"/>
-    <sheet name="L-curve_35" sheetId="42" r:id="rId36"/>
-    <sheet name="L-curve_36" sheetId="43" r:id="rId37"/>
-    <sheet name="L-curve_37" sheetId="44" r:id="rId38"/>
-    <sheet name="L-curve_38" sheetId="45" r:id="rId39"/>
+    <sheet name="comparison-of-1-and-2" sheetId="46" r:id="rId2"/>
+    <sheet name="L-curve_1" sheetId="1" r:id="rId3"/>
+    <sheet name="L-curve_2" sheetId="3" r:id="rId4"/>
+    <sheet name="L-curve_3" sheetId="4" r:id="rId5"/>
+    <sheet name="L-curve_4" sheetId="5" r:id="rId6"/>
+    <sheet name="L-curve_5" sheetId="6" r:id="rId7"/>
+    <sheet name="L-curve_6" sheetId="16" r:id="rId8"/>
+    <sheet name="L-curve_7" sheetId="7" r:id="rId9"/>
+    <sheet name="L-curve_8" sheetId="8" r:id="rId10"/>
+    <sheet name="L-curve_9" sheetId="9" r:id="rId11"/>
+    <sheet name="L-curve_10" sheetId="10" r:id="rId12"/>
+    <sheet name="L-curve_11" sheetId="13" r:id="rId13"/>
+    <sheet name="L-curve_12" sheetId="14" r:id="rId14"/>
+    <sheet name="L-curve_13" sheetId="15" r:id="rId15"/>
+    <sheet name="L-curve_14" sheetId="17" r:id="rId16"/>
+    <sheet name="L-curve_15" sheetId="18" r:id="rId17"/>
+    <sheet name="L-curve_16" sheetId="19" r:id="rId18"/>
+    <sheet name="L-curve_17" sheetId="20" r:id="rId19"/>
+    <sheet name="L-curve_18" sheetId="21" r:id="rId20"/>
+    <sheet name="L-curve_19" sheetId="22" r:id="rId21"/>
+    <sheet name="L-curve_20" sheetId="23" r:id="rId22"/>
+    <sheet name="L-curve_21" sheetId="24" r:id="rId23"/>
+    <sheet name="L-curve_22" sheetId="25" r:id="rId24"/>
+    <sheet name="L-curve_23" sheetId="26" r:id="rId25"/>
+    <sheet name="L-curve_24" sheetId="27" r:id="rId26"/>
+    <sheet name="L-curve_25" sheetId="28" r:id="rId27"/>
+    <sheet name="L-curve_26" sheetId="29" r:id="rId28"/>
+    <sheet name="L-curve_27" sheetId="30" r:id="rId29"/>
+    <sheet name="L-curve_28" sheetId="31" r:id="rId30"/>
+    <sheet name="L-curve_29" sheetId="32" r:id="rId31"/>
+    <sheet name="L-curve_30" sheetId="33" r:id="rId32"/>
+    <sheet name="L-curve_31" sheetId="34" r:id="rId33"/>
+    <sheet name="L-curve_32" sheetId="35" r:id="rId34"/>
+    <sheet name="L-curve_33" sheetId="36" r:id="rId35"/>
+    <sheet name="L-curve_34" sheetId="41" r:id="rId36"/>
+    <sheet name="L-curve_35" sheetId="42" r:id="rId37"/>
+    <sheet name="L-curve_36" sheetId="43" r:id="rId38"/>
+    <sheet name="L-curve_37" sheetId="44" r:id="rId39"/>
+    <sheet name="L-curve_38" sheetId="45" r:id="rId40"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -62,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="55">
   <si>
     <t>Alpha</t>
   </si>
@@ -206,6 +207,27 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>L-curve_1</t>
+  </si>
+  <si>
+    <t>L-curve_2</t>
+  </si>
+  <si>
+    <t>LSE_1</t>
+  </si>
+  <si>
+    <t>Penalty_1</t>
+  </si>
+  <si>
+    <t>LSE_2</t>
+  </si>
+  <si>
+    <t>Penalty_2</t>
+  </si>
+  <si>
+    <t>combined</t>
   </si>
 </sst>
 </file>
@@ -553,7 +575,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -919,13 +943,13 @@
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>0.69005538641463482</v>
+        <v>0.72683111081384832</v>
       </c>
       <c r="D2">
-        <v>3.7897121630505293E-2</v>
+        <v>3.9361176885094794E-2</v>
       </c>
       <c r="F2">
-        <v>6907</v>
+        <v>7076</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -936,13 +960,13 @@
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>0.6858203663332112</v>
+        <v>0.72242288915543074</v>
       </c>
       <c r="D3">
-        <v>4.6124077042233723E-2</v>
+        <v>4.793855011961589E-2</v>
       </c>
       <c r="F3">
-        <v>7816</v>
+        <v>7534</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -953,13 +977,13 @@
         <v>0.2</v>
       </c>
       <c r="C4">
-        <v>0.67443969691782391</v>
+        <v>0.70892398825667402</v>
       </c>
       <c r="D4">
-        <v>8.2906728471633231E-2</v>
+        <v>9.3137598138974292E-2</v>
       </c>
       <c r="F4">
-        <v>6336</v>
+        <v>6792</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -970,13 +994,13 @@
         <v>0.1</v>
       </c>
       <c r="C5">
-        <v>0.66803843641074256</v>
+        <v>0.69876751051112929</v>
       </c>
       <c r="D5">
-        <v>0.1285322146470281</v>
+        <v>0.1658216291573984</v>
       </c>
       <c r="F5">
-        <v>7532</v>
+        <v>7932</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -987,13 +1011,13 @@
         <v>0.08</v>
       </c>
       <c r="C6">
-        <v>0.66615699556104457</v>
+        <v>0.69601919118111366</v>
       </c>
       <c r="D6">
-        <v>0.14960399777660885</v>
+        <v>0.19654333948331895</v>
       </c>
       <c r="F6">
-        <v>7420</v>
+        <v>7987</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -1004,13 +1028,13 @@
         <v>0.05</v>
       </c>
       <c r="C7">
-        <v>0.66261113338193289</v>
+        <v>0.69040284250352035</v>
       </c>
       <c r="D7">
-        <v>0.2057357858453798</v>
+        <v>0.28786571147408513</v>
       </c>
       <c r="F7">
-        <v>8615</v>
+        <v>12264</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -1021,13 +1045,13 @@
         <v>0.02</v>
       </c>
       <c r="C8">
-        <v>0.64948967126008927</v>
+        <v>0.66990352424976629</v>
       </c>
       <c r="D8">
-        <v>0.64324637250792827</v>
+        <v>0.95482616085994731</v>
       </c>
       <c r="F8">
-        <v>19286</v>
+        <v>17167</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -1038,13 +1062,13 @@
         <v>0.01</v>
       </c>
       <c r="C9">
-        <v>0.63891796966514991</v>
+        <v>0.66304893751802563</v>
       </c>
       <c r="D9">
-        <v>1.3470457579692372</v>
+        <v>1.4294020799097737</v>
       </c>
       <c r="F9">
-        <v>27914</v>
+        <v>28773</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -1055,13 +1079,13 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="C10">
-        <v>0.63777073357219971</v>
+        <v>0.66167602521229307</v>
       </c>
       <c r="D10">
-        <v>1.4232043265103003</v>
+        <v>1.5825996920577914</v>
       </c>
       <c r="F10">
-        <v>38496</v>
+        <v>23528</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -1072,13 +1096,13 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="C11">
-        <v>0.63535376639578645</v>
+        <v>0.65959778910880218</v>
       </c>
       <c r="D11">
-        <v>1.8016987226442658</v>
+        <v>1.9083264288670798</v>
       </c>
       <c r="F11">
-        <v>49020</v>
+        <v>31021</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -1089,13 +1113,13 @@
         <v>2E-3</v>
       </c>
       <c r="C12">
-        <v>0.63217883350376602</v>
+        <v>0.65731774460564329</v>
       </c>
       <c r="D12">
-        <v>2.820164093002846</v>
+        <v>2.6189453408130028</v>
       </c>
       <c r="F12">
-        <v>63704</v>
+        <v>59032</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -1106,13 +1130,13 @@
         <v>1E-3</v>
       </c>
       <c r="C13">
-        <v>0.63056308307530406</v>
+        <v>0.65608662371873183</v>
       </c>
       <c r="D13">
-        <v>3.9571676197855084</v>
+        <v>3.5121851950673095</v>
       </c>
       <c r="F13">
-        <v>115011</v>
+        <v>95827</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -1123,13 +1147,13 @@
         <v>8.0000000000000004E-4</v>
       </c>
       <c r="C14">
-        <v>0.63016904164828169</v>
+        <v>0.65569075383690922</v>
       </c>
       <c r="D14">
-        <v>4.3958275967718405</v>
+        <v>3.9511278884805252</v>
       </c>
       <c r="F14">
-        <v>124229</v>
+        <v>99091</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -1140,13 +1164,13 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="C15">
-        <v>0.62942605794975515</v>
+        <v>0.65497090939983216</v>
       </c>
       <c r="D15">
-        <v>5.5681294444313556</v>
+        <v>5.1126109975480984</v>
       </c>
       <c r="F15">
-        <v>178476</v>
+        <v>123646</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -1157,13 +1181,13 @@
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="C16">
-        <v>0.62848837930655987</v>
+        <v>0.65385959948271</v>
       </c>
       <c r="D16">
-        <v>8.4867651868013887</v>
+        <v>8.2624418119208247</v>
       </c>
       <c r="F16">
-        <v>339312</v>
+        <v>127367</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -1174,13 +1198,13 @@
         <v>1E-4</v>
       </c>
       <c r="C17">
-        <v>0.62896097875341417</v>
+        <v>0.65355270455997272</v>
       </c>
       <c r="D17">
-        <v>8.7669740451200759</v>
+        <v>10.800569097041571</v>
       </c>
       <c r="F17">
-        <v>195955</v>
+        <v>106173</v>
       </c>
     </row>
   </sheetData>
@@ -1229,13 +1253,13 @@
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>0.67315825620826575</v>
+        <v>0.69005538641463482</v>
       </c>
       <c r="D2">
-        <v>3.8482642169280386E-2</v>
+        <v>3.7897121630505293E-2</v>
       </c>
       <c r="F2">
-        <v>6791</v>
+        <v>6907</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -1246,13 +1270,13 @@
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>0.66976202552105357</v>
+        <v>0.6858203663332112</v>
       </c>
       <c r="D3">
-        <v>4.5125511328748126E-2</v>
+        <v>4.6124077042233723E-2</v>
       </c>
       <c r="F3">
-        <v>6906</v>
+        <v>7816</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -1263,13 +1287,13 @@
         <v>0.2</v>
       </c>
       <c r="C4">
-        <v>0.65953524726926793</v>
+        <v>0.67443969691782391</v>
       </c>
       <c r="D4">
-        <v>7.8223145151676374E-2</v>
+        <v>8.2906728471633231E-2</v>
       </c>
       <c r="F4">
-        <v>6166</v>
+        <v>6336</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -1280,13 +1304,13 @@
         <v>0.1</v>
       </c>
       <c r="C5">
-        <v>0.65342328590090348</v>
+        <v>0.66803843641074256</v>
       </c>
       <c r="D5">
-        <v>0.1225070084539389</v>
+        <v>0.1285322146470281</v>
       </c>
       <c r="F5">
-        <v>7592</v>
+        <v>7532</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -1297,13 +1321,13 @@
         <v>0.08</v>
       </c>
       <c r="C6">
-        <v>0.65134326994336156</v>
+        <v>0.66615699556104457</v>
       </c>
       <c r="D6">
-        <v>0.14579589677456625</v>
+        <v>0.14960399777660885</v>
       </c>
       <c r="F6">
-        <v>7648</v>
+        <v>7420</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -1314,13 +1338,13 @@
         <v>0.05</v>
       </c>
       <c r="C7">
-        <v>0.64768067266481877</v>
+        <v>0.66261113338193289</v>
       </c>
       <c r="D7">
-        <v>0.20356815164132375</v>
+        <v>0.2057357858453798</v>
       </c>
       <c r="F7">
-        <v>9754</v>
+        <v>8615</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -1331,13 +1355,13 @@
         <v>0.02</v>
       </c>
       <c r="C8">
-        <v>0.62349565650309968</v>
+        <v>0.64948967126008927</v>
       </c>
       <c r="D8">
-        <v>0.87790753500826368</v>
+        <v>0.64324637250792827</v>
       </c>
       <c r="F8">
-        <v>17457</v>
+        <v>19286</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -1348,13 +1372,13 @@
         <v>0.01</v>
       </c>
       <c r="C9">
-        <v>0.61714629211120009</v>
+        <v>0.63891796966514991</v>
       </c>
       <c r="D9">
-        <v>1.3244653806753099</v>
+        <v>1.3470457579692372</v>
       </c>
       <c r="F9">
-        <v>21769</v>
+        <v>27914</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -1365,13 +1389,13 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="C10">
-        <v>0.61553711700080527</v>
+        <v>0.63777073357219971</v>
       </c>
       <c r="D10">
-        <v>1.5042387362371881</v>
+        <v>1.4232043265103003</v>
       </c>
       <c r="F10">
-        <v>25928</v>
+        <v>38496</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -1382,13 +1406,13 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="C11">
-        <v>0.61261196788733296</v>
+        <v>0.63535376639578645</v>
       </c>
       <c r="D11">
-        <v>1.9675482980804924</v>
+        <v>1.8016987226442658</v>
       </c>
       <c r="F11">
-        <v>32444</v>
+        <v>49020</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -1399,13 +1423,13 @@
         <v>2E-3</v>
       </c>
       <c r="C12">
-        <v>0.61622199770413399</v>
+        <v>0.63217883350376602</v>
       </c>
       <c r="D12">
-        <v>3.1101338641737533</v>
+        <v>2.820164093002846</v>
       </c>
       <c r="F12">
-        <v>112952</v>
+        <v>63704</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -1416,13 +1440,13 @@
         <v>1E-3</v>
       </c>
       <c r="C13">
-        <v>0.60498413158379305</v>
+        <v>0.63056308307530406</v>
       </c>
       <c r="D13">
-        <v>6.1149850360107179</v>
+        <v>3.9571676197855084</v>
       </c>
       <c r="F13">
-        <v>253412</v>
+        <v>115011</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -1433,13 +1457,13 @@
         <v>8.0000000000000004E-4</v>
       </c>
       <c r="C14">
-        <v>0.61365277735640333</v>
+        <v>0.63016904164828169</v>
       </c>
       <c r="D14">
-        <v>5.1930727938839452</v>
+        <v>4.3958275967718405</v>
       </c>
       <c r="F14">
-        <v>189329</v>
+        <v>124229</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -1450,13 +1474,13 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="C15">
-        <v>0.60336166726151919</v>
+        <v>0.62942605794975515</v>
       </c>
       <c r="D15">
-        <v>8.2910501654891622</v>
+        <v>5.5681294444313556</v>
       </c>
       <c r="F15">
-        <v>300425</v>
+        <v>178476</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -1467,13 +1491,13 @@
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="C16">
-        <v>0.60584370364045315</v>
+        <v>0.62848837930655987</v>
       </c>
       <c r="D16">
-        <v>8.5916609773513972</v>
+        <v>8.4867651868013887</v>
       </c>
       <c r="F16">
-        <v>242123</v>
+        <v>339312</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -1484,13 +1508,13 @@
         <v>1E-4</v>
       </c>
       <c r="C17">
-        <v>0.60597999354704668</v>
+        <v>0.62896097875341417</v>
       </c>
       <c r="D17">
-        <v>9.4036817120199476</v>
+        <v>8.7669740451200759</v>
       </c>
       <c r="F17">
-        <v>163876</v>
+        <v>195955</v>
       </c>
     </row>
   </sheetData>
@@ -1539,13 +1563,13 @@
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>0.71568977038744264</v>
+        <v>0.67315825620826575</v>
       </c>
       <c r="D2">
-        <v>3.5637634188070789E-2</v>
+        <v>3.8482642169280386E-2</v>
       </c>
       <c r="F2">
-        <v>6393</v>
+        <v>6791</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -1556,13 +1580,13 @@
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>0.71241636752068593</v>
+        <v>0.66976202552105357</v>
       </c>
       <c r="D3">
-        <v>4.32129469379064E-2</v>
+        <v>4.5125511328748126E-2</v>
       </c>
       <c r="F3">
-        <v>7304</v>
+        <v>6906</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -1573,13 +1597,13 @@
         <v>0.2</v>
       </c>
       <c r="C4">
-        <v>0.69019091220984119</v>
+        <v>0.65953524726926793</v>
       </c>
       <c r="D4">
-        <v>0.12225560876132767</v>
+        <v>7.8223145151676374E-2</v>
       </c>
       <c r="F4">
-        <v>6682</v>
+        <v>6166</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -1590,13 +1614,13 @@
         <v>0.1</v>
       </c>
       <c r="C5">
-        <v>0.67370514186574848</v>
+        <v>0.65342328590090348</v>
       </c>
       <c r="D5">
-        <v>0.23479302137328359</v>
+        <v>0.1225070084539389</v>
       </c>
       <c r="F5">
-        <v>8908</v>
+        <v>7592</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -1607,13 +1631,13 @@
         <v>0.08</v>
       </c>
       <c r="C6">
-        <v>0.67167577972204917</v>
+        <v>0.65134326994336156</v>
       </c>
       <c r="D6">
-        <v>0.25746470412243111</v>
+        <v>0.14579589677456625</v>
       </c>
       <c r="F6">
-        <v>6680</v>
+        <v>7648</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -1624,13 +1648,13 @@
         <v>0.05</v>
       </c>
       <c r="C7">
-        <v>0.66821262474252952</v>
+        <v>0.64768067266481877</v>
       </c>
       <c r="D7">
-        <v>0.31246135644360862</v>
+        <v>0.20356815164132375</v>
       </c>
       <c r="F7">
-        <v>8391</v>
+        <v>9754</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -1641,13 +1665,13 @@
         <v>0.02</v>
       </c>
       <c r="C8">
-        <v>0.66194861917596282</v>
+        <v>0.62349565650309968</v>
       </c>
       <c r="D8">
-        <v>0.51263558629194816</v>
+        <v>0.87790753500826368</v>
       </c>
       <c r="F8">
-        <v>13243</v>
+        <v>17457</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -1658,13 +1682,13 @@
         <v>0.01</v>
       </c>
       <c r="C9">
-        <v>0.658909779912769</v>
+        <v>0.61714629211120009</v>
       </c>
       <c r="D9">
-        <v>0.72715823268061108</v>
+        <v>1.3244653806753099</v>
       </c>
       <c r="F9">
-        <v>21236</v>
+        <v>21769</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -1675,13 +1699,13 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="C10">
-        <v>0.65809822687056774</v>
+        <v>0.61553711700080527</v>
       </c>
       <c r="D10">
-        <v>0.81802452735994979</v>
+        <v>1.5042387362371881</v>
       </c>
       <c r="F10">
-        <v>24031</v>
+        <v>25928</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -1692,13 +1716,13 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="C11">
-        <v>0.65622611594896429</v>
+        <v>0.61261196788733296</v>
       </c>
       <c r="D11">
-        <v>1.1197515373478539</v>
+        <v>1.9675482980804924</v>
       </c>
       <c r="F11">
-        <v>32189</v>
+        <v>32444</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -1709,13 +1733,13 @@
         <v>2E-3</v>
       </c>
       <c r="C12">
-        <v>0.65348913685244303</v>
+        <v>0.61622199770413399</v>
       </c>
       <c r="D12">
-        <v>1.9560993651747796</v>
+        <v>3.1101338641737533</v>
       </c>
       <c r="F12">
-        <v>41755</v>
+        <v>112952</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -1726,13 +1750,13 @@
         <v>1E-3</v>
       </c>
       <c r="C13">
-        <v>0.65262656279587072</v>
+        <v>0.60498413158379305</v>
       </c>
       <c r="D13">
-        <v>2.5544916792804058</v>
+        <v>6.1149850360107179</v>
       </c>
       <c r="F13">
-        <v>72263</v>
+        <v>253412</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -1743,13 +1767,13 @@
         <v>8.0000000000000004E-4</v>
       </c>
       <c r="C14">
-        <v>0.65245803931647572</v>
+        <v>0.61365277735640333</v>
       </c>
       <c r="D14">
-        <v>2.7424839018077027</v>
+        <v>5.1930727938839452</v>
       </c>
       <c r="F14">
-        <v>78925</v>
+        <v>189329</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -1760,13 +1784,13 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="C15">
-        <v>0.65205921884737994</v>
+        <v>0.60336166726151919</v>
       </c>
       <c r="D15">
-        <v>3.2986220411980369</v>
+        <v>8.2910501654891622</v>
       </c>
       <c r="F15">
-        <v>102033</v>
+        <v>300425</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -1777,13 +1801,13 @@
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="C16">
-        <v>0.6516978107357001</v>
+        <v>0.60584370364045315</v>
       </c>
       <c r="D16">
-        <v>4.4275834447681728</v>
+        <v>8.5916609773513972</v>
       </c>
       <c r="F16">
-        <v>122882</v>
+        <v>242123</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -1794,13 +1818,13 @@
         <v>1E-4</v>
       </c>
       <c r="C17">
-        <v>0.65153968892054026</v>
+        <v>0.60597999354704668</v>
       </c>
       <c r="D17">
-        <v>5.5348232756171631</v>
+        <v>9.4036817120199476</v>
       </c>
       <c r="F17">
-        <v>115251</v>
+        <v>163876</v>
       </c>
     </row>
   </sheetData>
@@ -1849,13 +1873,13 @@
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>0.65431890727758024</v>
+        <v>0.71568977038744264</v>
       </c>
       <c r="D2">
-        <v>4.2941614547323106E-2</v>
+        <v>3.5637634188070789E-2</v>
       </c>
       <c r="F2">
-        <v>6450</v>
+        <v>6393</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -1866,13 +1890,13 @@
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>0.65122400648348411</v>
+        <v>0.71241636752068593</v>
       </c>
       <c r="D3">
-        <v>4.9376731478372911E-2</v>
+        <v>4.32129469379064E-2</v>
       </c>
       <c r="F3">
-        <v>6846</v>
+        <v>7304</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -1883,13 +1907,13 @@
         <v>0.2</v>
       </c>
       <c r="C4">
-        <v>0.64382465299520319</v>
+        <v>0.69019091220984119</v>
       </c>
       <c r="D4">
-        <v>7.571871959315557E-2</v>
+        <v>0.12225560876132767</v>
       </c>
       <c r="F4">
-        <v>6336</v>
+        <v>6682</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -1900,13 +1924,13 @@
         <v>0.1</v>
       </c>
       <c r="C5">
-        <v>0.63069764596645483</v>
+        <v>0.67370514186574848</v>
       </c>
       <c r="D5">
-        <v>0.16793093486006058</v>
+        <v>0.23479302137328359</v>
       </c>
       <c r="F5">
-        <v>8388</v>
+        <v>8908</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -1917,13 +1941,13 @@
         <v>0.08</v>
       </c>
       <c r="C6">
-        <v>0.62829764832384816</v>
+        <v>0.67167577972204917</v>
       </c>
       <c r="D6">
-        <v>0.19467558269058932</v>
+        <v>0.25746470412243111</v>
       </c>
       <c r="F6">
-        <v>7705</v>
+        <v>6680</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -1934,13 +1958,13 @@
         <v>0.05</v>
       </c>
       <c r="C7">
-        <v>0.6070913612773402</v>
+        <v>0.66821262474252952</v>
       </c>
       <c r="D7">
-        <v>0.38684250542907256</v>
+        <v>0.31246135644360862</v>
       </c>
       <c r="F7">
-        <v>13239</v>
+        <v>8391</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -1951,13 +1975,13 @@
         <v>0.02</v>
       </c>
       <c r="C8">
-        <v>0.5990548064968384</v>
+        <v>0.66194861917596282</v>
       </c>
       <c r="D8">
-        <v>0.64861830800397635</v>
+        <v>0.51263558629194816</v>
       </c>
       <c r="F8">
-        <v>16616</v>
+        <v>13243</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -1968,13 +1992,13 @@
         <v>0.01</v>
       </c>
       <c r="C9">
-        <v>0.59392589115065086</v>
+        <v>0.658909779912769</v>
       </c>
       <c r="D9">
-        <v>1.0086244757915557</v>
+        <v>0.72715823268061108</v>
       </c>
       <c r="F9">
-        <v>19292</v>
+        <v>21236</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -1985,13 +2009,13 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="C10">
-        <v>0.59280203785528285</v>
+        <v>0.65809822687056774</v>
       </c>
       <c r="D10">
-        <v>1.1340688473017386</v>
+        <v>0.81802452735994979</v>
       </c>
       <c r="F10">
-        <v>21352</v>
+        <v>24031</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -2002,13 +2026,13 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="C11">
-        <v>0.59104488232422014</v>
+        <v>0.65622611594896429</v>
       </c>
       <c r="D11">
-        <v>1.4100812437452344</v>
+        <v>1.1197515373478539</v>
       </c>
       <c r="F11">
-        <v>32478</v>
+        <v>32189</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -2019,13 +2043,13 @@
         <v>2E-3</v>
       </c>
       <c r="C12">
-        <v>0.58907837523718753</v>
+        <v>0.65348913685244303</v>
       </c>
       <c r="D12">
-        <v>2.0205491201371504</v>
+        <v>1.9560993651747796</v>
       </c>
       <c r="F12">
-        <v>43064</v>
+        <v>41755</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -2036,13 +2060,13 @@
         <v>1E-3</v>
       </c>
       <c r="C13">
-        <v>0.58808369969133467</v>
+        <v>0.65262656279587072</v>
       </c>
       <c r="D13">
-        <v>2.7354135611858617</v>
+        <v>2.5544916792804058</v>
       </c>
       <c r="F13">
-        <v>50957</v>
+        <v>72263</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -2053,13 +2077,13 @@
         <v>8.0000000000000004E-4</v>
       </c>
       <c r="C14">
-        <v>0.58690009281352085</v>
+        <v>0.65245803931647572</v>
       </c>
       <c r="D14">
-        <v>4.0679887896095499</v>
+        <v>2.7424839018077027</v>
       </c>
       <c r="F14">
-        <v>86145</v>
+        <v>78925</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -2070,13 +2094,13 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="C15">
-        <v>0.58783011047804623</v>
+        <v>0.65205921884737994</v>
       </c>
       <c r="D15">
-        <v>3.6348682650358</v>
+        <v>3.2986220411980369</v>
       </c>
       <c r="F15">
-        <v>36304</v>
+        <v>102033</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -2087,13 +2111,13 @@
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="C16">
-        <v>0.58466488346084244</v>
+        <v>0.6516978107357001</v>
       </c>
       <c r="D16">
-        <v>9.6191978705530676</v>
+        <v>4.4275834447681728</v>
       </c>
       <c r="F16">
-        <v>157027</v>
+        <v>122882</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -2104,13 +2128,13 @@
         <v>1E-4</v>
       </c>
       <c r="C17">
-        <v>0.58489245081147423</v>
+        <v>0.65153968892054026</v>
       </c>
       <c r="D17">
-        <v>12.440708756646673</v>
+        <v>5.5348232756171631</v>
       </c>
       <c r="F17">
-        <v>66036</v>
+        <v>115251</v>
       </c>
     </row>
   </sheetData>
@@ -2159,13 +2183,13 @@
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>0.71648218626568871</v>
+        <v>0.65431890727758024</v>
       </c>
       <c r="D2">
-        <v>3.7640088523074579E-2</v>
+        <v>4.2941614547323106E-2</v>
       </c>
       <c r="F2">
-        <v>5947</v>
+        <v>6450</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -2176,13 +2200,13 @@
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>0.71189472129171305</v>
+        <v>0.65122400648348411</v>
       </c>
       <c r="D3">
-        <v>4.6523999711404342E-2</v>
+        <v>4.9376731478372911E-2</v>
       </c>
       <c r="F3">
-        <v>7135</v>
+        <v>6846</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -2193,13 +2217,13 @@
         <v>0.2</v>
       </c>
       <c r="C4">
-        <v>0.69985829338171224</v>
+        <v>0.64382465299520319</v>
       </c>
       <c r="D4">
-        <v>8.526461940738983E-2</v>
+        <v>7.571871959315557E-2</v>
       </c>
       <c r="F4">
-        <v>5571</v>
+        <v>6336</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -2210,13 +2234,13 @@
         <v>0.1</v>
       </c>
       <c r="C5">
-        <v>0.69352522663184335</v>
+        <v>0.63069764596645483</v>
       </c>
       <c r="D5">
-        <v>0.1302633092852731</v>
+        <v>0.16793093486006058</v>
       </c>
       <c r="F5">
-        <v>6921</v>
+        <v>8388</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -2227,13 +2251,13 @@
         <v>0.08</v>
       </c>
       <c r="C6">
-        <v>0.69172261896324061</v>
+        <v>0.62829764832384816</v>
       </c>
       <c r="D6">
-        <v>0.1504466558898338</v>
+        <v>0.19467558269058932</v>
       </c>
       <c r="F6">
-        <v>7030</v>
+        <v>7705</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -2244,13 +2268,13 @@
         <v>0.05</v>
       </c>
       <c r="C7">
-        <v>0.68847734842914932</v>
+        <v>0.6070913612773402</v>
       </c>
       <c r="D7">
-        <v>0.20163475927015015</v>
+        <v>0.38684250542907256</v>
       </c>
       <c r="F7">
-        <v>7999</v>
+        <v>13239</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -2261,13 +2285,13 @@
         <v>0.02</v>
       </c>
       <c r="C8">
-        <v>0.67595825100642692</v>
+        <v>0.5990548064968384</v>
       </c>
       <c r="D8">
-        <v>0.62166739267566051</v>
+        <v>0.64861830800397635</v>
       </c>
       <c r="F8">
-        <v>18111</v>
+        <v>16616</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -2278,13 +2302,13 @@
         <v>0.01</v>
       </c>
       <c r="C9">
-        <v>0.66477225898206671</v>
+        <v>0.59392589115065086</v>
       </c>
       <c r="D9">
-        <v>1.3663681998663539</v>
+        <v>1.0086244757915557</v>
       </c>
       <c r="F9">
-        <v>28393</v>
+        <v>19292</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -2295,13 +2319,13 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="C10">
-        <v>0.66385407387371109</v>
+        <v>0.59280203785528285</v>
       </c>
       <c r="D10">
-        <v>1.4171064154108748</v>
+        <v>1.1340688473017386</v>
       </c>
       <c r="F10">
-        <v>38847</v>
+        <v>21352</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -2312,13 +2336,13 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="C11">
-        <v>0.66146680558011128</v>
+        <v>0.59104488232422014</v>
       </c>
       <c r="D11">
-        <v>1.7915182838159198</v>
+        <v>1.4100812437452344</v>
       </c>
       <c r="F11">
-        <v>28519</v>
+        <v>32478</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -2329,13 +2353,13 @@
         <v>2E-3</v>
       </c>
       <c r="C12">
-        <v>0.65837061006272102</v>
+        <v>0.58907837523718753</v>
       </c>
       <c r="D12">
-        <v>2.7790332939496571</v>
+        <v>2.0205491201371504</v>
       </c>
       <c r="F12">
-        <v>45950</v>
+        <v>43064</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -2346,13 +2370,13 @@
         <v>1E-3</v>
       </c>
       <c r="C13">
-        <v>0.65697198576988036</v>
+        <v>0.58808369969133467</v>
       </c>
       <c r="D13">
-        <v>3.7545288936455568</v>
+        <v>2.7354135611858617</v>
       </c>
       <c r="F13">
-        <v>82105</v>
+        <v>50957</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -2363,13 +2387,13 @@
         <v>8.0000000000000004E-4</v>
       </c>
       <c r="C14">
-        <v>0.65665368079656727</v>
+        <v>0.58690009281352085</v>
       </c>
       <c r="D14">
-        <v>4.1086773402760377</v>
+        <v>4.0679887896095499</v>
       </c>
       <c r="F14">
-        <v>141086</v>
+        <v>86145</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -2380,13 +2404,13 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="C15">
-        <v>0.6560846442182301</v>
+        <v>0.58783011047804623</v>
       </c>
       <c r="D15">
-        <v>5.0404247509518783</v>
+        <v>3.6348682650358</v>
       </c>
       <c r="F15">
-        <v>158051</v>
+        <v>36304</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -2397,13 +2421,13 @@
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="C16">
-        <v>0.65554389883002573</v>
+        <v>0.58466488346084244</v>
       </c>
       <c r="D16">
-        <v>7.1675253429322083</v>
+        <v>9.6191978705530676</v>
       </c>
       <c r="F16">
-        <v>212750</v>
+        <v>157027</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -2414,13 +2438,13 @@
         <v>1E-4</v>
       </c>
       <c r="C17">
-        <v>0.65477734732971882</v>
+        <v>0.58489245081147423</v>
       </c>
       <c r="D17">
-        <v>10.253494413074701</v>
+        <v>12.440708756646673</v>
       </c>
       <c r="F17">
-        <v>186791</v>
+        <v>66036</v>
       </c>
     </row>
   </sheetData>
@@ -2469,13 +2493,13 @@
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>0.68791881699321678</v>
+        <v>0.71648218626568871</v>
       </c>
       <c r="D2">
-        <v>3.9698464399724104E-2</v>
+        <v>3.7640088523074579E-2</v>
       </c>
       <c r="F2">
-        <v>5566</v>
+        <v>5947</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -2486,13 +2510,13 @@
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>0.68291328948189889</v>
+        <v>0.71189472129171305</v>
       </c>
       <c r="D3">
-        <v>4.9830448795372628E-2</v>
+        <v>4.6523999711404342E-2</v>
       </c>
       <c r="F3">
-        <v>5310</v>
+        <v>7135</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -2503,13 +2527,13 @@
         <v>0.2</v>
       </c>
       <c r="C4">
-        <v>0.66999922178973936</v>
+        <v>0.69985829338171224</v>
       </c>
       <c r="D4">
-        <v>9.146424019072931E-2</v>
+        <v>8.526461940738983E-2</v>
       </c>
       <c r="F4">
-        <v>5263</v>
+        <v>5571</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -2520,13 +2544,13 @@
         <v>0.1</v>
       </c>
       <c r="C5">
-        <v>0.663219935192218</v>
+        <v>0.69352522663184335</v>
       </c>
       <c r="D5">
-        <v>0.13967751302975101</v>
+        <v>0.1302633092852731</v>
       </c>
       <c r="F5">
-        <v>6332</v>
+        <v>6921</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -2537,13 +2561,13 @@
         <v>0.08</v>
       </c>
       <c r="C6">
-        <v>0.66128503274019501</v>
+        <v>0.69172261896324061</v>
       </c>
       <c r="D6">
-        <v>0.16134052218289091</v>
+        <v>0.1504466558898338</v>
       </c>
       <c r="F6">
-        <v>6487</v>
+        <v>7030</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -2554,13 +2578,13 @@
         <v>0.05</v>
       </c>
       <c r="C7">
-        <v>0.65782691362771017</v>
+        <v>0.68847734842914932</v>
       </c>
       <c r="D7">
-        <v>0.21586348922960252</v>
+        <v>0.20163475927015015</v>
       </c>
       <c r="F7">
-        <v>6791</v>
+        <v>7999</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -2571,13 +2595,13 @@
         <v>0.02</v>
       </c>
       <c r="C8">
-        <v>0.64413249194007427</v>
+        <v>0.67595825100642692</v>
       </c>
       <c r="D8">
-        <v>0.70504277161053963</v>
+        <v>0.62166739267566051</v>
       </c>
       <c r="F8">
-        <v>17822</v>
+        <v>18111</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -2588,13 +2612,13 @@
         <v>0.01</v>
       </c>
       <c r="C9">
-        <v>0.63237818210979091</v>
+        <v>0.66477225898206671</v>
       </c>
       <c r="D9">
-        <v>1.4548716020322894</v>
+        <v>1.3663681998663539</v>
       </c>
       <c r="F9">
-        <v>18961</v>
+        <v>28393</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -2605,13 +2629,13 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="C10">
-        <v>0.63072065862920967</v>
+        <v>0.66385407387371109</v>
       </c>
       <c r="D10">
-        <v>1.639967954892958</v>
+        <v>1.4171064154108748</v>
       </c>
       <c r="F10">
-        <v>21611</v>
+        <v>38847</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -2622,13 +2646,13 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="C11">
-        <v>0.62828544007413567</v>
+        <v>0.66146680558011128</v>
       </c>
       <c r="D11">
-        <v>2.0211646214654162</v>
+        <v>1.7915182838159198</v>
       </c>
       <c r="F11">
-        <v>20395</v>
+        <v>28519</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -2639,13 +2663,13 @@
         <v>2E-3</v>
       </c>
       <c r="C12">
-        <v>0.62579499061626109</v>
+        <v>0.65837061006272102</v>
       </c>
       <c r="D12">
-        <v>2.786500222294511</v>
+        <v>2.7790332939496571</v>
       </c>
       <c r="F12">
-        <v>47059</v>
+        <v>45950</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -2656,13 +2680,13 @@
         <v>1E-3</v>
       </c>
       <c r="C13">
-        <v>0.62490977615146492</v>
+        <v>0.65697198576988036</v>
       </c>
       <c r="D13">
-        <v>3.4017471297556967</v>
+        <v>3.7545288936455568</v>
       </c>
       <c r="F13">
-        <v>66991</v>
+        <v>82105</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -2673,13 +2697,13 @@
         <v>8.0000000000000004E-4</v>
       </c>
       <c r="C14">
-        <v>0.6258421582028727</v>
+        <v>0.65665368079656727</v>
       </c>
       <c r="D14">
-        <v>3.3281147958724504</v>
+        <v>4.1086773402760377</v>
       </c>
       <c r="F14">
-        <v>78562</v>
+        <v>141086</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -2690,13 +2714,13 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="C15">
-        <v>0.62573728833487263</v>
+        <v>0.6560846442182301</v>
       </c>
       <c r="D15">
-        <v>3.6880565450585738</v>
+        <v>5.0404247509518783</v>
       </c>
       <c r="F15">
-        <v>37830</v>
+        <v>158051</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -2707,13 +2731,13 @@
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="C16">
-        <v>0.62490778019384996</v>
+        <v>0.65554389883002573</v>
       </c>
       <c r="D16">
-        <v>5.7223452388503837</v>
+        <v>7.1675253429322083</v>
       </c>
       <c r="F16">
-        <v>175369</v>
+        <v>212750</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -2724,13 +2748,13 @@
         <v>1E-4</v>
       </c>
       <c r="C17">
-        <v>0.62539391806691658</v>
+        <v>0.65477734732971882</v>
       </c>
       <c r="D17">
-        <v>6.5119607436099045</v>
+        <v>10.253494413074701</v>
       </c>
       <c r="F17">
-        <v>83680</v>
+        <v>186791</v>
       </c>
     </row>
   </sheetData>
@@ -2779,13 +2803,13 @@
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>0.68866133811885588</v>
+        <v>0.68791881699321678</v>
       </c>
       <c r="D2">
-        <v>4.103946096632214E-2</v>
+        <v>3.9698464399724104E-2</v>
       </c>
       <c r="F2">
-        <v>5156</v>
+        <v>5566</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -2796,13 +2820,13 @@
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>0.68316556958397945</v>
+        <v>0.68291328948189889</v>
       </c>
       <c r="D3">
-        <v>5.0923159224345926E-2</v>
+        <v>4.9830448795372628E-2</v>
       </c>
       <c r="F3">
-        <v>5543</v>
+        <v>5310</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -2813,13 +2837,13 @@
         <v>0.2</v>
       </c>
       <c r="C4">
-        <v>0.66935298605929394</v>
+        <v>0.66999922178973936</v>
       </c>
       <c r="D4">
-        <v>9.5414621421438361E-2</v>
+        <v>9.146424019072931E-2</v>
       </c>
       <c r="F4">
-        <v>5496</v>
+        <v>5263</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -2830,13 +2854,13 @@
         <v>0.1</v>
       </c>
       <c r="C5">
-        <v>0.66189379308628282</v>
+        <v>0.663219935192218</v>
       </c>
       <c r="D5">
-        <v>0.14841996241702199</v>
+        <v>0.13967751302975101</v>
       </c>
       <c r="F5">
-        <v>6087</v>
+        <v>6332</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -2847,13 +2871,13 @@
         <v>0.08</v>
       </c>
       <c r="C6">
-        <v>0.6597858664264018</v>
+        <v>0.66128503274019501</v>
       </c>
       <c r="D6">
-        <v>0.17200874319923276</v>
+        <v>0.16134052218289091</v>
       </c>
       <c r="F6">
-        <v>6133</v>
+        <v>6487</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -2864,13 +2888,13 @@
         <v>0.05</v>
       </c>
       <c r="C7">
-        <v>0.65612341310338373</v>
+        <v>0.65782691362771017</v>
       </c>
       <c r="D7">
-        <v>0.22968738291395793</v>
+        <v>0.21586348922960252</v>
       </c>
       <c r="F7">
-        <v>7115</v>
+        <v>6791</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -2881,13 +2905,13 @@
         <v>0.02</v>
       </c>
       <c r="C8">
-        <v>0.643845695733263</v>
+        <v>0.64413249194007427</v>
       </c>
       <c r="D8">
-        <v>0.63640740628701187</v>
+        <v>0.70504277161053963</v>
       </c>
       <c r="F8">
-        <v>14032</v>
+        <v>17822</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -2898,13 +2922,13 @@
         <v>0.01</v>
       </c>
       <c r="C9">
-        <v>0.63438083747411578</v>
+        <v>0.63237818210979091</v>
       </c>
       <c r="D9">
-        <v>1.3664099638236944</v>
+        <v>1.4548716020322894</v>
       </c>
       <c r="F9">
-        <v>22696</v>
+        <v>18961</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -2915,13 +2939,13 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="C10">
-        <v>0.63298212190445546</v>
+        <v>0.63072065862920967</v>
       </c>
       <c r="D10">
-        <v>1.522119048485199</v>
+        <v>1.639967954892958</v>
       </c>
       <c r="F10">
-        <v>18602</v>
+        <v>21611</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -2932,13 +2956,13 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="C11">
-        <v>0.63097886832687677</v>
+        <v>0.62828544007413567</v>
       </c>
       <c r="D11">
-        <v>1.836863761061734</v>
+        <v>2.0211646214654162</v>
       </c>
       <c r="F11">
-        <v>19602</v>
+        <v>20395</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -2949,13 +2973,13 @@
         <v>2E-3</v>
       </c>
       <c r="C12">
-        <v>0.62810388250366245</v>
+        <v>0.62579499061626109</v>
       </c>
       <c r="D12">
-        <v>2.7673844391255344</v>
+        <v>2.786500222294511</v>
       </c>
       <c r="F12">
-        <v>76993</v>
+        <v>47059</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -2966,13 +2990,13 @@
         <v>1E-3</v>
       </c>
       <c r="C13">
-        <v>0.62601379842684923</v>
+        <v>0.62490977615146492</v>
       </c>
       <c r="D13">
-        <v>4.291123089667205</v>
+        <v>3.4017471297556967</v>
       </c>
       <c r="F13">
-        <v>58956</v>
+        <v>66991</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -2983,13 +3007,13 @@
         <v>8.0000000000000004E-4</v>
       </c>
       <c r="C14">
-        <v>0.62507285847650007</v>
+        <v>0.6258421582028727</v>
       </c>
       <c r="D14">
-        <v>5.337544040121057</v>
+        <v>3.3281147958724504</v>
       </c>
       <c r="F14">
-        <v>79730</v>
+        <v>78562</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -3000,13 +3024,13 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="C15">
-        <v>0.62395088309421176</v>
+        <v>0.62573728833487263</v>
       </c>
       <c r="D15">
-        <v>7.2638274430653533</v>
+        <v>3.6880565450585738</v>
       </c>
       <c r="F15">
-        <v>52263</v>
+        <v>37830</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -3017,13 +3041,13 @@
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="C16">
-        <v>0.623953542679898</v>
+        <v>0.62490778019384996</v>
       </c>
       <c r="D16">
-        <v>7.263771120766557</v>
+        <v>5.7223452388503837</v>
       </c>
       <c r="F16">
-        <v>496</v>
+        <v>175369</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -3034,13 +3058,13 @@
         <v>1E-4</v>
       </c>
       <c r="C17">
-        <v>0.62196201344626334</v>
+        <v>0.62539391806691658</v>
       </c>
       <c r="D17">
-        <v>14.722421895298639</v>
+        <v>6.5119607436099045</v>
       </c>
       <c r="F17">
-        <v>131896</v>
+        <v>83680</v>
       </c>
     </row>
   </sheetData>
@@ -3089,13 +3113,13 @@
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>0.72936953473083099</v>
+        <v>0.68866133811885588</v>
       </c>
       <c r="D2">
-        <v>4.2606717608913255E-2</v>
+        <v>4.103946096632214E-2</v>
       </c>
       <c r="F2">
-        <v>4941</v>
+        <v>5156</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -3106,13 +3130,13 @@
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>0.72310207718960506</v>
+        <v>0.68316556958397945</v>
       </c>
       <c r="D3">
-        <v>5.2806815587148906E-2</v>
+        <v>5.0923159224345926E-2</v>
       </c>
       <c r="F3">
-        <v>3064</v>
+        <v>5543</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -3123,13 +3147,13 @@
         <v>0.2</v>
       </c>
       <c r="C4">
-        <v>0.70830394364467963</v>
+        <v>0.66935298605929394</v>
       </c>
       <c r="D4">
-        <v>0.10009237457623489</v>
+        <v>9.5414621421438361E-2</v>
       </c>
       <c r="F4">
-        <v>5085</v>
+        <v>5496</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -3140,13 +3164,13 @@
         <v>0.1</v>
       </c>
       <c r="C5">
-        <v>0.70044237522816699</v>
+        <v>0.66189379308628282</v>
       </c>
       <c r="D5">
-        <v>0.15598037374439538</v>
+        <v>0.14841996241702199</v>
       </c>
       <c r="F5">
-        <v>5885</v>
+        <v>6087</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -3157,13 +3181,13 @@
         <v>0.08</v>
       </c>
       <c r="C6">
-        <v>0.69823434434176612</v>
+        <v>0.6597858664264018</v>
       </c>
       <c r="D6">
-        <v>0.18067777152232453</v>
+        <v>0.17200874319923276</v>
       </c>
       <c r="F6">
-        <v>5836</v>
+        <v>6133</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -3174,13 +3198,13 @@
         <v>0.05</v>
       </c>
       <c r="C7">
-        <v>0.69455083515204175</v>
+        <v>0.65612341310338373</v>
       </c>
       <c r="D7">
-        <v>0.23856418767983434</v>
+        <v>0.22968738291395793</v>
       </c>
       <c r="F7">
-        <v>6307</v>
+        <v>7115</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -3191,13 +3215,13 @@
         <v>0.02</v>
       </c>
       <c r="C8">
-        <v>0.68100907496548191</v>
+        <v>0.643845695733263</v>
       </c>
       <c r="D8">
-        <v>0.69450571674601458</v>
+        <v>0.63640740628701187</v>
       </c>
       <c r="F8">
-        <v>12988</v>
+        <v>14032</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -3208,13 +3232,13 @@
         <v>0.01</v>
       </c>
       <c r="C9">
-        <v>0.67682985858225564</v>
+        <v>0.63438083747411578</v>
       </c>
       <c r="D9">
-        <v>0.98449051145698219</v>
+        <v>1.3664099638236944</v>
       </c>
       <c r="F9">
-        <v>13703</v>
+        <v>22696</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -3225,13 +3249,13 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="C10">
-        <v>0.67581625068245665</v>
+        <v>0.63298212190445546</v>
       </c>
       <c r="D10">
-        <v>1.0981005998191022</v>
+        <v>1.522119048485199</v>
       </c>
       <c r="F10">
-        <v>13232</v>
+        <v>18602</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -3242,13 +3266,13 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="C11">
-        <v>0.67352160709217956</v>
+        <v>0.63097886832687677</v>
       </c>
       <c r="D11">
-        <v>1.4649324749801729</v>
+        <v>1.836863761061734</v>
       </c>
       <c r="F11">
-        <v>19792</v>
+        <v>19602</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -3259,13 +3283,13 @@
         <v>2E-3</v>
       </c>
       <c r="C12">
-        <v>0.6700996735435838</v>
+        <v>0.62810388250366245</v>
       </c>
       <c r="D12">
-        <v>2.5449143699944541</v>
+        <v>2.7673844391255344</v>
       </c>
       <c r="F12">
-        <v>36431</v>
+        <v>76993</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -3276,13 +3300,13 @@
         <v>1E-3</v>
       </c>
       <c r="C13">
-        <v>0.66832597304123131</v>
+        <v>0.62601379842684923</v>
       </c>
       <c r="D13">
-        <v>4.2531287818974652</v>
+        <v>4.291123089667205</v>
       </c>
       <c r="F13">
-        <v>18064</v>
+        <v>58956</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -3293,13 +3317,13 @@
         <v>8.0000000000000004E-4</v>
       </c>
       <c r="C14">
-        <v>0.66832597304123131</v>
+        <v>0.62507285847650007</v>
       </c>
       <c r="D14">
-        <v>4.2531287818974652</v>
+        <v>5.337544040121057</v>
       </c>
       <c r="F14">
-        <v>67</v>
+        <v>79730</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -3310,13 +3334,13 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="C15">
-        <v>0.66832597304123131</v>
+        <v>0.62395088309421176</v>
       </c>
       <c r="D15">
-        <v>4.2531287818974652</v>
+        <v>7.2638274430653533</v>
       </c>
       <c r="F15">
-        <v>67</v>
+        <v>52263</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -3327,13 +3351,13 @@
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="C16">
-        <v>0.66832597304123131</v>
+        <v>0.623953542679898</v>
       </c>
       <c r="D16">
-        <v>4.2531287818974652</v>
+        <v>7.263771120766557</v>
       </c>
       <c r="F16">
-        <v>67</v>
+        <v>496</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -3344,13 +3368,13 @@
         <v>1E-4</v>
       </c>
       <c r="C17">
-        <v>0.66832597304123131</v>
+        <v>0.62196201344626334</v>
       </c>
       <c r="D17">
-        <v>4.2531287818974652</v>
+        <v>14.722421895298639</v>
       </c>
       <c r="F17">
-        <v>67</v>
+        <v>131896</v>
       </c>
     </row>
   </sheetData>
@@ -3399,13 +3423,13 @@
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>0.76236412149413024</v>
+        <v>0.72936953473083099</v>
       </c>
       <c r="D2">
-        <v>4.5143492958560814E-2</v>
+        <v>4.2606717608913255E-2</v>
       </c>
       <c r="F2">
-        <v>4393</v>
+        <v>4941</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -3416,13 +3440,13 @@
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>0.7554648980875629</v>
+        <v>0.72310207718960506</v>
       </c>
       <c r="D3">
-        <v>5.6367574363057497E-2</v>
+        <v>5.2806815587148906E-2</v>
       </c>
       <c r="F3">
-        <v>2891</v>
+        <v>3064</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -3433,13 +3457,13 @@
         <v>0.2</v>
       </c>
       <c r="C4">
-        <v>0.7394239789579059</v>
+        <v>0.70830394364467963</v>
       </c>
       <c r="D4">
-        <v>0.10755859842313549</v>
+        <v>0.10009237457623489</v>
       </c>
       <c r="F4">
-        <v>4483</v>
+        <v>5085</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -3450,13 +3474,13 @@
         <v>0.1</v>
       </c>
       <c r="C5">
-        <v>0.73100889152628012</v>
+        <v>0.70044237522816699</v>
       </c>
       <c r="D5">
-        <v>0.16737025201914787</v>
+        <v>0.15598037374439538</v>
       </c>
       <c r="F5">
-        <v>5085</v>
+        <v>5885</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -3467,13 +3491,13 @@
         <v>0.08</v>
       </c>
       <c r="C6">
-        <v>0.72865484435529948</v>
+        <v>0.69823434434176612</v>
       </c>
       <c r="D6">
-        <v>0.19369797832056473</v>
+        <v>0.18067777152232453</v>
       </c>
       <c r="F6">
-        <v>5039</v>
+        <v>5836</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -3484,13 +3508,13 @@
         <v>0.05</v>
       </c>
       <c r="C7">
-        <v>0.72479380212674605</v>
+        <v>0.69455083515204175</v>
       </c>
       <c r="D7">
-        <v>0.25429851828379091</v>
+        <v>0.23856418767983434</v>
       </c>
       <c r="F7">
-        <v>5815</v>
+        <v>6307</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -3501,13 +3525,13 @@
         <v>0.02</v>
       </c>
       <c r="C8">
-        <v>0.72033268759984392</v>
+        <v>0.68100907496548191</v>
       </c>
       <c r="D8">
-        <v>0.39477647949025652</v>
+        <v>0.69450571674601458</v>
       </c>
       <c r="F8">
-        <v>7232</v>
+        <v>12988</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -3518,13 +3542,13 @@
         <v>0.01</v>
       </c>
       <c r="C9">
-        <v>0.71744957380214769</v>
+        <v>0.67682985858225564</v>
       </c>
       <c r="D9">
-        <v>0.60478867615297283</v>
+        <v>0.98449051145698219</v>
       </c>
       <c r="F9">
-        <v>9514</v>
+        <v>13703</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -3535,13 +3559,13 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="C10">
-        <v>0.71631269096353967</v>
+        <v>0.67581625068245665</v>
       </c>
       <c r="D10">
-        <v>0.73263032495683145</v>
+        <v>1.0981005998191022</v>
       </c>
       <c r="F10">
-        <v>9087</v>
+        <v>13232</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -3552,13 +3576,13 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="C11">
-        <v>0.71070963720796287</v>
+        <v>0.67352160709217956</v>
       </c>
       <c r="D11">
-        <v>1.6427186744502029</v>
+        <v>1.4649324749801729</v>
       </c>
       <c r="F11">
-        <v>17167</v>
+        <v>19792</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -3569,13 +3593,13 @@
         <v>2E-3</v>
       </c>
       <c r="C12">
-        <v>0.70629601336924641</v>
+        <v>0.6700996735435838</v>
       </c>
       <c r="D12">
-        <v>3.0464830908566358</v>
+        <v>2.5449143699944541</v>
       </c>
       <c r="F12">
-        <v>26086</v>
+        <v>36431</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -3586,13 +3610,13 @@
         <v>1E-3</v>
       </c>
       <c r="C13">
-        <v>0.70371490551913218</v>
+        <v>0.66832597304123131</v>
       </c>
       <c r="D13">
-        <v>4.8894209673976885</v>
+        <v>4.2531287818974652</v>
       </c>
       <c r="F13">
-        <v>23405</v>
+        <v>18064</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -3603,13 +3627,13 @@
         <v>8.0000000000000004E-4</v>
       </c>
       <c r="C14">
-        <v>0.70302972609143854</v>
+        <v>0.66832597304123131</v>
       </c>
       <c r="D14">
-        <v>5.6556766869262125</v>
+        <v>4.2531287818974652</v>
       </c>
       <c r="F14">
-        <v>14072</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -3620,13 +3644,13 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="C15">
-        <v>0.70174377553738965</v>
+        <v>0.66832597304123131</v>
       </c>
       <c r="D15">
-        <v>7.6859424122868889</v>
+        <v>4.2531287818974652</v>
       </c>
       <c r="F15">
-        <v>20493</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -3637,13 +3661,13 @@
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="C16">
-        <v>0.69742910397805169</v>
+        <v>0.66832597304123131</v>
       </c>
       <c r="D16">
-        <v>14.561462732684472</v>
+        <v>4.2531287818974652</v>
       </c>
       <c r="F16">
-        <v>57741</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -3654,13 +3678,13 @@
         <v>1E-4</v>
       </c>
       <c r="C17">
-        <v>0.69682813352657724</v>
+        <v>0.66832597304123131</v>
       </c>
       <c r="D17">
-        <v>18.613458482198251</v>
+        <v>4.2531287818974652</v>
       </c>
       <c r="F17">
-        <v>42328</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -3709,13 +3733,13 @@
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>0.76186991482325828</v>
+        <v>0.76236412149413024</v>
       </c>
       <c r="D2">
-        <v>4.6724324378102804E-2</v>
+        <v>4.5143492958560814E-2</v>
       </c>
       <c r="F2">
-        <v>3716</v>
+        <v>4393</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -3726,13 +3750,13 @@
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>0.75840147377786138</v>
+        <v>0.7554648980875629</v>
       </c>
       <c r="D3">
-        <v>5.2188062621261376E-2</v>
+        <v>5.6367574363057497E-2</v>
       </c>
       <c r="F3">
-        <v>2158</v>
+        <v>2891</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -3743,13 +3767,13 @@
         <v>0.2</v>
       </c>
       <c r="C4">
-        <v>0.75385603144806879</v>
+        <v>0.7394239789579059</v>
       </c>
       <c r="D4">
-        <v>6.6672440464272564E-2</v>
+        <v>0.10755859842313549</v>
       </c>
       <c r="F4">
-        <v>3171</v>
+        <v>4483</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -3760,13 +3784,13 @@
         <v>0.1</v>
       </c>
       <c r="C5">
-        <v>0.74975576053793935</v>
+        <v>0.73100889152628012</v>
       </c>
       <c r="D5">
-        <v>9.7463878043194369E-2</v>
+        <v>0.16737025201914787</v>
       </c>
       <c r="F5">
-        <v>4731</v>
+        <v>5085</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -3777,13 +3801,13 @@
         <v>0.08</v>
       </c>
       <c r="C6">
-        <v>0.7476099466023155</v>
+        <v>0.72865484435529948</v>
       </c>
       <c r="D6">
-        <v>0.12158281794445765</v>
+        <v>0.19369797832056473</v>
       </c>
       <c r="F6">
-        <v>4457</v>
+        <v>5039</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -3794,13 +3818,13 @@
         <v>0.05</v>
       </c>
       <c r="C7">
-        <v>0.74312091732082308</v>
+        <v>0.72479380212674605</v>
       </c>
       <c r="D7">
-        <v>0.19249059253048034</v>
+        <v>0.25429851828379091</v>
       </c>
       <c r="F7">
-        <v>5040</v>
+        <v>5815</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -3811,13 +3835,13 @@
         <v>0.02</v>
       </c>
       <c r="C8">
-        <v>0.73787402386834511</v>
+        <v>0.72033268759984392</v>
       </c>
       <c r="D8">
-        <v>0.35670172719321774</v>
+        <v>0.39477647949025652</v>
       </c>
       <c r="F8">
-        <v>6016</v>
+        <v>7232</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -3828,13 +3852,13 @@
         <v>0.01</v>
       </c>
       <c r="C9">
-        <v>0.72383373318051047</v>
+        <v>0.71744957380214769</v>
       </c>
       <c r="D9">
-        <v>1.0789618866121891</v>
+        <v>0.60478867615297283</v>
       </c>
       <c r="F9">
-        <v>16469</v>
+        <v>9514</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -3845,13 +3869,13 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="C10">
-        <v>0.7228838550284411</v>
+        <v>0.71631269096353967</v>
       </c>
       <c r="D10">
-        <v>1.1850672870595931</v>
+        <v>0.73263032495683145</v>
       </c>
       <c r="F10">
-        <v>11322</v>
+        <v>9087</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -3862,13 +3886,13 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="C11">
-        <v>0.72127181117087191</v>
+        <v>0.71070963720796287</v>
       </c>
       <c r="D11">
-        <v>1.4396618030239434</v>
+        <v>1.6427186744502029</v>
       </c>
       <c r="F11">
-        <v>13198</v>
+        <v>17167</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -3879,13 +3903,13 @@
         <v>2E-3</v>
       </c>
       <c r="C12">
-        <v>0.71887572689706525</v>
+        <v>0.70629601336924641</v>
       </c>
       <c r="D12">
-        <v>2.2096319701593607</v>
+        <v>3.0464830908566358</v>
       </c>
       <c r="F12">
-        <v>26255</v>
+        <v>26086</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -3896,13 +3920,13 @@
         <v>1E-3</v>
       </c>
       <c r="C13">
-        <v>0.71735874563517676</v>
+        <v>0.70371490551913218</v>
       </c>
       <c r="D13">
-        <v>3.2950681077748047</v>
+        <v>4.8894209673976885</v>
       </c>
       <c r="F13">
-        <v>35569</v>
+        <v>23405</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -3913,13 +3937,13 @@
         <v>8.0000000000000004E-4</v>
       </c>
       <c r="C14">
-        <v>0.71692326980985444</v>
+        <v>0.70302972609143854</v>
       </c>
       <c r="D14">
-        <v>3.7825142186560776</v>
+        <v>5.6556766869262125</v>
       </c>
       <c r="F14">
-        <v>22288</v>
+        <v>14072</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -3930,13 +3954,13 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="C15">
-        <v>0.71612078067264107</v>
+        <v>0.70174377553738965</v>
       </c>
       <c r="D15">
-        <v>5.0563139489368298</v>
+        <v>7.6859424122868889</v>
       </c>
       <c r="F15">
-        <v>23483</v>
+        <v>20493</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -3947,13 +3971,13 @@
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="C16">
-        <v>0.7150778829294806</v>
+        <v>0.69742910397805169</v>
       </c>
       <c r="D16">
-        <v>8.2335963939262111</v>
+        <v>14.561462732684472</v>
       </c>
       <c r="F16">
-        <v>37057</v>
+        <v>57741</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -3964,13 +3988,13 @@
         <v>1E-4</v>
       </c>
       <c r="C17">
-        <v>0.71475476782735314</v>
+        <v>0.69682813352657724</v>
       </c>
       <c r="D17">
-        <v>10.363926401084274</v>
+        <v>18.613458482198251</v>
       </c>
       <c r="F17">
-        <v>36622</v>
+        <v>42328</v>
       </c>
     </row>
   </sheetData>
@@ -3980,431 +4004,1003 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16" style="1" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" t="s">
+        <v>50</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="P2" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="C3">
+        <v>0.75464182426820414</v>
+      </c>
+      <c r="D3">
+        <v>4.193011781027968E-2</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="H3">
+        <v>0.76055463918448551</v>
+      </c>
+      <c r="I3">
+        <v>4.1591084704160737E-2</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="L3">
+        <v>4.1591084704160737E-2</v>
+      </c>
+      <c r="N3">
+        <v>0.76055463918448551</v>
+      </c>
+      <c r="O3">
+        <v>0.76055463918448551</v>
+      </c>
+      <c r="Q3">
+        <v>4.1591084704160737E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
+      <c r="B4" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C4">
+        <v>0.75025310390267075</v>
+      </c>
+      <c r="D4">
+        <v>5.0440080371274128E-2</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="H4">
+        <v>0.75623886812569385</v>
+      </c>
+      <c r="I4">
+        <v>4.9980459024403109E-2</v>
+      </c>
+      <c r="K4" s="2">
         <v>0.8</v>
       </c>
-      <c r="C2">
+      <c r="L4">
+        <v>4.193011781027968E-2</v>
+      </c>
+      <c r="M4">
         <v>0.75464182426820414</v>
       </c>
-      <c r="D2">
+      <c r="O4">
+        <v>0.75464182426820414</v>
+      </c>
+      <c r="P4">
         <v>4.193011781027968E-2</v>
       </c>
-      <c r="E2">
-        <v>0.48512300500456629</v>
-      </c>
-      <c r="F2">
-        <v>6164</v>
-      </c>
-      <c r="G2" s="1">
-        <f>C2/E2</f>
-        <v>1.5555680033378358</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3">
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C5">
+        <v>0.73857263113767779</v>
+      </c>
+      <c r="D5">
+        <v>8.9883752633368147E-2</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="H5">
+        <v>0.74426670185430477</v>
+      </c>
+      <c r="I5">
+        <v>9.0423159094778063E-2</v>
+      </c>
+      <c r="K5" s="3">
         <v>0.5</v>
       </c>
-      <c r="C3">
+      <c r="L5">
+        <v>4.9980459024403109E-2</v>
+      </c>
+      <c r="N5">
+        <v>0.75623886812569385</v>
+      </c>
+      <c r="O5">
+        <v>0.75623886812569385</v>
+      </c>
+      <c r="Q5">
+        <v>4.9980459024403109E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C6">
+        <v>0.73006463711878355</v>
+      </c>
+      <c r="D6">
+        <v>0.15161194424914923</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="H6">
+        <v>0.73536461078024529</v>
+      </c>
+      <c r="I6">
+        <v>0.15389860033536046</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="L6">
+        <v>5.0440080371274128E-2</v>
+      </c>
+      <c r="M6">
         <v>0.75025310390267075</v>
       </c>
-      <c r="D3">
+      <c r="O6">
+        <v>0.75025310390267075</v>
+      </c>
+      <c r="P6">
         <v>5.0440080371274128E-2</v>
       </c>
-      <c r="E3">
-        <v>0.48512300500456629</v>
-      </c>
-      <c r="F3">
-        <v>6793</v>
-      </c>
-      <c r="G3" s="1">
-        <f t="shared" ref="G3:G17" si="0">C3/E3</f>
-        <v>1.5465213897568286</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3">
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="C7">
+        <v>0.72729065819670347</v>
+      </c>
+      <c r="D7">
+        <v>0.18262795190951306</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="H7">
+        <v>0.73302331533688325</v>
+      </c>
+      <c r="I7">
+        <v>0.1800704006607203</v>
+      </c>
+      <c r="K7" s="3">
         <v>0.2</v>
       </c>
-      <c r="C4">
+      <c r="L7">
+        <v>8.9883752633368147E-2</v>
+      </c>
+      <c r="M7">
         <v>0.73857263113767779</v>
       </c>
-      <c r="D4">
+      <c r="O7">
+        <v>0.73857263113767779</v>
+      </c>
+      <c r="P7">
         <v>8.9883752633368147E-2</v>
       </c>
-      <c r="E4">
-        <v>0.48512300500456629</v>
-      </c>
-      <c r="F4">
-        <v>6505</v>
-      </c>
-      <c r="G4" s="1">
-        <f t="shared" si="0"/>
-        <v>1.5224440472179337</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3">
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="C8">
+        <v>0.72222150292140175</v>
+      </c>
+      <c r="D8">
+        <v>0.26322452421881404</v>
+      </c>
+      <c r="F8">
+        <v>6</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="H8">
+        <v>0.72921871882895672</v>
+      </c>
+      <c r="I8">
+        <v>0.23990523496203306</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="L8">
+        <v>9.0423159094778063E-2</v>
+      </c>
+      <c r="N8">
+        <v>0.74426670185430477</v>
+      </c>
+      <c r="O8">
+        <v>0.74426670185430477</v>
+      </c>
+      <c r="Q8">
+        <v>9.0423159094778063E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="C9">
+        <v>0.70330251300549429</v>
+      </c>
+      <c r="D9">
+        <v>0.86957116796429701</v>
+      </c>
+      <c r="F9">
+        <v>7</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="H9">
+        <v>0.71826005408686455</v>
+      </c>
+      <c r="I9">
+        <v>0.5870952806206946</v>
+      </c>
+      <c r="K9" s="3">
         <v>0.1</v>
       </c>
-      <c r="C5">
+      <c r="L9">
+        <v>0.15161194424914923</v>
+      </c>
+      <c r="M9">
         <v>0.73006463711878355</v>
       </c>
-      <c r="D5">
+      <c r="O9">
+        <v>0.73006463711878355</v>
+      </c>
+      <c r="P9">
         <v>0.15161194424914923</v>
       </c>
-      <c r="E5">
-        <v>0.48512300500456629</v>
-      </c>
-      <c r="F5">
-        <v>9132</v>
-      </c>
-      <c r="G5" s="1">
-        <f t="shared" si="0"/>
-        <v>1.5049062394225392</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3">
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="C10">
+        <v>0.69713722066249773</v>
+      </c>
+      <c r="D10">
+        <v>1.2966551284207413</v>
+      </c>
+      <c r="F10">
+        <v>8</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="H10">
+        <v>0.71084719152249976</v>
+      </c>
+      <c r="I10">
+        <v>1.1188078761247773</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="L10">
+        <v>0.15389860033536046</v>
+      </c>
+      <c r="N10">
+        <v>0.73536461078024529</v>
+      </c>
+      <c r="O10">
+        <v>0.73536461078024529</v>
+      </c>
+      <c r="Q10">
+        <v>0.15389860033536046</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="C11">
+        <v>0.69590886869380364</v>
+      </c>
+      <c r="D11">
+        <v>1.4336849334344886</v>
+      </c>
+      <c r="F11">
+        <v>9</v>
+      </c>
+      <c r="G11" s="3">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="H11">
+        <v>0.70894481848963853</v>
+      </c>
+      <c r="I11">
+        <v>1.3317133504412537</v>
+      </c>
+      <c r="K11" s="3">
         <v>0.08</v>
       </c>
-      <c r="C6">
+      <c r="L11">
+        <v>0.1800704006607203</v>
+      </c>
+      <c r="N11">
+        <v>0.73302331533688325</v>
+      </c>
+      <c r="O11">
+        <v>0.73302331533688325</v>
+      </c>
+      <c r="Q11">
+        <v>0.1800704006607203</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C12">
+        <v>0.69407791849277878</v>
+      </c>
+      <c r="D12">
+        <v>1.7205192390258266</v>
+      </c>
+      <c r="F12">
+        <v>10</v>
+      </c>
+      <c r="G12" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H12">
+        <v>0.69745507005803131</v>
+      </c>
+      <c r="I12">
+        <v>1.7957362693828958</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="L12">
+        <v>0.18262795190951306</v>
+      </c>
+      <c r="M12">
         <v>0.72729065819670347</v>
       </c>
-      <c r="D6">
+      <c r="O12">
+        <v>0.72729065819670347</v>
+      </c>
+      <c r="P12">
         <v>0.18262795190951306</v>
       </c>
-      <c r="E6">
-        <v>0.48512300500456629</v>
-      </c>
-      <c r="F6">
-        <v>7361</v>
-      </c>
-      <c r="G6" s="1">
-        <f t="shared" si="0"/>
-        <v>1.4991881454680915</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3">
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3">
+        <v>2E-3</v>
+      </c>
+      <c r="C13">
+        <v>0.69209739924266189</v>
+      </c>
+      <c r="D13">
+        <v>2.3361924715305347</v>
+      </c>
+      <c r="F13">
+        <v>11</v>
+      </c>
+      <c r="G13" s="3">
+        <v>2E-3</v>
+      </c>
+      <c r="H13">
+        <v>0.69544817132065029</v>
+      </c>
+      <c r="I13">
+        <v>2.4182352435659071</v>
+      </c>
+      <c r="K13" s="3">
         <v>0.05</v>
       </c>
-      <c r="C7">
+      <c r="L13">
+        <v>0.23990523496203306</v>
+      </c>
+      <c r="N13">
+        <v>0.72921871882895672</v>
+      </c>
+      <c r="O13">
+        <v>0.72921871882895672</v>
+      </c>
+      <c r="Q13">
+        <v>0.23990523496203306</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C14">
+        <v>0.69122371103867697</v>
+      </c>
+      <c r="D14">
+        <v>2.9523020373502535</v>
+      </c>
+      <c r="F14">
+        <v>12</v>
+      </c>
+      <c r="G14" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="H14">
+        <v>0.69457540288488795</v>
+      </c>
+      <c r="I14">
+        <v>3.0340505231205941</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="L14">
+        <v>0.26322452421881404</v>
+      </c>
+      <c r="M14">
         <v>0.72222150292140175</v>
       </c>
-      <c r="D7">
+      <c r="O14">
+        <v>0.72222150292140175</v>
+      </c>
+      <c r="P14">
         <v>0.26322452421881404</v>
       </c>
-      <c r="E7">
-        <v>0.48512300500456629</v>
-      </c>
-      <c r="F7">
-        <v>8500</v>
-      </c>
-      <c r="G7" s="1">
-        <f t="shared" si="0"/>
-        <v>1.4887389290363662</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3">
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="C15">
+        <v>0.69100479920756652</v>
+      </c>
+      <c r="D15">
+        <v>3.1987249130744675</v>
+      </c>
+      <c r="F15">
+        <v>13</v>
+      </c>
+      <c r="G15" s="3">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="H15">
+        <v>0.6943560284763628</v>
+      </c>
+      <c r="I15">
+        <v>3.2782885437839986</v>
+      </c>
+      <c r="K15" s="3">
         <v>0.02</v>
       </c>
-      <c r="C8">
+      <c r="L15">
+        <v>0.5870952806206946</v>
+      </c>
+      <c r="N15">
+        <v>0.71826005408686455</v>
+      </c>
+      <c r="O15">
+        <v>0.71826005408686455</v>
+      </c>
+      <c r="Q15">
+        <v>0.5870952806206946</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C16">
+        <v>0.69057612590236339</v>
+      </c>
+      <c r="D16">
+        <v>3.8815562608111458</v>
+      </c>
+      <c r="F16">
+        <v>14</v>
+      </c>
+      <c r="G16" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="H16">
+        <v>0.69394642683132512</v>
+      </c>
+      <c r="I16">
+        <v>3.9314274804359539</v>
+      </c>
+      <c r="K16" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="L16">
+        <v>0.86957116796429701</v>
+      </c>
+      <c r="M16">
         <v>0.70330251300549429</v>
       </c>
-      <c r="D8">
+      <c r="O16">
+        <v>0.70330251300549429</v>
+      </c>
+      <c r="P16">
         <v>0.86957116796429701</v>
       </c>
-      <c r="E8">
-        <v>0.48512300500456629</v>
-      </c>
-      <c r="F8">
-        <v>17627</v>
-      </c>
-      <c r="G8" s="1">
-        <f t="shared" si="0"/>
-        <v>1.4497405931076683</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3">
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="C17">
+        <v>0.6896647734039455</v>
+      </c>
+      <c r="D17">
+        <v>6.8100103250796806</v>
+      </c>
+      <c r="F17">
+        <v>15</v>
+      </c>
+      <c r="G17" s="3">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="H17">
+        <v>0.69298308268635256</v>
+      </c>
+      <c r="I17">
+        <v>7.0049724535124724</v>
+      </c>
+      <c r="K17" s="3">
         <v>0.01</v>
       </c>
-      <c r="C9">
+      <c r="L17">
+        <v>1.1188078761247773</v>
+      </c>
+      <c r="N17">
+        <v>0.71084719152249976</v>
+      </c>
+      <c r="O17">
+        <v>0.71084719152249976</v>
+      </c>
+      <c r="Q17">
+        <v>1.1188078761247773</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="C18">
+        <v>0.68906251793296402</v>
+      </c>
+      <c r="D18">
+        <v>10.182325254169086</v>
+      </c>
+      <c r="F18">
+        <v>16</v>
+      </c>
+      <c r="G18" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="H18">
+        <v>0.69245683313581596</v>
+      </c>
+      <c r="I18">
+        <v>10.074536375926405</v>
+      </c>
+      <c r="K18" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="L18">
+        <v>1.2966551284207413</v>
+      </c>
+      <c r="M18">
         <v>0.69713722066249773</v>
       </c>
-      <c r="D9">
+      <c r="O18">
+        <v>0.69713722066249773</v>
+      </c>
+      <c r="P18">
         <v>1.2966551284207413</v>
       </c>
-      <c r="E9">
-        <v>0.48512300500456629</v>
-      </c>
-      <c r="F9">
-        <v>27280</v>
-      </c>
-      <c r="G9" s="1">
-        <f t="shared" si="0"/>
-        <v>1.4370318732997125</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3">
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="K19" s="3">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="C10">
+      <c r="L19">
+        <v>1.3317133504412537</v>
+      </c>
+      <c r="N19">
+        <v>0.70894481848963853</v>
+      </c>
+      <c r="O19">
+        <v>0.70894481848963853</v>
+      </c>
+      <c r="Q19">
+        <v>1.3317133504412537</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="K20" s="3">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="L20">
+        <v>1.4336849334344886</v>
+      </c>
+      <c r="M20">
         <v>0.69590886869380364</v>
       </c>
-      <c r="D10">
+      <c r="O20">
+        <v>0.69590886869380364</v>
+      </c>
+      <c r="P20">
         <v>1.4336849334344886</v>
       </c>
-      <c r="E10">
-        <v>0.48512300500456629</v>
-      </c>
-      <c r="F10">
-        <v>22052</v>
-      </c>
-      <c r="G10" s="1">
-        <f t="shared" si="0"/>
-        <v>1.4344998310011154</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3">
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="K21" s="3">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="C11">
+      <c r="L21">
+        <v>1.7205192390258266</v>
+      </c>
+      <c r="M21">
         <v>0.69407791849277878</v>
       </c>
-      <c r="D11">
+      <c r="O21">
+        <v>0.69407791849277878</v>
+      </c>
+      <c r="P21">
         <v>1.7205192390258266</v>
       </c>
-      <c r="E11">
-        <v>0.48512300500456629</v>
-      </c>
-      <c r="F11">
-        <v>32453</v>
-      </c>
-      <c r="G11" s="1">
-        <f t="shared" si="0"/>
-        <v>1.4307256331541021</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" s="3">
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="K22" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="L22">
+        <v>1.7957362693828958</v>
+      </c>
+      <c r="N22">
+        <v>0.69745507005803131</v>
+      </c>
+      <c r="O22">
+        <v>0.69745507005803131</v>
+      </c>
+      <c r="Q22">
+        <v>1.7957362693828958</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="K23" s="3">
         <v>2E-3</v>
       </c>
-      <c r="C12">
+      <c r="L23">
+        <v>2.3361924715305347</v>
+      </c>
+      <c r="M23">
         <v>0.69209739924266189</v>
       </c>
-      <c r="D12">
+      <c r="O23">
+        <v>0.69209739924266189</v>
+      </c>
+      <c r="P23">
         <v>2.3361924715305347</v>
       </c>
-      <c r="E12">
-        <v>0.48512300500456629</v>
-      </c>
-      <c r="F12">
-        <v>50784</v>
-      </c>
-      <c r="G12" s="1">
-        <f t="shared" si="0"/>
-        <v>1.4266431237086921</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" s="3">
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="K24" s="3">
+        <v>2E-3</v>
+      </c>
+      <c r="L24">
+        <v>2.4182352435659071</v>
+      </c>
+      <c r="N24">
+        <v>0.69544817132065029</v>
+      </c>
+      <c r="O24">
+        <v>0.69544817132065029</v>
+      </c>
+      <c r="Q24">
+        <v>2.4182352435659071</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="K25" s="3">
         <v>1E-3</v>
       </c>
-      <c r="C13">
+      <c r="L25">
+        <v>2.9523020373502535</v>
+      </c>
+      <c r="M25">
         <v>0.69122371103867697</v>
       </c>
-      <c r="D13">
+      <c r="O25">
+        <v>0.69122371103867697</v>
+      </c>
+      <c r="P25">
         <v>2.9523020373502535</v>
       </c>
-      <c r="E13">
-        <v>0.48512300500456629</v>
-      </c>
-      <c r="F13">
-        <v>63467</v>
-      </c>
-      <c r="G13" s="1">
-        <f t="shared" si="0"/>
-        <v>1.4248421614888593</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" s="3">
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="K26" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="L26">
+        <v>3.0340505231205941</v>
+      </c>
+      <c r="N26">
+        <v>0.69457540288488795</v>
+      </c>
+      <c r="O26">
+        <v>0.69457540288488795</v>
+      </c>
+      <c r="Q26">
+        <v>3.0340505231205941</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="K27" s="3">
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="C14">
+      <c r="L27">
+        <v>3.1987249130744675</v>
+      </c>
+      <c r="M27">
         <v>0.69100479920756652</v>
       </c>
-      <c r="D14">
+      <c r="O27">
+        <v>0.69100479920756652</v>
+      </c>
+      <c r="P27">
         <v>3.1987249130744675</v>
       </c>
-      <c r="E14">
-        <v>0.48512300500456629</v>
-      </c>
-      <c r="F14">
-        <v>75861</v>
-      </c>
-      <c r="G14" s="1">
-        <f t="shared" si="0"/>
-        <v>1.4243909113340489</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" s="3">
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="K28" s="3">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="L28">
+        <v>3.2782885437839986</v>
+      </c>
+      <c r="N28">
+        <v>0.6943560284763628</v>
+      </c>
+      <c r="O28">
+        <v>0.6943560284763628</v>
+      </c>
+      <c r="Q28">
+        <v>3.2782885437839986</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="K29" s="3">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="C15">
+      <c r="L29">
+        <v>3.8815562608111458</v>
+      </c>
+      <c r="M29">
         <v>0.69057612590236339</v>
       </c>
-      <c r="D15">
+      <c r="O29">
+        <v>0.69057612590236339</v>
+      </c>
+      <c r="P29">
         <v>3.8815562608111458</v>
       </c>
-      <c r="E15">
-        <v>0.48512300500456629</v>
-      </c>
-      <c r="F15">
-        <v>106423</v>
-      </c>
-      <c r="G15" s="1">
-        <f t="shared" si="0"/>
-        <v>1.4235072729561924</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" s="3">
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="K30" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="L30">
+        <v>3.9314274804359539</v>
+      </c>
+      <c r="N30">
+        <v>0.69394642683132512</v>
+      </c>
+      <c r="O30">
+        <v>0.69394642683132512</v>
+      </c>
+      <c r="Q30">
+        <v>3.9314274804359539</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="K31" s="3">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="C16">
+      <c r="L31">
+        <v>6.8100103250796806</v>
+      </c>
+      <c r="M31">
         <v>0.6896647734039455</v>
       </c>
-      <c r="D16">
+      <c r="O31">
+        <v>0.6896647734039455</v>
+      </c>
+      <c r="P31">
         <v>6.8100103250796806</v>
       </c>
-      <c r="E16">
-        <v>0.48512300500456629</v>
-      </c>
-      <c r="F16">
-        <v>158962</v>
-      </c>
-      <c r="G16" s="1">
-        <f t="shared" si="0"/>
-        <v>1.4216286720879252</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" s="3">
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="K32" s="3">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="L32">
+        <v>7.0049724535124724</v>
+      </c>
+      <c r="N32">
+        <v>0.69298308268635256</v>
+      </c>
+      <c r="O32">
+        <v>0.69298308268635256</v>
+      </c>
+      <c r="Q32">
+        <v>7.0049724535124724</v>
+      </c>
+    </row>
+    <row r="33" spans="11:17" x14ac:dyDescent="0.2">
+      <c r="K33" s="3">
         <v>1E-4</v>
       </c>
-      <c r="C17">
+      <c r="L33">
+        <v>10.074536375926405</v>
+      </c>
+      <c r="N33">
+        <v>0.69245683313581596</v>
+      </c>
+      <c r="O33">
+        <v>0.69245683313581596</v>
+      </c>
+      <c r="Q33">
+        <v>10.074536375926405</v>
+      </c>
+    </row>
+    <row r="34" spans="11:17" x14ac:dyDescent="0.2">
+      <c r="K34" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="L34">
+        <v>10.182325254169086</v>
+      </c>
+      <c r="M34">
         <v>0.68906251793296402</v>
       </c>
-      <c r="D17">
+      <c r="O34">
+        <v>0.68906251793296402</v>
+      </c>
+      <c r="P34">
         <v>10.182325254169086</v>
       </c>
-      <c r="E17">
-        <v>0.48512300500456629</v>
-      </c>
-      <c r="F17">
-        <v>258453</v>
-      </c>
-      <c r="G17" s="1">
-        <f t="shared" si="0"/>
-        <v>1.4203872230847476</v>
-      </c>
     </row>
   </sheetData>
+  <sortState ref="K3:Q34">
+    <sortCondition ref="L3:L34"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4413,7 +5009,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="C1" sqref="C1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4449,13 +5045,13 @@
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>0.77716455328614087</v>
+        <v>0.76186991482325828</v>
       </c>
       <c r="D2">
-        <v>4.8789511002059943E-2</v>
+        <v>4.6724324378102804E-2</v>
       </c>
       <c r="F2">
-        <v>3104</v>
+        <v>3716</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -4466,13 +5062,13 @@
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>0.77333702775012425</v>
+        <v>0.75840147377786138</v>
       </c>
       <c r="D3">
-        <v>5.481689957026703E-2</v>
-      </c>
-      <c r="F3" t="s">
-        <v>47</v>
+        <v>5.2188062621261376E-2</v>
+      </c>
+      <c r="F3">
+        <v>2158</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -4482,6 +5078,15 @@
       <c r="B4" s="3">
         <v>0.2</v>
       </c>
+      <c r="C4">
+        <v>0.75385603144806879</v>
+      </c>
+      <c r="D4">
+        <v>6.6672440464272564E-2</v>
+      </c>
+      <c r="F4">
+        <v>3171</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
@@ -4490,6 +5095,15 @@
       <c r="B5" s="3">
         <v>0.1</v>
       </c>
+      <c r="C5">
+        <v>0.74975576053793935</v>
+      </c>
+      <c r="D5">
+        <v>9.7463878043194369E-2</v>
+      </c>
+      <c r="F5">
+        <v>4731</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
@@ -4498,6 +5112,15 @@
       <c r="B6" s="3">
         <v>0.08</v>
       </c>
+      <c r="C6">
+        <v>0.7476099466023155</v>
+      </c>
+      <c r="D6">
+        <v>0.12158281794445765</v>
+      </c>
+      <c r="F6">
+        <v>4457</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
@@ -4506,6 +5129,15 @@
       <c r="B7" s="3">
         <v>0.05</v>
       </c>
+      <c r="C7">
+        <v>0.74312091732082308</v>
+      </c>
+      <c r="D7">
+        <v>0.19249059253048034</v>
+      </c>
+      <c r="F7">
+        <v>5040</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
@@ -4514,6 +5146,15 @@
       <c r="B8" s="3">
         <v>0.02</v>
       </c>
+      <c r="C8">
+        <v>0.73787402386834511</v>
+      </c>
+      <c r="D8">
+        <v>0.35670172719321774</v>
+      </c>
+      <c r="F8">
+        <v>6016</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
@@ -4522,6 +5163,15 @@
       <c r="B9" s="3">
         <v>0.01</v>
       </c>
+      <c r="C9">
+        <v>0.72383373318051047</v>
+      </c>
+      <c r="D9">
+        <v>1.0789618866121891</v>
+      </c>
+      <c r="F9">
+        <v>16469</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
@@ -4530,6 +5180,15 @@
       <c r="B10" s="3">
         <v>8.0000000000000002E-3</v>
       </c>
+      <c r="C10">
+        <v>0.7228838550284411</v>
+      </c>
+      <c r="D10">
+        <v>1.1850672870595931</v>
+      </c>
+      <c r="F10">
+        <v>11322</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
@@ -4538,6 +5197,15 @@
       <c r="B11" s="3">
         <v>5.0000000000000001E-3</v>
       </c>
+      <c r="C11">
+        <v>0.72127181117087191</v>
+      </c>
+      <c r="D11">
+        <v>1.4396618030239434</v>
+      </c>
+      <c r="F11">
+        <v>13198</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
@@ -4546,6 +5214,15 @@
       <c r="B12" s="3">
         <v>2E-3</v>
       </c>
+      <c r="C12">
+        <v>0.71887572689706525</v>
+      </c>
+      <c r="D12">
+        <v>2.2096319701593607</v>
+      </c>
+      <c r="F12">
+        <v>26255</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
@@ -4554,6 +5231,15 @@
       <c r="B13" s="3">
         <v>1E-3</v>
       </c>
+      <c r="C13">
+        <v>0.71735874563517676</v>
+      </c>
+      <c r="D13">
+        <v>3.2950681077748047</v>
+      </c>
+      <c r="F13">
+        <v>35569</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
@@ -4562,6 +5248,15 @@
       <c r="B14" s="3">
         <v>8.0000000000000004E-4</v>
       </c>
+      <c r="C14">
+        <v>0.71692326980985444</v>
+      </c>
+      <c r="D14">
+        <v>3.7825142186560776</v>
+      </c>
+      <c r="F14">
+        <v>22288</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
@@ -4570,6 +5265,15 @@
       <c r="B15" s="3">
         <v>5.0000000000000001E-4</v>
       </c>
+      <c r="C15">
+        <v>0.71612078067264107</v>
+      </c>
+      <c r="D15">
+        <v>5.0563139489368298</v>
+      </c>
+      <c r="F15">
+        <v>23483</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
@@ -4578,13 +5282,31 @@
       <c r="B16" s="3">
         <v>2.0000000000000001E-4</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C16">
+        <v>0.7150778829294806</v>
+      </c>
+      <c r="D16">
+        <v>8.2335963939262111</v>
+      </c>
+      <c r="F16">
+        <v>37057</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" s="3">
         <v>1E-4</v>
+      </c>
+      <c r="C17">
+        <v>0.71475476782735314</v>
+      </c>
+      <c r="D17">
+        <v>10.363926401084274</v>
+      </c>
+      <c r="F17">
+        <v>36622</v>
       </c>
     </row>
   </sheetData>
@@ -4596,9 +5318,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G17"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -4629,17 +5349,17 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>0.8</v>
       </c>
-      <c r="C2" s="5">
-        <v>0.79561300000000001</v>
-      </c>
-      <c r="D2" s="5">
-        <v>5.5077000000000001E-2</v>
+      <c r="C2">
+        <v>0.77716455328614087</v>
+      </c>
+      <c r="D2">
+        <v>4.8789511002059943E-2</v>
       </c>
       <c r="F2">
-        <v>2414</v>
+        <v>3104</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -4649,14 +5369,14 @@
       <c r="B3" s="3">
         <v>0.5</v>
       </c>
-      <c r="C3" s="5">
-        <v>0.79169599999999996</v>
-      </c>
-      <c r="D3" s="5">
-        <v>6.1234999999999998E-2</v>
+      <c r="C3">
+        <v>0.77333702775012425</v>
+      </c>
+      <c r="D3">
+        <v>5.481689957026703E-2</v>
       </c>
       <c r="F3">
-        <v>1519</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -4666,14 +5386,14 @@
       <c r="B4" s="3">
         <v>0.2</v>
       </c>
-      <c r="C4" s="5">
-        <v>0.78730199999999995</v>
-      </c>
-      <c r="D4" s="5">
-        <v>7.4854000000000004E-2</v>
+      <c r="C4">
+        <v>0.76845524493834216</v>
+      </c>
+      <c r="D4">
+        <v>7.0297977529279479E-2</v>
       </c>
       <c r="F4">
-        <v>1925</v>
+        <v>2631</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -4683,14 +5403,14 @@
       <c r="B5" s="3">
         <v>0.1</v>
       </c>
-      <c r="C5" s="5">
-        <v>0.78516600000000003</v>
-      </c>
-      <c r="D5" s="5">
-        <v>9.0206999999999996E-2</v>
+      <c r="C5">
+        <v>0.7644685864567744</v>
+      </c>
+      <c r="D5">
+        <v>0.10005923409379977</v>
       </c>
       <c r="F5">
-        <v>2678</v>
+        <v>3650</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -4700,14 +5420,14 @@
       <c r="B6" s="3">
         <v>0.08</v>
       </c>
-      <c r="C6" s="5">
-        <v>0.78442299999999998</v>
-      </c>
-      <c r="D6" s="5">
-        <v>9.8545999999999995E-2</v>
+      <c r="C6">
+        <v>0.76246578409023091</v>
+      </c>
+      <c r="D6">
+        <v>0.12257400359893784</v>
       </c>
       <c r="F6">
-        <v>2416</v>
+        <v>3685</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -4717,14 +5437,14 @@
       <c r="B7" s="3">
         <v>0.05</v>
       </c>
-      <c r="C7" s="5">
-        <v>0.78250299999999995</v>
-      </c>
-      <c r="D7" s="5">
-        <v>0.12948899999999999</v>
+      <c r="C7">
+        <v>0.7580168266379762</v>
+      </c>
+      <c r="D7">
+        <v>0.19320725363038749</v>
       </c>
       <c r="F7">
-        <v>3027</v>
+        <v>4227</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -4734,14 +5454,14 @@
       <c r="B8" s="3">
         <v>0.02</v>
       </c>
-      <c r="C8" s="5">
-        <v>0.77431899999999998</v>
-      </c>
-      <c r="D8" s="5">
-        <v>0.44880300000000001</v>
+      <c r="C8">
+        <v>0.75247812660328572</v>
+      </c>
+      <c r="D8">
+        <v>0.36492416395360888</v>
       </c>
       <c r="F8">
-        <v>5498</v>
+        <v>4939</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -4751,14 +5471,14 @@
       <c r="B9" s="3">
         <v>0.01</v>
       </c>
-      <c r="C9" s="5">
-        <v>0.76992499999999997</v>
-      </c>
-      <c r="D9" s="5">
-        <v>0.74981399999999998</v>
+      <c r="C9">
+        <v>0.7496926841663154</v>
+      </c>
+      <c r="D9">
+        <v>0.56495416686136668</v>
       </c>
       <c r="F9">
-        <v>5177</v>
+        <v>7529</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -4768,14 +5488,14 @@
       <c r="B10" s="3">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="C10" s="5">
-        <v>0.76908500000000002</v>
-      </c>
-      <c r="D10" s="5">
-        <v>0.84362599999999999</v>
+      <c r="C10">
+        <v>0.74880812085782689</v>
+      </c>
+      <c r="D10">
+        <v>0.66410484771238854</v>
       </c>
       <c r="F10">
-        <v>5563</v>
+        <v>5588</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -4785,14 +5505,14 @@
       <c r="B11" s="3">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="C11" s="5">
-        <v>0.76771400000000001</v>
-      </c>
-      <c r="D11" s="5">
-        <v>1.05983</v>
+      <c r="C11">
+        <v>0.74681279617008112</v>
+      </c>
+      <c r="D11">
+        <v>0.98410861984527176</v>
       </c>
       <c r="F11">
-        <v>5328</v>
+        <v>10708</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -4802,14 +5522,14 @@
       <c r="B12" s="3">
         <v>2E-3</v>
       </c>
-      <c r="C12" s="5">
-        <v>0.76592300000000002</v>
-      </c>
-      <c r="D12" s="5">
-        <v>1.624252</v>
+      <c r="C12">
+        <v>0.74239512479860459</v>
+      </c>
+      <c r="D12">
+        <v>2.4251696201746924</v>
       </c>
       <c r="F12">
-        <v>10808</v>
+        <v>10920</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -4819,14 +5539,14 @@
       <c r="B13" s="3">
         <v>1E-3</v>
       </c>
-      <c r="C13" s="5">
-        <v>0.76505800000000002</v>
-      </c>
-      <c r="D13" s="5">
-        <v>2.234686</v>
+      <c r="C13">
+        <v>0.73941659835058104</v>
+      </c>
+      <c r="D13">
+        <v>4.5959318710216541</v>
       </c>
       <c r="F13">
-        <v>17626</v>
+        <v>16905</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -4836,14 +5556,14 @@
       <c r="B14" s="3">
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="C14" s="5">
-        <v>0.764845</v>
-      </c>
-      <c r="D14" s="5">
-        <v>2.4730300000000001</v>
+      <c r="C14">
+        <v>0.73838707613497523</v>
+      </c>
+      <c r="D14">
+        <v>5.7485252539330016</v>
       </c>
       <c r="F14">
-        <v>20512</v>
+        <v>21911</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -4853,14 +5573,14 @@
       <c r="B15" s="3">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="C15" s="5">
-        <v>0.76447500000000002</v>
+      <c r="C15">
+        <v>0.73644546964686264</v>
       </c>
       <c r="D15">
-        <v>3.0567959999999998</v>
+        <v>8.8271253795765166</v>
       </c>
       <c r="F15">
-        <v>18748</v>
+        <v>30770</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -4870,14 +5590,14 @@
       <c r="B16" s="3">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="C16" s="5">
-        <v>0.76375499999999996</v>
-      </c>
-      <c r="D16" s="5">
-        <v>5.523002</v>
+      <c r="C16">
+        <v>0.73485947516589123</v>
+      </c>
+      <c r="D16">
+        <v>13.382349977706482</v>
       </c>
       <c r="F16">
-        <v>31172</v>
+        <v>23975</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -4887,14 +5607,14 @@
       <c r="B17" s="3">
         <v>1E-4</v>
       </c>
-      <c r="C17" s="5">
-        <v>0.76284099999999999</v>
-      </c>
-      <c r="D17" s="6">
-        <v>11.812939999999999</v>
+      <c r="C17">
+        <v>0.73428572010263293</v>
+      </c>
+      <c r="D17">
+        <v>17.532526745042322</v>
       </c>
       <c r="F17">
-        <v>37328</v>
+        <v>28614</v>
       </c>
     </row>
   </sheetData>
@@ -4942,14 +5662,14 @@
       <c r="B2" s="3">
         <v>0.8</v>
       </c>
-      <c r="C2">
-        <v>0.82028299999999998</v>
+      <c r="C2" s="5">
+        <v>0.79561300000000001</v>
       </c>
       <c r="D2" s="5">
-        <v>3.9623999999999999E-2</v>
+        <v>5.5077000000000001E-2</v>
       </c>
       <c r="F2">
-        <v>1905</v>
+        <v>2414</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -4959,14 +5679,14 @@
       <c r="B3" s="3">
         <v>0.5</v>
       </c>
-      <c r="C3">
-        <v>0.81631299999999996</v>
-      </c>
-      <c r="D3">
-        <v>4.5878000000000002E-2</v>
+      <c r="C3" s="5">
+        <v>0.79169599999999996</v>
+      </c>
+      <c r="D3" s="5">
+        <v>6.1234999999999998E-2</v>
       </c>
       <c r="F3">
-        <v>1045</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -4976,14 +5696,14 @@
       <c r="B4" s="3">
         <v>0.2</v>
       </c>
-      <c r="C4">
-        <v>0.81157299999999999</v>
-      </c>
-      <c r="D4">
-        <v>6.0649000000000002E-2</v>
+      <c r="C4" s="5">
+        <v>0.78730199999999995</v>
+      </c>
+      <c r="D4" s="5">
+        <v>7.4854000000000004E-2</v>
       </c>
       <c r="F4">
-        <v>1333</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -4993,14 +5713,14 @@
       <c r="B5" s="3">
         <v>0.1</v>
       </c>
-      <c r="C5">
-        <v>0.80917600000000001</v>
-      </c>
-      <c r="D5">
-        <v>7.7882000000000007E-2</v>
+      <c r="C5" s="5">
+        <v>0.78516600000000003</v>
+      </c>
+      <c r="D5" s="5">
+        <v>9.0206999999999996E-2</v>
       </c>
       <c r="F5">
-        <v>1884</v>
+        <v>2678</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -5010,14 +5730,14 @@
       <c r="B6" s="3">
         <v>0.08</v>
       </c>
-      <c r="C6">
-        <v>0.808342</v>
-      </c>
-      <c r="D6">
-        <v>8.7243000000000001E-2</v>
+      <c r="C6" s="5">
+        <v>0.78442299999999998</v>
+      </c>
+      <c r="D6" s="5">
+        <v>9.8545999999999995E-2</v>
       </c>
       <c r="F6">
-        <v>1858</v>
+        <v>2416</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -5027,14 +5747,14 @@
       <c r="B7" s="3">
         <v>0.05</v>
       </c>
-      <c r="C7">
-        <v>0.80617099999999997</v>
-      </c>
-      <c r="D7">
-        <v>0.12224400000000001</v>
+      <c r="C7" s="5">
+        <v>0.78250299999999995</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0.12948899999999999</v>
       </c>
       <c r="F7">
-        <v>2314</v>
+        <v>3027</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -5044,14 +5764,14 @@
       <c r="B8" s="3">
         <v>0.02</v>
       </c>
-      <c r="C8">
-        <v>0.80229600000000001</v>
-      </c>
-      <c r="D8">
-        <v>0.24330299999999999</v>
+      <c r="C8" s="5">
+        <v>0.77431899999999998</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0.44880300000000001</v>
       </c>
       <c r="F8">
-        <v>2914</v>
+        <v>5498</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -5061,14 +5781,14 @@
       <c r="B9" s="3">
         <v>0.01</v>
       </c>
-      <c r="C9">
-        <v>0.79327800000000004</v>
-      </c>
-      <c r="D9">
-        <v>0.78342500000000004</v>
+      <c r="C9" s="5">
+        <v>0.76992499999999997</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0.74981399999999998</v>
       </c>
       <c r="F9">
-        <v>5011</v>
+        <v>5177</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -5078,14 +5798,14 @@
       <c r="B10" s="3">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="C10">
-        <v>0.79240299999999997</v>
-      </c>
-      <c r="D10">
-        <v>0.88105599999999995</v>
+      <c r="C10" s="5">
+        <v>0.76908500000000002</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0.84362599999999999</v>
       </c>
       <c r="F10">
-        <v>4094</v>
+        <v>5563</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -5096,13 +5816,13 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="C11" s="5">
-        <v>0.79096</v>
-      </c>
-      <c r="D11">
-        <v>1.108789</v>
+        <v>0.76771400000000001</v>
+      </c>
+      <c r="D11" s="5">
+        <v>1.05983</v>
       </c>
       <c r="F11">
-        <v>5555</v>
+        <v>5328</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -5112,14 +5832,14 @@
       <c r="B12" s="3">
         <v>2E-3</v>
       </c>
-      <c r="C12">
-        <v>0.78894600000000004</v>
-      </c>
-      <c r="D12">
-        <v>1.748054</v>
+      <c r="C12" s="5">
+        <v>0.76592300000000002</v>
+      </c>
+      <c r="D12" s="5">
+        <v>1.624252</v>
       </c>
       <c r="F12">
-        <v>7429</v>
+        <v>10808</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -5129,14 +5849,14 @@
       <c r="B13" s="3">
         <v>1E-3</v>
       </c>
-      <c r="C13">
-        <v>0.787856</v>
-      </c>
-      <c r="D13">
-        <v>2.5180530000000001</v>
+      <c r="C13" s="5">
+        <v>0.76505800000000002</v>
+      </c>
+      <c r="D13" s="5">
+        <v>2.234686</v>
       </c>
       <c r="F13">
-        <v>14557</v>
+        <v>17626</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -5146,14 +5866,14 @@
       <c r="B14" s="3">
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="C14">
-        <v>0.787578</v>
-      </c>
-      <c r="D14">
-        <v>2.8278479999999999</v>
+      <c r="C14" s="5">
+        <v>0.764845</v>
+      </c>
+      <c r="D14" s="5">
+        <v>2.4730300000000001</v>
       </c>
       <c r="F14">
-        <v>10686</v>
+        <v>20512</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -5163,14 +5883,14 @@
       <c r="B15" s="3">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="C15">
-        <v>0.78709799999999996</v>
+      <c r="C15" s="5">
+        <v>0.76447500000000002</v>
       </c>
       <c r="D15">
-        <v>3.5887880000000001</v>
+        <v>3.0567959999999998</v>
       </c>
       <c r="F15">
-        <v>10422</v>
+        <v>18748</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -5180,14 +5900,14 @@
       <c r="B16" s="3">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="C16">
-        <v>0.78641499999999998</v>
-      </c>
-      <c r="D16">
-        <v>5.7745259999999998</v>
+      <c r="C16" s="5">
+        <v>0.76375499999999996</v>
+      </c>
+      <c r="D16" s="5">
+        <v>5.523002</v>
       </c>
       <c r="F16">
-        <v>18630</v>
+        <v>31172</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -5197,14 +5917,14 @@
       <c r="B17" s="3">
         <v>1E-4</v>
       </c>
-      <c r="C17">
-        <v>0.78570700000000004</v>
-      </c>
-      <c r="D17">
-        <v>11.012869999999999</v>
+      <c r="C17" s="5">
+        <v>0.76284099999999999</v>
+      </c>
+      <c r="D17" s="6">
+        <v>11.812939999999999</v>
       </c>
       <c r="F17">
-        <v>23698</v>
+        <v>37328</v>
       </c>
     </row>
   </sheetData>
@@ -5252,14 +5972,14 @@
       <c r="B2" s="3">
         <v>0.8</v>
       </c>
-      <c r="C2" s="5">
-        <v>0.911049</v>
+      <c r="C2">
+        <v>0.82028299999999998</v>
       </c>
       <c r="D2" s="5">
-        <v>4.3668999999999999E-2</v>
+        <v>3.9623999999999999E-2</v>
       </c>
       <c r="F2">
-        <v>1309</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -5269,14 +5989,14 @@
       <c r="B3" s="3">
         <v>0.5</v>
       </c>
-      <c r="C3" s="5">
-        <v>0.90627100000000005</v>
-      </c>
-      <c r="D3" s="5">
-        <v>5.1194999999999997E-2</v>
+      <c r="C3">
+        <v>0.81631299999999996</v>
+      </c>
+      <c r="D3">
+        <v>4.5878000000000002E-2</v>
       </c>
       <c r="F3">
-        <v>831</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -5286,14 +6006,14 @@
       <c r="B4" s="3">
         <v>0.2</v>
       </c>
-      <c r="C4" s="5">
-        <v>0.90058899999999997</v>
-      </c>
-      <c r="D4" s="5">
-        <v>6.8884000000000001E-2</v>
+      <c r="C4">
+        <v>0.81157299999999999</v>
+      </c>
+      <c r="D4">
+        <v>6.0649000000000002E-2</v>
       </c>
       <c r="F4">
-        <v>1051</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -5303,14 +6023,14 @@
       <c r="B5" s="3">
         <v>0.1</v>
       </c>
-      <c r="C5" s="5">
-        <v>0.89776100000000003</v>
-      </c>
-      <c r="D5" s="5">
-        <v>8.9200000000000002E-2</v>
+      <c r="C5">
+        <v>0.80917600000000001</v>
+      </c>
+      <c r="D5">
+        <v>7.7882000000000007E-2</v>
       </c>
       <c r="F5">
-        <v>1412</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -5320,14 +6040,14 @@
       <c r="B6" s="3">
         <v>0.08</v>
       </c>
-      <c r="C6" s="5">
-        <v>0.89678100000000005</v>
-      </c>
-      <c r="D6" s="5">
-        <v>0.10020800000000001</v>
+      <c r="C6">
+        <v>0.808342</v>
+      </c>
+      <c r="D6">
+        <v>8.7243000000000001E-2</v>
       </c>
       <c r="F6">
-        <v>1471</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -5337,14 +6057,14 @@
       <c r="B7" s="3">
         <v>0.05</v>
       </c>
-      <c r="C7" s="5">
-        <v>0.894208</v>
-      </c>
-      <c r="D7" s="5">
-        <v>0.14171600000000001</v>
+      <c r="C7">
+        <v>0.80617099999999997</v>
+      </c>
+      <c r="D7">
+        <v>0.12224400000000001</v>
       </c>
       <c r="F7">
-        <v>1591</v>
+        <v>2314</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -5354,14 +6074,14 @@
       <c r="B8" s="3">
         <v>0.02</v>
       </c>
-      <c r="C8" s="5">
-        <v>0.88959600000000005</v>
-      </c>
-      <c r="D8" s="5">
-        <v>0.28540500000000002</v>
+      <c r="C8">
+        <v>0.80229600000000001</v>
+      </c>
+      <c r="D8">
+        <v>0.24330299999999999</v>
       </c>
       <c r="F8">
-        <v>2173</v>
+        <v>2914</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -5371,14 +6091,14 @@
       <c r="B9" s="3">
         <v>0.01</v>
       </c>
-      <c r="C9" s="5">
-        <v>0.880907</v>
-      </c>
-      <c r="D9" s="5">
-        <v>0.85133700000000001</v>
+      <c r="C9">
+        <v>0.79327800000000004</v>
+      </c>
+      <c r="D9">
+        <v>0.78342500000000004</v>
       </c>
       <c r="F9">
-        <v>3955</v>
+        <v>5011</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -5388,14 +6108,14 @@
       <c r="B10" s="3">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="C10" s="5">
-        <v>0.87997700000000001</v>
-      </c>
-      <c r="D10" s="5">
-        <v>0.95500300000000005</v>
+      <c r="C10">
+        <v>0.79240299999999997</v>
+      </c>
+      <c r="D10">
+        <v>0.88105599999999995</v>
       </c>
       <c r="F10">
-        <v>2600</v>
+        <v>4094</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -5406,13 +6126,13 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="C11" s="5">
-        <v>0.87862799999999996</v>
-      </c>
-      <c r="D11" s="5">
-        <v>1.1664129999999999</v>
+        <v>0.79096</v>
+      </c>
+      <c r="D11">
+        <v>1.108789</v>
       </c>
       <c r="F11">
-        <v>3138</v>
+        <v>5555</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -5422,14 +6142,14 @@
       <c r="B12" s="3">
         <v>2E-3</v>
       </c>
-      <c r="C12" s="5">
-        <v>0.87717800000000001</v>
-      </c>
-      <c r="D12" s="5">
-        <v>1.6180289999999999</v>
+      <c r="C12">
+        <v>0.78894600000000004</v>
+      </c>
+      <c r="D12">
+        <v>1.748054</v>
       </c>
       <c r="F12">
-        <v>5578</v>
+        <v>7429</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -5439,14 +6159,14 @@
       <c r="B13" s="3">
         <v>1E-3</v>
       </c>
-      <c r="C13" s="5">
-        <v>0.87649299999999997</v>
-      </c>
-      <c r="D13" s="5">
-        <v>2.1055649999999999</v>
+      <c r="C13">
+        <v>0.787856</v>
+      </c>
+      <c r="D13">
+        <v>2.5180530000000001</v>
       </c>
       <c r="F13">
-        <v>6288</v>
+        <v>14557</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -5456,14 +6176,14 @@
       <c r="B14" s="3">
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="C14" s="5">
-        <v>0.87629299999999999</v>
-      </c>
-      <c r="D14" s="5">
-        <v>2.32999</v>
+      <c r="C14">
+        <v>0.787578</v>
+      </c>
+      <c r="D14">
+        <v>2.8278479999999999</v>
       </c>
       <c r="F14">
-        <v>5327</v>
+        <v>10686</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -5473,14 +6193,14 @@
       <c r="B15" s="3">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="C15" s="5">
-        <v>0.87584499999999998</v>
-      </c>
-      <c r="D15" s="5">
-        <v>3.0476429999999999</v>
+      <c r="C15">
+        <v>0.78709799999999996</v>
+      </c>
+      <c r="D15">
+        <v>3.5887880000000001</v>
       </c>
       <c r="F15">
-        <v>10071</v>
+        <v>10422</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -5490,14 +6210,14 @@
       <c r="B16" s="3">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="C16" s="5">
-        <v>0.87428099999999997</v>
-      </c>
-      <c r="D16" s="5">
-        <v>8.5875529999999998</v>
+      <c r="C16">
+        <v>0.78641499999999998</v>
+      </c>
+      <c r="D16">
+        <v>5.7745259999999998</v>
       </c>
       <c r="F16">
-        <v>19707</v>
+        <v>18630</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -5507,14 +6227,14 @@
       <c r="B17" s="3">
         <v>1E-4</v>
       </c>
-      <c r="C17" s="5">
-        <v>0.87256900000000004</v>
-      </c>
-      <c r="D17" s="6">
-        <v>20.343769999999999</v>
+      <c r="C17">
+        <v>0.78570700000000004</v>
+      </c>
+      <c r="D17">
+        <v>11.012869999999999</v>
       </c>
       <c r="F17">
-        <v>8795</v>
+        <v>23698</v>
       </c>
     </row>
   </sheetData>
@@ -5523,6 +6243,316 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0.911049</v>
+      </c>
+      <c r="D2" s="5">
+        <v>4.3668999999999999E-2</v>
+      </c>
+      <c r="F2">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0.90627100000000005</v>
+      </c>
+      <c r="D3" s="5">
+        <v>5.1194999999999997E-2</v>
+      </c>
+      <c r="F3">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.90058899999999997</v>
+      </c>
+      <c r="D4" s="5">
+        <v>6.8884000000000001E-2</v>
+      </c>
+      <c r="F4">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.89776100000000003</v>
+      </c>
+      <c r="D5" s="5">
+        <v>8.9200000000000002E-2</v>
+      </c>
+      <c r="F5">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0.89678100000000005</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0.10020800000000001</v>
+      </c>
+      <c r="F6">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0.894208</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0.14171600000000001</v>
+      </c>
+      <c r="F7">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0.88959600000000005</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0.28540500000000002</v>
+      </c>
+      <c r="F8">
+        <v>2173</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0.880907</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0.85133700000000001</v>
+      </c>
+      <c r="F9">
+        <v>3955</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0.87997700000000001</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0.95500300000000005</v>
+      </c>
+      <c r="F10">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0.87862799999999996</v>
+      </c>
+      <c r="D11" s="5">
+        <v>1.1664129999999999</v>
+      </c>
+      <c r="F11">
+        <v>3138</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3">
+        <v>2E-3</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0.87717800000000001</v>
+      </c>
+      <c r="D12" s="5">
+        <v>1.6180289999999999</v>
+      </c>
+      <c r="F12">
+        <v>5578</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C13" s="5">
+        <v>0.87649299999999997</v>
+      </c>
+      <c r="D13" s="5">
+        <v>2.1055649999999999</v>
+      </c>
+      <c r="F13">
+        <v>6288</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0.87629299999999999</v>
+      </c>
+      <c r="D14" s="5">
+        <v>2.32999</v>
+      </c>
+      <c r="F14">
+        <v>5327</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0.87584499999999998</v>
+      </c>
+      <c r="D15" s="5">
+        <v>3.0476429999999999</v>
+      </c>
+      <c r="F15">
+        <v>10071</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="C16" s="5">
+        <v>0.87428099999999997</v>
+      </c>
+      <c r="D16" s="5">
+        <v>8.5875529999999998</v>
+      </c>
+      <c r="F16">
+        <v>19707</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0.87256900000000004</v>
+      </c>
+      <c r="D17" s="6">
+        <v>20.343769999999999</v>
+      </c>
+      <c r="F17">
+        <v>8795</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
@@ -5832,7 +6862,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
@@ -6138,18 +7168,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6168,314 +7186,6 @@
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="C2" s="5">
-        <v>0.781362</v>
-      </c>
-      <c r="D2" s="5">
-        <v>3.7957999999999999E-2</v>
-      </c>
-      <c r="F2">
-        <v>5821</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="C3" s="5">
-        <v>0.78020599999999996</v>
-      </c>
-      <c r="D3" s="5">
-        <v>4.2890999999999999E-2</v>
-      </c>
-      <c r="F3">
-        <v>6048</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="C4" s="5">
-        <v>0.77824000000000004</v>
-      </c>
-      <c r="D4" s="5">
-        <v>5.0349999999999999E-2</v>
-      </c>
-      <c r="F4">
-        <v>5482</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="C5" s="5">
-        <v>0.77367399999999997</v>
-      </c>
-      <c r="D5" s="5">
-        <v>8.4301000000000001E-2</v>
-      </c>
-      <c r="F5">
-        <v>6905</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3">
-        <v>0.08</v>
-      </c>
-      <c r="C6" s="5">
-        <v>0.77238300000000004</v>
-      </c>
-      <c r="D6" s="5">
-        <v>9.8834000000000005E-2</v>
-      </c>
-      <c r="F6">
-        <v>6337</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="C7" s="5">
-        <v>0.76934899999999995</v>
-      </c>
-      <c r="D7" s="5">
-        <v>0.14769599999999999</v>
-      </c>
-      <c r="F7">
-        <v>8560</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3">
-        <v>0.02</v>
-      </c>
-      <c r="C8" s="5">
-        <v>0.76215699999999997</v>
-      </c>
-      <c r="D8" s="5">
-        <v>0.39043600000000001</v>
-      </c>
-      <c r="F8">
-        <v>14207</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="C9" s="5">
-        <v>0.75368100000000005</v>
-      </c>
-      <c r="D9" s="5">
-        <v>0.99561699999999997</v>
-      </c>
-      <c r="F9">
-        <v>21972</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="C10" s="5">
-        <v>0.75137500000000002</v>
-      </c>
-      <c r="D10" s="5">
-        <v>1.2532840000000001</v>
-      </c>
-      <c r="F10">
-        <v>21466</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="C11" s="5">
-        <v>0.747888</v>
-      </c>
-      <c r="D11" s="5">
-        <v>1.8012010000000001</v>
-      </c>
-      <c r="F11">
-        <v>23641</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" s="3">
-        <v>2E-3</v>
-      </c>
-      <c r="C12" s="5">
-        <v>0.743085</v>
-      </c>
-      <c r="D12" s="5">
-        <v>3.3332199999999998</v>
-      </c>
-      <c r="F12">
-        <v>43862</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" s="3">
-        <v>1E-3</v>
-      </c>
-      <c r="C13" s="5">
-        <v>0.73970100000000005</v>
-      </c>
-      <c r="D13" s="5">
-        <v>5.3484660000000002</v>
-      </c>
-      <c r="F13">
-        <v>110189</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" s="3">
-        <v>8.0000000000000004E-4</v>
-      </c>
-      <c r="C14" s="5">
-        <v>0.73909899999999995</v>
-      </c>
-      <c r="D14" s="5">
-        <v>5.9845329999999999</v>
-      </c>
-      <c r="F14">
-        <v>81983</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" s="3">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C15" s="5">
-        <v>0.73851999999999995</v>
-      </c>
-      <c r="D15" s="5">
-        <v>6.8936580000000003</v>
-      </c>
-      <c r="F15">
-        <v>75037</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" s="3">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="C16" s="5">
-        <v>0.73851999999999995</v>
-      </c>
-      <c r="D16" s="5">
-        <v>6.8936279999999996</v>
-      </c>
-      <c r="F16">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" s="3">
-        <v>1E-4</v>
-      </c>
-      <c r="C17" s="5">
-        <v>0.73743099999999995</v>
-      </c>
-      <c r="D17" s="6">
-        <v>11.874309999999999</v>
-      </c>
-      <c r="F17">
-        <v>83852</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6486,22 +7196,329 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0.781362</v>
+      </c>
+      <c r="D2" s="5">
+        <v>3.7957999999999999E-2</v>
+      </c>
+      <c r="F2">
+        <v>5821</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0.78020599999999996</v>
+      </c>
+      <c r="D3" s="5">
+        <v>4.2890999999999999E-2</v>
+      </c>
+      <c r="F3">
+        <v>6048</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.77824000000000004</v>
+      </c>
+      <c r="D4" s="5">
+        <v>5.0349999999999999E-2</v>
+      </c>
+      <c r="F4">
+        <v>5482</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.77367399999999997</v>
+      </c>
+      <c r="D5" s="5">
+        <v>8.4301000000000001E-2</v>
+      </c>
+      <c r="F5">
+        <v>6905</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0.77238300000000004</v>
+      </c>
+      <c r="D6" s="5">
+        <v>9.8834000000000005E-2</v>
+      </c>
+      <c r="F6">
+        <v>6337</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0.76934899999999995</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0.14769599999999999</v>
+      </c>
+      <c r="F7">
+        <v>8560</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0.76215699999999997</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0.39043600000000001</v>
+      </c>
+      <c r="F8">
+        <v>14207</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0.75368100000000005</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0.99561699999999997</v>
+      </c>
+      <c r="F9">
+        <v>21972</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0.75137500000000002</v>
+      </c>
+      <c r="D10" s="5">
+        <v>1.2532840000000001</v>
+      </c>
+      <c r="F10">
+        <v>21466</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0.747888</v>
+      </c>
+      <c r="D11" s="5">
+        <v>1.8012010000000001</v>
+      </c>
+      <c r="F11">
+        <v>23641</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3">
+        <v>2E-3</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0.743085</v>
+      </c>
+      <c r="D12" s="5">
+        <v>3.3332199999999998</v>
+      </c>
+      <c r="F12">
+        <v>43862</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C13" s="5">
+        <v>0.73970100000000005</v>
+      </c>
+      <c r="D13" s="5">
+        <v>5.3484660000000002</v>
+      </c>
+      <c r="F13">
+        <v>110189</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0.73909899999999995</v>
+      </c>
+      <c r="D14" s="5">
+        <v>5.9845329999999999</v>
+      </c>
+      <c r="F14">
+        <v>81983</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0.73851999999999995</v>
+      </c>
+      <c r="D15" s="5">
+        <v>6.8936580000000003</v>
+      </c>
+      <c r="F15">
+        <v>75037</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="C16" s="5">
+        <v>0.73851999999999995</v>
+      </c>
+      <c r="D16" s="5">
+        <v>6.8936279999999996</v>
+      </c>
+      <c r="F16">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0.73743099999999995</v>
+      </c>
+      <c r="D17" s="6">
+        <v>11.874309999999999</v>
+      </c>
+      <c r="F17">
+        <v>83852</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B17"/>
+      <selection sqref="A1:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -6535,13 +7552,20 @@
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>0.76055463918448551</v>
+        <v>0.75464182426820414</v>
       </c>
       <c r="D2">
-        <v>4.1591084704160737E-2</v>
+        <v>4.193011781027968E-2</v>
+      </c>
+      <c r="E2">
+        <v>0.48512300500456629</v>
       </c>
       <c r="F2">
-        <v>5936</v>
+        <v>6164</v>
+      </c>
+      <c r="G2" s="1">
+        <f>C2/E2</f>
+        <v>1.5555680033378358</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -6552,13 +7576,20 @@
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>0.75623886812569385</v>
+        <v>0.75025310390267075</v>
       </c>
       <c r="D3">
-        <v>4.9980459024403109E-2</v>
+        <v>5.0440080371274128E-2</v>
+      </c>
+      <c r="E3">
+        <v>0.48512300500456629</v>
       </c>
       <c r="F3">
-        <v>7079</v>
+        <v>6793</v>
+      </c>
+      <c r="G3" s="1">
+        <f t="shared" ref="G3:G17" si="0">C3/E3</f>
+        <v>1.5465213897568286</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -6569,13 +7600,20 @@
         <v>0.2</v>
       </c>
       <c r="C4">
-        <v>0.74426670185430477</v>
+        <v>0.73857263113767779</v>
       </c>
       <c r="D4">
-        <v>9.0423159094778063E-2</v>
+        <v>8.9883752633368147E-2</v>
+      </c>
+      <c r="E4">
+        <v>0.48512300500456629</v>
       </c>
       <c r="F4">
-        <v>6393</v>
+        <v>6505</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" si="0"/>
+        <v>1.5224440472179337</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -6586,13 +7624,20 @@
         <v>0.1</v>
       </c>
       <c r="C5">
-        <v>0.73536461078024529</v>
+        <v>0.73006463711878355</v>
       </c>
       <c r="D5">
-        <v>0.15389860033536046</v>
+        <v>0.15161194424914923</v>
+      </c>
+      <c r="E5">
+        <v>0.48512300500456629</v>
       </c>
       <c r="F5">
-        <v>7589</v>
+        <v>9132</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" si="0"/>
+        <v>1.5049062394225392</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -6603,13 +7648,20 @@
         <v>0.08</v>
       </c>
       <c r="C6">
-        <v>0.73302331533688325</v>
+        <v>0.72729065819670347</v>
       </c>
       <c r="D6">
-        <v>0.1800704006607203</v>
+        <v>0.18262795190951306</v>
+      </c>
+      <c r="E6">
+        <v>0.48512300500456629</v>
       </c>
       <c r="F6">
-        <v>6963</v>
+        <v>7361</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="0"/>
+        <v>1.4991881454680915</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -6620,13 +7672,20 @@
         <v>0.05</v>
       </c>
       <c r="C7">
-        <v>0.72921871882895672</v>
+        <v>0.72222150292140175</v>
       </c>
       <c r="D7">
-        <v>0.23990523496203306</v>
+        <v>0.26322452421881404</v>
+      </c>
+      <c r="E7">
+        <v>0.48512300500456629</v>
       </c>
       <c r="F7">
-        <v>8217</v>
+        <v>8500</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="0"/>
+        <v>1.4887389290363662</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -6637,13 +7696,20 @@
         <v>0.02</v>
       </c>
       <c r="C8">
-        <v>0.71826005408686455</v>
+        <v>0.70330251300549429</v>
       </c>
       <c r="D8">
-        <v>0.5870952806206946</v>
+        <v>0.86957116796429701</v>
+      </c>
+      <c r="E8">
+        <v>0.48512300500456629</v>
       </c>
       <c r="F8">
-        <v>16598</v>
+        <v>17627</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="0"/>
+        <v>1.4497405931076683</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -6654,13 +7720,20 @@
         <v>0.01</v>
       </c>
       <c r="C9">
-        <v>0.71084719152249976</v>
+        <v>0.69713722066249773</v>
       </c>
       <c r="D9">
-        <v>1.1188078761247773</v>
+        <v>1.2966551284207413</v>
+      </c>
+      <c r="E9">
+        <v>0.48512300500456629</v>
       </c>
       <c r="F9">
-        <v>20085</v>
+        <v>27280</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" si="0"/>
+        <v>1.4370318732997125</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -6671,13 +7744,20 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="C10">
-        <v>0.70894481848963853</v>
+        <v>0.69590886869380364</v>
       </c>
       <c r="D10">
-        <v>1.3317133504412537</v>
+        <v>1.4336849334344886</v>
+      </c>
+      <c r="E10">
+        <v>0.48512300500456629</v>
       </c>
       <c r="F10">
-        <v>21472</v>
+        <v>22052</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" si="0"/>
+        <v>1.4344998310011154</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -6688,13 +7768,20 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="C11">
-        <v>0.69745507005803131</v>
+        <v>0.69407791849277878</v>
       </c>
       <c r="D11">
-        <v>1.7957362693828958</v>
+        <v>1.7205192390258266</v>
+      </c>
+      <c r="E11">
+        <v>0.48512300500456629</v>
       </c>
       <c r="F11">
-        <v>42676</v>
+        <v>32453</v>
+      </c>
+      <c r="G11" s="1">
+        <f t="shared" si="0"/>
+        <v>1.4307256331541021</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -6705,13 +7792,20 @@
         <v>2E-3</v>
       </c>
       <c r="C12">
-        <v>0.69544817132065029</v>
+        <v>0.69209739924266189</v>
       </c>
       <c r="D12">
-        <v>2.4182352435659071</v>
+        <v>2.3361924715305347</v>
+      </c>
+      <c r="E12">
+        <v>0.48512300500456629</v>
       </c>
       <c r="F12">
-        <v>63216</v>
+        <v>50784</v>
+      </c>
+      <c r="G12" s="1">
+        <f t="shared" si="0"/>
+        <v>1.4266431237086921</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -6722,13 +7816,20 @@
         <v>1E-3</v>
       </c>
       <c r="C13">
-        <v>0.69457540288488795</v>
+        <v>0.69122371103867697</v>
       </c>
       <c r="D13">
-        <v>3.0340505231205941</v>
+        <v>2.9523020373502535</v>
+      </c>
+      <c r="E13">
+        <v>0.48512300500456629</v>
       </c>
       <c r="F13">
-        <v>59357</v>
+        <v>63467</v>
+      </c>
+      <c r="G13" s="1">
+        <f t="shared" si="0"/>
+        <v>1.4248421614888593</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -6739,13 +7840,20 @@
         <v>8.0000000000000004E-4</v>
       </c>
       <c r="C14">
-        <v>0.6943560284763628</v>
+        <v>0.69100479920756652</v>
       </c>
       <c r="D14">
-        <v>3.2782885437839986</v>
+        <v>3.1987249130744675</v>
+      </c>
+      <c r="E14">
+        <v>0.48512300500456629</v>
       </c>
       <c r="F14">
-        <v>77362</v>
+        <v>75861</v>
+      </c>
+      <c r="G14" s="1">
+        <f t="shared" si="0"/>
+        <v>1.4243909113340489</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -6756,13 +7864,20 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="C15">
-        <v>0.69394642683132512</v>
+        <v>0.69057612590236339</v>
       </c>
       <c r="D15">
-        <v>3.9314274804359539</v>
+        <v>3.8815562608111458</v>
+      </c>
+      <c r="E15">
+        <v>0.48512300500456629</v>
       </c>
       <c r="F15">
-        <v>108772</v>
+        <v>106423</v>
+      </c>
+      <c r="G15" s="1">
+        <f t="shared" si="0"/>
+        <v>1.4235072729561924</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -6773,16 +7888,23 @@
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="C16">
-        <v>0.69298308268635256</v>
+        <v>0.6896647734039455</v>
       </c>
       <c r="D16">
-        <v>7.0049724535124724</v>
+        <v>6.8100103250796806</v>
+      </c>
+      <c r="E16">
+        <v>0.48512300500456629</v>
       </c>
       <c r="F16">
-        <v>212869</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+        <v>158962</v>
+      </c>
+      <c r="G16" s="1">
+        <f t="shared" si="0"/>
+        <v>1.4216286720879252</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -6790,17 +7912,25 @@
         <v>1E-4</v>
       </c>
       <c r="C17">
-        <v>0.69245683313581596</v>
+        <v>0.68906251793296402</v>
       </c>
       <c r="D17">
-        <v>10.074536375926405</v>
+        <v>10.182325254169086</v>
+      </c>
+      <c r="E17">
+        <v>0.48512300500456629</v>
       </c>
       <c r="F17">
-        <v>254832</v>
+        <v>258453</v>
+      </c>
+      <c r="G17" s="1">
+        <f t="shared" si="0"/>
+        <v>1.4203872230847476</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6916,6 +8046,336 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="C2">
+        <v>0.76055463918448551</v>
+      </c>
+      <c r="D2">
+        <v>4.1591084704160737E-2</v>
+      </c>
+      <c r="F2">
+        <v>5936</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C3">
+        <v>0.75623886812569385</v>
+      </c>
+      <c r="D3">
+        <v>4.9980459024403109E-2</v>
+      </c>
+      <c r="F3">
+        <v>7079</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C4">
+        <v>0.74426670185430477</v>
+      </c>
+      <c r="D4">
+        <v>9.0423159094778063E-2</v>
+      </c>
+      <c r="F4">
+        <v>6393</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C5">
+        <v>0.73536461078024529</v>
+      </c>
+      <c r="D5">
+        <v>0.15389860033536046</v>
+      </c>
+      <c r="F5">
+        <v>7589</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="C6">
+        <v>0.73302331533688325</v>
+      </c>
+      <c r="D6">
+        <v>0.1800704006607203</v>
+      </c>
+      <c r="F6">
+        <v>6963</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="C7">
+        <v>0.72921871882895672</v>
+      </c>
+      <c r="D7">
+        <v>0.23990523496203306</v>
+      </c>
+      <c r="F7">
+        <v>8217</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="C8">
+        <v>0.71826005408686455</v>
+      </c>
+      <c r="D8">
+        <v>0.5870952806206946</v>
+      </c>
+      <c r="F8">
+        <v>16598</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="C9">
+        <v>0.71084719152249976</v>
+      </c>
+      <c r="D9">
+        <v>1.1188078761247773</v>
+      </c>
+      <c r="F9">
+        <v>20085</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="C10">
+        <v>0.70894481848963853</v>
+      </c>
+      <c r="D10">
+        <v>1.3317133504412537</v>
+      </c>
+      <c r="F10">
+        <v>21472</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C11">
+        <v>0.69745507005803131</v>
+      </c>
+      <c r="D11">
+        <v>1.7957362693828958</v>
+      </c>
+      <c r="F11">
+        <v>42676</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3">
+        <v>2E-3</v>
+      </c>
+      <c r="C12">
+        <v>0.69544817132065029</v>
+      </c>
+      <c r="D12">
+        <v>2.4182352435659071</v>
+      </c>
+      <c r="F12">
+        <v>63216</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C13">
+        <v>0.69457540288488795</v>
+      </c>
+      <c r="D13">
+        <v>3.0340505231205941</v>
+      </c>
+      <c r="F13">
+        <v>59357</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="C14">
+        <v>0.6943560284763628</v>
+      </c>
+      <c r="D14">
+        <v>3.2782885437839986</v>
+      </c>
+      <c r="F14">
+        <v>77362</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C15">
+        <v>0.69394642683132512</v>
+      </c>
+      <c r="D15">
+        <v>3.9314274804359539</v>
+      </c>
+      <c r="F15">
+        <v>108772</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="C16">
+        <v>0.69298308268635256</v>
+      </c>
+      <c r="D16">
+        <v>7.0049724535124724</v>
+      </c>
+      <c r="F16">
+        <v>212869</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="C17">
+        <v>0.69245683313581596</v>
+      </c>
+      <c r="D17">
+        <v>10.074536375926405</v>
+      </c>
+      <c r="F17">
+        <v>254832</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="S34" sqref="S34"/>
     </sheetView>
@@ -6926,7 +8386,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H17"/>
   <sheetViews>
@@ -7351,7 +8811,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
@@ -7661,7 +9121,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
@@ -7971,7 +9431,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
@@ -8274,316 +9734,6 @@
       </c>
       <c r="F17">
         <v>12353</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:G1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="C2">
-        <v>0.85413620903581411</v>
-      </c>
-      <c r="D2">
-        <v>6.7269752404277683E-2</v>
-      </c>
-      <c r="F2">
-        <v>1105</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="C3">
-        <v>0.83715136968475434</v>
-      </c>
-      <c r="D3">
-        <v>9.4083600625554847E-2</v>
-      </c>
-      <c r="F3">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="C4">
-        <v>0.81458098165458348</v>
-      </c>
-      <c r="D4">
-        <v>0.16531736736590649</v>
-      </c>
-      <c r="F4">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="C5">
-        <v>0.80226885873165787</v>
-      </c>
-      <c r="D5">
-        <v>0.25332664670473298</v>
-      </c>
-      <c r="F5">
-        <v>2235</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3">
-        <v>0.08</v>
-      </c>
-      <c r="C6">
-        <v>0.79870265077365321</v>
-      </c>
-      <c r="D6">
-        <v>0.29323047860520912</v>
-      </c>
-      <c r="F6">
-        <v>2061</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="C7">
-        <v>0.79222275758534277</v>
-      </c>
-      <c r="D7">
-        <v>0.39564563137213599</v>
-      </c>
-      <c r="F7">
-        <v>2641</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3">
-        <v>0.02</v>
-      </c>
-      <c r="C8">
-        <v>0.78313008973062381</v>
-      </c>
-      <c r="D8">
-        <v>0.68602384090853508</v>
-      </c>
-      <c r="F8">
-        <v>3395</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="C9">
-        <v>0.77731534883487163</v>
-      </c>
-      <c r="D9">
-        <v>1.103312202835949</v>
-      </c>
-      <c r="F9">
-        <v>3772</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="C10">
-        <v>0.77558888293019357</v>
-      </c>
-      <c r="D10">
-        <v>1.2965388116041188</v>
-      </c>
-      <c r="F10">
-        <v>3511</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="C11">
-        <v>0.77219086436085371</v>
-      </c>
-      <c r="D11">
-        <v>1.8373849103412792</v>
-      </c>
-      <c r="F11">
-        <v>3888</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" s="3">
-        <v>2E-3</v>
-      </c>
-      <c r="C12">
-        <v>0.76593944642757095</v>
-      </c>
-      <c r="D12">
-        <v>3.8646657033856102</v>
-      </c>
-      <c r="F12">
-        <v>4816</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" s="3">
-        <v>1E-3</v>
-      </c>
-      <c r="C13">
-        <v>0.76206153873075022</v>
-      </c>
-      <c r="D13">
-        <v>6.6222359526546315</v>
-      </c>
-      <c r="F13">
-        <v>5106</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" s="3">
-        <v>8.0000000000000004E-4</v>
-      </c>
-      <c r="C14">
-        <v>0.76101881087131229</v>
-      </c>
-      <c r="D14">
-        <v>7.7881523746003039</v>
-      </c>
-      <c r="F14">
-        <v>5048</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" s="3">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C15">
-        <v>0.75913650453669745</v>
-      </c>
-      <c r="D15">
-        <v>10.764718728105288</v>
-      </c>
-      <c r="F15">
-        <v>5628</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" s="3">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="C16">
-        <v>0.75736536436148572</v>
-      </c>
-      <c r="D16">
-        <v>15.774653484421583</v>
-      </c>
-      <c r="F16">
-        <v>6238</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" s="3">
-        <v>1E-4</v>
-      </c>
-      <c r="C17">
-        <v>0.75728845919564702</v>
-      </c>
-      <c r="D17">
-        <v>16.302926314686864</v>
-      </c>
-      <c r="F17">
-        <v>5744</v>
       </c>
     </row>
   </sheetData>
@@ -8632,13 +9782,13 @@
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>0.72683111081384832</v>
+        <v>0.85413620903581411</v>
       </c>
       <c r="D2">
-        <v>3.9361176885094794E-2</v>
+        <v>6.7269752404277683E-2</v>
       </c>
       <c r="F2">
-        <v>7076</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -8649,13 +9799,13 @@
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>0.72242288915543074</v>
+        <v>0.83715136968475434</v>
       </c>
       <c r="D3">
-        <v>4.793855011961589E-2</v>
+        <v>9.4083600625554847E-2</v>
       </c>
       <c r="F3">
-        <v>7534</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -8666,13 +9816,13 @@
         <v>0.2</v>
       </c>
       <c r="C4">
-        <v>0.70892398825667402</v>
+        <v>0.81458098165458348</v>
       </c>
       <c r="D4">
-        <v>9.3137598138974292E-2</v>
+        <v>0.16531736736590649</v>
       </c>
       <c r="F4">
-        <v>6792</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -8683,13 +9833,13 @@
         <v>0.1</v>
       </c>
       <c r="C5">
-        <v>0.69876751051112929</v>
+        <v>0.80226885873165787</v>
       </c>
       <c r="D5">
-        <v>0.1658216291573984</v>
+        <v>0.25332664670473298</v>
       </c>
       <c r="F5">
-        <v>7932</v>
+        <v>2235</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -8700,13 +9850,13 @@
         <v>0.08</v>
       </c>
       <c r="C6">
-        <v>0.69601919118111366</v>
+        <v>0.79870265077365321</v>
       </c>
       <c r="D6">
-        <v>0.19654333948331895</v>
+        <v>0.29323047860520912</v>
       </c>
       <c r="F6">
-        <v>7987</v>
+        <v>2061</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -8717,13 +9867,13 @@
         <v>0.05</v>
       </c>
       <c r="C7">
-        <v>0.69040284250352035</v>
+        <v>0.79222275758534277</v>
       </c>
       <c r="D7">
-        <v>0.28786571147408513</v>
+        <v>0.39564563137213599</v>
       </c>
       <c r="F7">
-        <v>12264</v>
+        <v>2641</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -8734,13 +9884,13 @@
         <v>0.02</v>
       </c>
       <c r="C8">
-        <v>0.66990352424976629</v>
+        <v>0.78313008973062381</v>
       </c>
       <c r="D8">
-        <v>0.95482616085994731</v>
+        <v>0.68602384090853508</v>
       </c>
       <c r="F8">
-        <v>17167</v>
+        <v>3395</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -8751,13 +9901,13 @@
         <v>0.01</v>
       </c>
       <c r="C9">
-        <v>0.66304893751802563</v>
+        <v>0.77731534883487163</v>
       </c>
       <c r="D9">
-        <v>1.4294020799097737</v>
+        <v>1.103312202835949</v>
       </c>
       <c r="F9">
-        <v>28773</v>
+        <v>3772</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -8768,13 +9918,13 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="C10">
-        <v>0.66167602521229307</v>
+        <v>0.77558888293019357</v>
       </c>
       <c r="D10">
-        <v>1.5825996920577914</v>
+        <v>1.2965388116041188</v>
       </c>
       <c r="F10">
-        <v>23528</v>
+        <v>3511</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -8785,13 +9935,13 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="C11">
-        <v>0.65959778910880218</v>
+        <v>0.77219086436085371</v>
       </c>
       <c r="D11">
-        <v>1.9083264288670798</v>
+        <v>1.8373849103412792</v>
       </c>
       <c r="F11">
-        <v>31021</v>
+        <v>3888</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -8802,13 +9952,13 @@
         <v>2E-3</v>
       </c>
       <c r="C12">
-        <v>0.65731774460564329</v>
+        <v>0.76593944642757095</v>
       </c>
       <c r="D12">
-        <v>2.6189453408130028</v>
+        <v>3.8646657033856102</v>
       </c>
       <c r="F12">
-        <v>59032</v>
+        <v>4816</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -8819,13 +9969,13 @@
         <v>1E-3</v>
       </c>
       <c r="C13">
-        <v>0.65608662371873183</v>
+        <v>0.76206153873075022</v>
       </c>
       <c r="D13">
-        <v>3.5121851950673095</v>
+        <v>6.6222359526546315</v>
       </c>
       <c r="F13">
-        <v>95827</v>
+        <v>5106</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -8836,13 +9986,13 @@
         <v>8.0000000000000004E-4</v>
       </c>
       <c r="C14">
-        <v>0.65569075383690922</v>
+        <v>0.76101881087131229</v>
       </c>
       <c r="D14">
-        <v>3.9511278884805252</v>
+        <v>7.7881523746003039</v>
       </c>
       <c r="F14">
-        <v>99091</v>
+        <v>5048</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -8853,13 +10003,13 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="C15">
-        <v>0.65497090939983216</v>
+        <v>0.75913650453669745</v>
       </c>
       <c r="D15">
-        <v>5.1126109975480984</v>
+        <v>10.764718728105288</v>
       </c>
       <c r="F15">
-        <v>123646</v>
+        <v>5628</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -8870,13 +10020,13 @@
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="C16">
-        <v>0.65385959948271</v>
+        <v>0.75736536436148572</v>
       </c>
       <c r="D16">
-        <v>8.2624418119208247</v>
+        <v>15.774653484421583</v>
       </c>
       <c r="F16">
-        <v>127367</v>
+        <v>6238</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -8887,13 +10037,13 @@
         <v>1E-4</v>
       </c>
       <c r="C17">
-        <v>0.65355270455997272</v>
+        <v>0.75728845919564702</v>
       </c>
       <c r="D17">
-        <v>10.800569097041571</v>
+        <v>16.302926314686864</v>
       </c>
       <c r="F17">
-        <v>106173</v>
+        <v>5744</v>
       </c>
     </row>
   </sheetData>

--- a/data/Summer2017/L-curve/compiled_L-curve_data_2017-06-21_updated.xlsx
+++ b/data/Summer2017/L-curve/compiled_L-curve_data_2017-06-21_updated.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kdahlqui\Documents\Lab Records\L-curve_Analysis_Summer-2017\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nvafadar\Desktop\L-curve_Summer2017\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19215" windowHeight="9015" tabRatio="851" firstSheet="17" activeTab="20"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19215" windowHeight="9015" tabRatio="851" firstSheet="33" activeTab="39"/>
   </bookViews>
   <sheets>
     <sheet name="key-to-input-workbooks" sheetId="2" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="55">
   <si>
     <t>Alpha</t>
   </si>
@@ -575,8 +575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView topLeftCell="B22" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -836,7 +836,7 @@
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="7" t="s">
         <v>37</v>
       </c>
     </row>
@@ -844,7 +844,7 @@
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="7" t="s">
         <v>27</v>
       </c>
     </row>
@@ -852,7 +852,7 @@
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="7" t="s">
         <v>38</v>
       </c>
     </row>
@@ -860,7 +860,7 @@
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="7" t="s">
         <v>29</v>
       </c>
     </row>
@@ -868,7 +868,7 @@
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="7" t="s">
         <v>15</v>
       </c>
     </row>
@@ -5318,7 +5318,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -6867,7 +6867,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G17"/>
+      <selection activeCell="C1" sqref="C1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7174,24 +7174,620 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:G1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="C2">
+        <v>0.78025740711169977</v>
+      </c>
+      <c r="D2">
+        <v>3.7973821073067293E-2</v>
+      </c>
+      <c r="F2">
+        <v>5863</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C3">
+        <v>0.77911596222471702</v>
+      </c>
+      <c r="D3">
+        <v>4.1491232488790913E-2</v>
+      </c>
+      <c r="F3">
+        <v>6211</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C4">
+        <v>0.77728483125697223</v>
+      </c>
+      <c r="D4">
+        <v>4.804215745165441E-2</v>
+      </c>
+      <c r="F4">
+        <v>5520</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C5">
+        <v>0.75969059645324211</v>
+      </c>
+      <c r="D5">
+        <v>0.18828001358417615</v>
+      </c>
+      <c r="F5">
+        <v>12021</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="C6">
+        <v>0.75500781343546275</v>
+      </c>
+      <c r="D6">
+        <v>0.24112932120613892</v>
+      </c>
+      <c r="F6">
+        <v>10278</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="C7">
+        <v>0.72405599074368343</v>
+      </c>
+      <c r="D7">
+        <v>0.69065262197759902</v>
+      </c>
+      <c r="F7">
+        <v>14454</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="C8">
+        <v>0.70342334997328892</v>
+      </c>
+      <c r="D8">
+        <v>1.3175727732862521</v>
+      </c>
+      <c r="F8">
+        <v>13642</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="C9">
+        <v>0.69516900771528445</v>
+      </c>
+      <c r="D9">
+        <v>1.8987962118469592</v>
+      </c>
+      <c r="F9">
+        <v>17949</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="C10">
+        <v>0.69321999910461329</v>
+      </c>
+      <c r="D10">
+        <v>2.116501495190676</v>
+      </c>
+      <c r="F10">
+        <v>25912</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C11">
+        <v>0.69004966336733209</v>
+      </c>
+      <c r="D11">
+        <v>2.6152208700914086</v>
+      </c>
+      <c r="F11">
+        <v>27835</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3">
+        <v>2E-3</v>
+      </c>
+      <c r="C12">
+        <v>0.68642957418677764</v>
+      </c>
+      <c r="D12">
+        <v>3.7441669778942646</v>
+      </c>
+      <c r="F12">
+        <v>49877</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C13">
+        <v>0.68346626532839694</v>
+      </c>
+      <c r="D13">
+        <v>4.9236867689169417</v>
+      </c>
+      <c r="F13">
+        <v>103820</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="C14">
+        <v>0.68301430269224872</v>
+      </c>
+      <c r="D14">
+        <v>5.4293677579650099</v>
+      </c>
+      <c r="F14">
+        <v>58624</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C15">
+        <v>0.68221241656690357</v>
+      </c>
+      <c r="D15">
+        <v>6.694976616612391</v>
+      </c>
+      <c r="F15">
+        <v>172473</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="C16">
+        <v>0.67949564040507549</v>
+      </c>
+      <c r="D16">
+        <v>15.101368621688035</v>
+      </c>
+      <c r="F16">
+        <v>136232</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="C17">
+        <v>0.67949576352277741</v>
+      </c>
+      <c r="D17">
+        <v>15.101371772280896</v>
+      </c>
+      <c r="F17">
+        <v>195</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="C2">
+        <v>0.76600065444362109</v>
+      </c>
+      <c r="D2">
+        <v>4.8074049909900156E-2</v>
+      </c>
+      <c r="F2">
+        <v>5876</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C3">
+        <v>0.76044026605227188</v>
+      </c>
+      <c r="D3">
+        <v>6.7479067358409084E-2</v>
+      </c>
+      <c r="F3">
+        <v>6218</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C4">
+        <v>0.75290624421317209</v>
+      </c>
+      <c r="D4">
+        <v>9.8800905096309039E-2</v>
+      </c>
+      <c r="F4">
+        <v>4797</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C5">
+        <v>0.7465857002714501</v>
+      </c>
+      <c r="D5">
+        <v>0.1525399353846594</v>
+      </c>
+      <c r="F5">
+        <v>8386</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="C6">
+        <v>0.74312201550053669</v>
+      </c>
+      <c r="D6">
+        <v>0.19591457628276401</v>
+      </c>
+      <c r="F6">
+        <v>9585</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="C7">
+        <v>0.72569817227343469</v>
+      </c>
+      <c r="D7">
+        <v>0.45618258326811401</v>
+      </c>
+      <c r="F7">
+        <v>14775</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="C8">
+        <v>0.70847992970654539</v>
+      </c>
+      <c r="D8">
+        <v>1.0143097602712026</v>
+      </c>
+      <c r="F8">
+        <v>20906</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="C9">
+        <v>0.70371962080507477</v>
+      </c>
+      <c r="D9">
+        <v>1.3532770163741294</v>
+      </c>
+      <c r="F9">
+        <v>30052</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="C10">
+        <v>0.70264027481911973</v>
+      </c>
+      <c r="D10">
+        <v>1.4764614749146274</v>
+      </c>
+      <c r="F10">
+        <v>37845</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C11">
+        <v>0.70106089631948221</v>
+      </c>
+      <c r="D11">
+        <v>1.7263057075362644</v>
+      </c>
+      <c r="F11">
+        <v>44716</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3">
+        <v>2E-3</v>
+      </c>
+      <c r="C12">
+        <v>0.6994049356405424</v>
+      </c>
+      <c r="D12">
+        <v>2.2426739682317769</v>
+      </c>
+      <c r="F12">
+        <v>66935</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C13">
+        <v>0.69827196023983917</v>
+      </c>
+      <c r="D13">
+        <v>3.2041162406449346</v>
+      </c>
+      <c r="F13">
+        <v>73179</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="C14">
+        <v>0.69790802008541974</v>
+      </c>
+      <c r="D14">
+        <v>3.6651944702448094</v>
+      </c>
+      <c r="F14">
+        <v>40867</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C15">
+        <v>0.69725999856944476</v>
+      </c>
+      <c r="D15">
+        <v>4.6546304696757757</v>
+      </c>
+      <c r="F15">
+        <v>35933</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="C16">
+        <v>0.69682112183408118</v>
+      </c>
+      <c r="D16">
+        <v>6.3246552239573148</v>
+      </c>
+      <c r="F16">
+        <v>34727</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="C17">
+        <v>0.696268469857526</v>
+      </c>
+      <c r="D17">
+        <v>9.7283433308987775</v>
+      </c>
+      <c r="F17">
+        <v>126013</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7200,7 +7796,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:G1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -7936,120 +8534,3101 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:G1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="C2">
+        <v>0.75781639699153647</v>
+      </c>
+      <c r="D2">
+        <v>5.0124478807429533E-2</v>
+      </c>
+      <c r="F2">
+        <v>6163</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C3">
+        <v>0.74971654095517226</v>
+      </c>
+      <c r="D3">
+        <v>6.8340599507419983E-2</v>
+      </c>
+      <c r="F3">
+        <v>6562</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C4">
+        <v>0.73796419387585466</v>
+      </c>
+      <c r="D4">
+        <v>0.1082244106448059</v>
+      </c>
+      <c r="F4">
+        <v>5883</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C5">
+        <v>0.729702254849107</v>
+      </c>
+      <c r="D5">
+        <v>0.16644639954830848</v>
+      </c>
+      <c r="F5">
+        <v>7307</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="C6">
+        <v>0.72798920182335203</v>
+      </c>
+      <c r="D6">
+        <v>0.18575075200375918</v>
+      </c>
+      <c r="F6">
+        <v>7020</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="C7">
+        <v>0.72441223854038916</v>
+      </c>
+      <c r="D7">
+        <v>0.24310056746692751</v>
+      </c>
+      <c r="F7">
+        <v>8616</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="C8">
+        <v>0.71398668251381892</v>
+      </c>
+      <c r="D8">
+        <v>0.59317792843156314</v>
+      </c>
+      <c r="F8">
+        <v>13919</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="C9">
+        <v>0.7077828096636668</v>
+      </c>
+      <c r="D9">
+        <v>1.0241447099141721</v>
+      </c>
+      <c r="F9">
+        <v>21290</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="C10">
+        <v>0.70648887640327329</v>
+      </c>
+      <c r="D10">
+        <v>1.1686231175210706</v>
+      </c>
+      <c r="F10">
+        <v>20094</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C11">
+        <v>0.7044056424174453</v>
+      </c>
+      <c r="D11">
+        <v>1.4962874019277856</v>
+      </c>
+      <c r="F11">
+        <v>24998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3">
+        <v>2E-3</v>
+      </c>
+      <c r="C12">
+        <v>0.70163645248395123</v>
+      </c>
+      <c r="D12">
+        <v>2.3833570345621098</v>
+      </c>
+      <c r="F12">
+        <v>70999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C13">
+        <v>0.6997949107563276</v>
+      </c>
+      <c r="D13">
+        <v>3.4913925604129434</v>
+      </c>
+      <c r="F13">
+        <v>141735</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="C14">
+        <v>0.69947513753842927</v>
+      </c>
+      <c r="D14">
+        <v>3.8515110740212957</v>
+      </c>
+      <c r="F14">
+        <v>69545</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C15">
+        <v>0.69887607563993104</v>
+      </c>
+      <c r="D15">
+        <v>4.8103089872301226</v>
+      </c>
+      <c r="F15">
+        <v>137626</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="C16">
+        <v>0.69725461420968449</v>
+      </c>
+      <c r="D16">
+        <v>9.3106883732041119</v>
+      </c>
+      <c r="F16">
+        <v>61889</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="C17">
+        <v>0.69743579941137801</v>
+      </c>
+      <c r="D17">
+        <v>11.880012814976126</v>
+      </c>
+      <c r="F17">
+        <v>103044</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:G1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="C2">
+        <v>0.78290619605808043</v>
+      </c>
+      <c r="D2">
+        <v>4.1623762857562294E-2</v>
+      </c>
+      <c r="F2">
+        <v>5395</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C3">
+        <v>0.78538358758872417</v>
+      </c>
+      <c r="D3">
+        <v>9.6268802172443588E-2</v>
+      </c>
+      <c r="F3">
+        <v>5011</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C4">
+        <v>0.78534991117943187</v>
+      </c>
+      <c r="D4">
+        <v>0.21729487779579484</v>
+      </c>
+      <c r="F4">
+        <v>7927</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C5">
+        <v>0.80272935767028408</v>
+      </c>
+      <c r="D5">
+        <v>0.75454326017306084</v>
+      </c>
+      <c r="F5">
+        <v>10018</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="C6">
+        <v>1.7712027747360073</v>
+      </c>
+      <c r="D6">
+        <v>2.4822174588293673</v>
+      </c>
+      <c r="F6">
+        <v>12054</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="C7">
+        <v>6.8827510643749275</v>
+      </c>
+      <c r="D7">
+        <v>3.9398736465279738</v>
+      </c>
+      <c r="F7">
+        <v>13166</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="C8">
+        <v>6.867138348530009</v>
+      </c>
+      <c r="D8">
+        <v>4.4680238592285386</v>
+      </c>
+      <c r="F8">
+        <v>21414</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="C9">
+        <v>6.8586643122156845</v>
+      </c>
+      <c r="D9">
+        <v>5.0402187285304096</v>
+      </c>
+      <c r="F9">
+        <v>17576</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="C10">
+        <v>6.8572165127494493</v>
+      </c>
+      <c r="D10">
+        <v>5.2017469212508232</v>
+      </c>
+      <c r="F10">
+        <v>22899</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C11">
+        <v>6.8550084547518129</v>
+      </c>
+      <c r="D11">
+        <v>5.5583405012460503</v>
+      </c>
+      <c r="F11">
+        <v>36586</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3">
+        <v>2E-3</v>
+      </c>
+      <c r="C12">
+        <v>6.8504637718519401</v>
+      </c>
+      <c r="D12">
+        <v>6.9763816762729602</v>
+      </c>
+      <c r="F12">
+        <v>54136</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C13">
+        <v>6.8484812862087665</v>
+      </c>
+      <c r="D13">
+        <v>8.5923340677439377</v>
+      </c>
+      <c r="F13">
+        <v>57043</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="C14">
+        <v>6.8485611164536628</v>
+      </c>
+      <c r="D14">
+        <v>8.592389100272058</v>
+      </c>
+      <c r="F14">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C15">
+        <v>6.8474022110704951</v>
+      </c>
+      <c r="D15">
+        <v>10.213098194964244</v>
+      </c>
+      <c r="F15">
+        <v>66276</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="C16">
+        <v>6.849899051194261</v>
+      </c>
+      <c r="D16">
+        <v>12.044231837766791</v>
+      </c>
+      <c r="F16">
+        <v>20164</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="C17">
+        <v>6.8394601079020516</v>
+      </c>
+      <c r="D17">
+        <v>15.317516286295247</v>
+      </c>
+      <c r="F17">
+        <v>27035</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="C2">
+        <v>0.77185048678360713</v>
+      </c>
+      <c r="D2">
+        <v>3.9420841856249327E-2</v>
+      </c>
+      <c r="F2">
+        <v>6037</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C3">
+        <v>0.76935048971206355</v>
+      </c>
+      <c r="D3">
+        <v>4.7485026222406676E-2</v>
+      </c>
+      <c r="F3">
+        <v>6791</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C4">
+        <v>0.76411055365920588</v>
+      </c>
+      <c r="D4">
+        <v>6.7347044332132872E-2</v>
+      </c>
+      <c r="F4">
+        <v>6621</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C5">
+        <v>0.74621049394416428</v>
+      </c>
+      <c r="D5">
+        <v>0.20697258229790771</v>
+      </c>
+      <c r="F5">
+        <v>10274</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="C6">
+        <v>0.74060109693956189</v>
+      </c>
+      <c r="D6">
+        <v>0.26984819518370168</v>
+      </c>
+      <c r="F6">
+        <v>7778</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="C7">
+        <v>0.73016299035142629</v>
+      </c>
+      <c r="D7">
+        <v>0.43844889637166973</v>
+      </c>
+      <c r="F7">
+        <v>11027</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="C8">
+        <v>0.70966445652766219</v>
+      </c>
+      <c r="D8">
+        <v>1.0337593163152408</v>
+      </c>
+      <c r="F8">
+        <v>15321</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="C9">
+        <v>0.70472921785344267</v>
+      </c>
+      <c r="D9">
+        <v>1.3741581281627744</v>
+      </c>
+      <c r="F9">
+        <v>17713</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="C10">
+        <v>0.70372998294630595</v>
+      </c>
+      <c r="D10">
+        <v>1.485717199446015</v>
+      </c>
+      <c r="F10">
+        <v>9647</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C11">
+        <v>0.70173402010944108</v>
+      </c>
+      <c r="D11">
+        <v>1.7965656875819989</v>
+      </c>
+      <c r="F11">
+        <v>32637</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3">
+        <v>2E-3</v>
+      </c>
+      <c r="C12">
+        <v>0.69964620930045374</v>
+      </c>
+      <c r="D12">
+        <v>2.4703801554411413</v>
+      </c>
+      <c r="F12">
+        <v>50912</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C13">
+        <v>0.69680128350074066</v>
+      </c>
+      <c r="D13">
+        <v>3.8816174234374281</v>
+      </c>
+      <c r="F13">
+        <v>22824</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="C14">
+        <v>0.69910552312462459</v>
+      </c>
+      <c r="D14">
+        <v>6.1934992512405191</v>
+      </c>
+      <c r="F14">
+        <v>38659</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C15">
+        <v>0.69773139976888088</v>
+      </c>
+      <c r="D15">
+        <v>6.1811751111607238</v>
+      </c>
+      <c r="F15">
+        <v>41349</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="C16">
+        <v>0.6977314026952105</v>
+      </c>
+      <c r="D16">
+        <v>6.1811773037533984</v>
+      </c>
+      <c r="F16">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="C17">
+        <v>0.6977314026952105</v>
+      </c>
+      <c r="D17">
+        <v>6.1811773037533984</v>
+      </c>
+      <c r="F17">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:G1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="C2">
+        <v>0.76350028516889212</v>
+      </c>
+      <c r="D2">
+        <v>4.6184276950771513E-2</v>
+      </c>
+      <c r="F2">
+        <v>6040</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C3">
+        <v>0.75749993180800912</v>
+      </c>
+      <c r="D3">
+        <v>5.7624735196097031E-2</v>
+      </c>
+      <c r="F3">
+        <v>6444</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C4">
+        <v>0.74516898853991376</v>
+      </c>
+      <c r="D4">
+        <v>0.10205803973172017</v>
+      </c>
+      <c r="F4">
+        <v>6331</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C5">
+        <v>0.73650107580314217</v>
+      </c>
+      <c r="D5">
+        <v>0.16230070100695596</v>
+      </c>
+      <c r="F5">
+        <v>7372</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="C6">
+        <v>0.73461358745440675</v>
+      </c>
+      <c r="D6">
+        <v>0.18344173557934904</v>
+      </c>
+      <c r="F6">
+        <v>7604</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="C7">
+        <v>0.73108702052622676</v>
+      </c>
+      <c r="D7">
+        <v>0.23951764842410317</v>
+      </c>
+      <c r="F7">
+        <v>10505</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="C8">
+        <v>0.71302947870519429</v>
+      </c>
+      <c r="D8">
+        <v>0.69433465735643385</v>
+      </c>
+      <c r="F8">
+        <v>17582</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="C9">
+        <v>0.70887241667058876</v>
+      </c>
+      <c r="D9">
+        <v>0.99589019267638568</v>
+      </c>
+      <c r="F9">
+        <v>19853</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="C10">
+        <v>0.70232218295167759</v>
+      </c>
+      <c r="D10">
+        <v>1.4967659300084959</v>
+      </c>
+      <c r="F10">
+        <v>26245</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C11">
+        <v>0.69962404448103499</v>
+      </c>
+      <c r="D11">
+        <v>1.9340486854086671</v>
+      </c>
+      <c r="F11">
+        <v>17822</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3">
+        <v>2E-3</v>
+      </c>
+      <c r="C12">
+        <v>0.69467500391082981</v>
+      </c>
+      <c r="D12">
+        <v>3.5601092887898913</v>
+      </c>
+      <c r="F12">
+        <v>19681</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C13">
+        <v>0.69220718020339111</v>
+      </c>
+      <c r="D13">
+        <v>5.394939297414032</v>
+      </c>
+      <c r="F13">
+        <v>17570</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="C14">
+        <v>0.69220717758753314</v>
+      </c>
+      <c r="D14">
+        <v>5.3949420177480345</v>
+      </c>
+      <c r="F14">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C15">
+        <v>0.69220717821621269</v>
+      </c>
+      <c r="D15">
+        <v>5.3949420730796458</v>
+      </c>
+      <c r="F15">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="C16">
+        <v>0.69220717821621269</v>
+      </c>
+      <c r="D16">
+        <v>5.3949420730796458</v>
+      </c>
+      <c r="F16">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="C17">
+        <v>0.69220717821621269</v>
+      </c>
+      <c r="D17">
+        <v>5.3949420730796458</v>
+      </c>
+      <c r="F17">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:G1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="C2">
+        <v>0.76942744794134521</v>
+      </c>
+      <c r="D2">
+        <v>4.2596550015266688E-2</v>
+      </c>
+      <c r="F2">
+        <v>5425</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C3">
+        <v>0.76470942983703438</v>
+      </c>
+      <c r="D3">
+        <v>5.5932398047594152E-2</v>
+      </c>
+      <c r="F3">
+        <v>6048</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C4">
+        <v>0.75210590485578943</v>
+      </c>
+      <c r="D4">
+        <v>0.10135849340679884</v>
+      </c>
+      <c r="F4">
+        <v>5595</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C5">
+        <v>0.74503954352844626</v>
+      </c>
+      <c r="D5">
+        <v>0.15070816827218295</v>
+      </c>
+      <c r="F5">
+        <v>7074</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="C6">
+        <v>0.74333270834272569</v>
+      </c>
+      <c r="D6">
+        <v>0.17013250136181554</v>
+      </c>
+      <c r="F6">
+        <v>8556</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="C7">
+        <v>0.70845979723929342</v>
+      </c>
+      <c r="D7">
+        <v>0.70348407330955998</v>
+      </c>
+      <c r="F7">
+        <v>14088</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="C8">
+        <v>0.69894693190274326</v>
+      </c>
+      <c r="D8">
+        <v>0.99650306567054237</v>
+      </c>
+      <c r="F8">
+        <v>14092</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="C9">
+        <v>0.69426975242246036</v>
+      </c>
+      <c r="D9">
+        <v>1.3325427753012704</v>
+      </c>
+      <c r="F9">
+        <v>18672</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="C10">
+        <v>0.69281323530418082</v>
+      </c>
+      <c r="D10">
+        <v>1.4955445954191746</v>
+      </c>
+      <c r="F10">
+        <v>15254</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C11">
+        <v>0.68892725342897154</v>
+      </c>
+      <c r="D11">
+        <v>2.0862547094749027</v>
+      </c>
+      <c r="F11">
+        <v>34702</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3">
+        <v>2E-3</v>
+      </c>
+      <c r="C12">
+        <v>0.68503689011388114</v>
+      </c>
+      <c r="D12">
+        <v>3.4316680293173363</v>
+      </c>
+      <c r="F12">
+        <v>63462</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C13">
+        <v>0.6939469860103904</v>
+      </c>
+      <c r="D13">
+        <v>4.1171933255487003</v>
+      </c>
+      <c r="F13">
+        <v>200214</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="C14">
+        <v>0.69334988057232982</v>
+      </c>
+      <c r="D14">
+        <v>4.787265476964917</v>
+      </c>
+      <c r="F14">
+        <v>111712</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C15">
+        <v>0.69244536855430805</v>
+      </c>
+      <c r="D15">
+        <v>6.2202139905370917</v>
+      </c>
+      <c r="F15">
+        <v>55487</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="C16">
+        <v>0.69084478842505381</v>
+      </c>
+      <c r="D16">
+        <v>10.586838920687537</v>
+      </c>
+      <c r="F16">
+        <v>114910</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="C17">
+        <v>0.69064635390684981</v>
+      </c>
+      <c r="D17">
+        <v>12.146227370423633</v>
+      </c>
+      <c r="F17">
+        <v>72017</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:G1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="C2">
+        <v>0.78128016089996066</v>
+      </c>
+      <c r="D2">
+        <v>3.8063729942409801E-2</v>
+      </c>
+      <c r="F2">
+        <v>7025</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C3">
+        <v>0.78039716676420212</v>
+      </c>
+      <c r="D3">
+        <v>4.8386469173600295E-2</v>
+      </c>
+      <c r="F3">
+        <v>6907</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C4">
+        <v>0.77914968329204248</v>
+      </c>
+      <c r="D4">
+        <v>5.8709020430874961E-2</v>
+      </c>
+      <c r="F4">
+        <v>4708</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C5">
+        <v>0.77703790104790216</v>
+      </c>
+      <c r="D5">
+        <v>7.9707519762233336E-2</v>
+      </c>
+      <c r="F5">
+        <v>7782</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="C6">
+        <v>0.77183478695548768</v>
+      </c>
+      <c r="D6">
+        <v>0.14415572141147812</v>
+      </c>
+      <c r="F6">
+        <v>9870</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="C7">
+        <v>0.75002486074748675</v>
+      </c>
+      <c r="D7">
+        <v>0.46821119121628951</v>
+      </c>
+      <c r="F7">
+        <v>15852</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="C8">
+        <v>0.7382028348343711</v>
+      </c>
+      <c r="D8">
+        <v>0.79627434048225243</v>
+      </c>
+      <c r="F8">
+        <v>23839</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="C9">
+        <v>0.73610749913731244</v>
+      </c>
+      <c r="D9">
+        <v>0.94640302992605574</v>
+      </c>
+      <c r="F9">
+        <v>24971</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="C10">
+        <v>0.73515360179960321</v>
+      </c>
+      <c r="D10">
+        <v>1.0884109584855026</v>
+      </c>
+      <c r="F10">
+        <v>13490</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C11">
+        <v>0.73292999073666976</v>
+      </c>
+      <c r="D11">
+        <v>1.3888893020576896</v>
+      </c>
+      <c r="F11">
+        <v>21946</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3">
+        <v>2E-3</v>
+      </c>
+      <c r="C12">
+        <v>0.72987611799562224</v>
+      </c>
+      <c r="D12">
+        <v>2.2830633872472657</v>
+      </c>
+      <c r="F12">
+        <v>42183</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C13">
+        <v>0.72921342612850393</v>
+      </c>
+      <c r="D13">
+        <v>2.8248583975553969</v>
+      </c>
+      <c r="F13">
+        <v>27877</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="C14">
+        <v>0.72904668858965949</v>
+      </c>
+      <c r="D14">
+        <v>2.9168434595114747</v>
+      </c>
+      <c r="F14">
+        <v>62670</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C15">
+        <v>0.72874251250301314</v>
+      </c>
+      <c r="D15">
+        <v>3.4136657062413134</v>
+      </c>
+      <c r="F15">
+        <v>74372</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="C16">
+        <v>0.72805317560670046</v>
+      </c>
+      <c r="D16">
+        <v>5.8174031398155108</v>
+      </c>
+      <c r="F16">
+        <v>50478</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="C17">
+        <v>0.72806788215822626</v>
+      </c>
+      <c r="D17">
+        <v>6.9999956521933706</v>
+      </c>
+      <c r="F17">
+        <v>34145</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:G1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="C2">
+        <v>0.85177445549488406</v>
+      </c>
+      <c r="D2">
+        <v>4.0385018795477547E-2</v>
+      </c>
+      <c r="F2">
+        <v>9186</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C3">
+        <v>0.846570526695409</v>
+      </c>
+      <c r="D3">
+        <v>4.9130338783842264E-2</v>
+      </c>
+      <c r="F3">
+        <v>4572</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C4">
+        <v>0.82831628124190981</v>
+      </c>
+      <c r="D4">
+        <v>0.11100698997373146</v>
+      </c>
+      <c r="F4">
+        <v>7988</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C5">
+        <v>0.81761270461959401</v>
+      </c>
+      <c r="D5">
+        <v>0.18562116650874846</v>
+      </c>
+      <c r="F5">
+        <v>11002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="C6">
+        <v>0.81546598133938564</v>
+      </c>
+      <c r="D6">
+        <v>0.20956300295361491</v>
+      </c>
+      <c r="F6">
+        <v>9597</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="C7">
+        <v>0.80887764207908486</v>
+      </c>
+      <c r="D7">
+        <v>0.32254473838960873</v>
+      </c>
+      <c r="F7">
+        <v>15564</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="C8">
+        <v>0.7922440734190842</v>
+      </c>
+      <c r="D8">
+        <v>0.64392847285032928</v>
+      </c>
+      <c r="F8">
+        <v>22474</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="C9">
+        <v>0.78902915506481242</v>
+      </c>
+      <c r="D9">
+        <v>0.87159539604723102</v>
+      </c>
+      <c r="F9">
+        <v>34759</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="C10">
+        <v>0.78820792036531562</v>
+      </c>
+      <c r="D10">
+        <v>0.96487185746746418</v>
+      </c>
+      <c r="F10">
+        <v>30190</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C11">
+        <v>0.78672268197359363</v>
+      </c>
+      <c r="D11">
+        <v>1.1993355173053</v>
+      </c>
+      <c r="F11">
+        <v>35356</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3">
+        <v>2E-3</v>
+      </c>
+      <c r="C12">
+        <v>0.78470331600385035</v>
+      </c>
+      <c r="D12">
+        <v>1.8391119231548871</v>
+      </c>
+      <c r="F12">
+        <v>55420</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C13">
+        <v>0.78363015197400099</v>
+      </c>
+      <c r="D13">
+        <v>2.6013842370971876</v>
+      </c>
+      <c r="F13">
+        <v>66767</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="C14">
+        <v>0.78333667892848402</v>
+      </c>
+      <c r="D14">
+        <v>2.929503635333957</v>
+      </c>
+      <c r="F14">
+        <v>81234</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C15">
+        <v>0.78277756500881845</v>
+      </c>
+      <c r="D15">
+        <v>3.8187444570018378</v>
+      </c>
+      <c r="F15">
+        <v>108281</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="C16">
+        <v>0.78047088459262071</v>
+      </c>
+      <c r="D16">
+        <v>9.4569931269573964</v>
+      </c>
+      <c r="F16">
+        <v>154299</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="C17">
+        <v>0.78003696743653761</v>
+      </c>
+      <c r="D17">
+        <v>12.513585954001949</v>
+      </c>
+      <c r="F17">
+        <v>143496</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:G1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="C2">
+        <v>0.70587519535763132</v>
+      </c>
+      <c r="D2">
+        <v>4.6008798577686458E-2</v>
+      </c>
+      <c r="F2">
+        <v>5041</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C3">
+        <v>0.70227385866358794</v>
+      </c>
+      <c r="D3">
+        <v>5.2840324146882771E-2</v>
+      </c>
+      <c r="F3">
+        <v>6578</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C4">
+        <v>0.69719960936185199</v>
+      </c>
+      <c r="D4">
+        <v>6.9317985485954497E-2</v>
+      </c>
+      <c r="F4">
+        <v>4989</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C5">
+        <v>0.69178432510737775</v>
+      </c>
+      <c r="D5">
+        <v>0.1104853179019082</v>
+      </c>
+      <c r="F5">
+        <v>7268</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="C6">
+        <v>0.68920036539657603</v>
+      </c>
+      <c r="D6">
+        <v>0.13939479474450642</v>
+      </c>
+      <c r="F6">
+        <v>7536</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="C7">
+        <v>0.68542776617502355</v>
+      </c>
+      <c r="D7">
+        <v>0.19824986232592187</v>
+      </c>
+      <c r="F7">
+        <v>7531</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="C8">
+        <v>0.6805500146494895</v>
+      </c>
+      <c r="D8">
+        <v>0.35840962458895054</v>
+      </c>
+      <c r="F8">
+        <v>11244</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="C9">
+        <v>0.66242465517680149</v>
+      </c>
+      <c r="D9">
+        <v>1.2706501047780729</v>
+      </c>
+      <c r="F9">
+        <v>27589</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="C10">
+        <v>0.66112477504929057</v>
+      </c>
+      <c r="D10">
+        <v>1.4160063871815278</v>
+      </c>
+      <c r="F10">
+        <v>21654</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C11">
+        <v>0.65916256446723753</v>
+      </c>
+      <c r="D11">
+        <v>1.7236606842079125</v>
+      </c>
+      <c r="F11">
+        <v>21335</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3">
+        <v>2E-3</v>
+      </c>
+      <c r="C12">
+        <v>0.65709059080619392</v>
+      </c>
+      <c r="D12">
+        <v>2.362723758521422</v>
+      </c>
+      <c r="F12">
+        <v>36068</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C13">
+        <v>0.6561365736225182</v>
+      </c>
+      <c r="D13">
+        <v>3.0596894666972148</v>
+      </c>
+      <c r="F13">
+        <v>65255</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="C14">
+        <v>0.65587626122791598</v>
+      </c>
+      <c r="D14">
+        <v>3.3526254372198681</v>
+      </c>
+      <c r="F14">
+        <v>58647</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C15">
+        <v>0.65550050184203157</v>
+      </c>
+      <c r="D15">
+        <v>3.9446100326940963</v>
+      </c>
+      <c r="F15">
+        <v>80206</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="C16">
+        <v>0.65501353040903565</v>
+      </c>
+      <c r="D16">
+        <v>5.5099706579178429</v>
+      </c>
+      <c r="F16">
+        <v>126218</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="C17">
+        <v>0.67914131221759788</v>
+      </c>
+      <c r="D17">
+        <v>13.537120516092093</v>
+      </c>
+      <c r="F17">
+        <v>211006</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:G1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="C2">
+        <v>0.82262658718836357</v>
+      </c>
+      <c r="D2">
+        <v>4.0975202270888349E-2</v>
+      </c>
+      <c r="F2">
+        <v>7550</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C3">
+        <v>0.81867509008000305</v>
+      </c>
+      <c r="D3">
+        <v>4.8551071515263958E-2</v>
+      </c>
+      <c r="F3">
+        <v>4428</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C4">
+        <v>0.81158857556007213</v>
+      </c>
+      <c r="D4">
+        <v>7.2080785028631592E-2</v>
+      </c>
+      <c r="F4">
+        <v>6898</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C5">
+        <v>0.80397075654035211</v>
+      </c>
+      <c r="D5">
+        <v>0.12869880929986505</v>
+      </c>
+      <c r="F5">
+        <v>9822</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="C6">
+        <v>0.80154627146695512</v>
+      </c>
+      <c r="D6">
+        <v>0.15569366788217165</v>
+      </c>
+      <c r="F6">
+        <v>8849</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="C7">
+        <v>0.79836657343020956</v>
+      </c>
+      <c r="D7">
+        <v>0.2053414713157701</v>
+      </c>
+      <c r="F7">
+        <v>10866</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="C8">
+        <v>0.7902893512247553</v>
+      </c>
+      <c r="D8">
+        <v>0.50833957163223598</v>
+      </c>
+      <c r="F8">
+        <v>23612</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="C9">
+        <v>0.77298714785462497</v>
+      </c>
+      <c r="D9">
+        <v>1.2211163754278158</v>
+      </c>
+      <c r="F9">
+        <v>42630</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="C10">
+        <v>0.77196170722492885</v>
+      </c>
+      <c r="D10">
+        <v>1.3358861080212601</v>
+      </c>
+      <c r="F10">
+        <v>40815</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C11">
+        <v>0.77028436053313554</v>
+      </c>
+      <c r="D11">
+        <v>1.6002422875168762</v>
+      </c>
+      <c r="F11">
+        <v>36655</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3">
+        <v>2E-3</v>
+      </c>
+      <c r="C12">
+        <v>0.76812356852200536</v>
+      </c>
+      <c r="D12">
+        <v>2.2814354445873151</v>
+      </c>
+      <c r="F12">
+        <v>54084</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C13">
+        <v>0.76705997768645162</v>
+      </c>
+      <c r="D13">
+        <v>3.0300872622120858</v>
+      </c>
+      <c r="F13">
+        <v>75199</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="C14">
+        <v>0.76680966674475881</v>
+      </c>
+      <c r="D14">
+        <v>3.3096073394673131</v>
+      </c>
+      <c r="F14">
+        <v>89622</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C15">
+        <v>0.76640846689982944</v>
+      </c>
+      <c r="D15">
+        <v>3.9401317554964446</v>
+      </c>
+      <c r="F15">
+        <v>120588</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="C16">
+        <v>0.76598677870022569</v>
+      </c>
+      <c r="D16">
+        <v>5.2527965129914742</v>
+      </c>
+      <c r="F16">
+        <v>145433</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="C17">
+        <v>0.76584284251054968</v>
+      </c>
+      <c r="D17">
+        <v>6.3066581233910535</v>
+      </c>
+      <c r="F17">
+        <v>154799</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:G1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="C2">
+        <v>0.81051721531386967</v>
+      </c>
+      <c r="D2">
+        <v>4.5905811733569647E-2</v>
+      </c>
+      <c r="F2">
+        <v>8639</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C3">
+        <v>0.80559905509303986</v>
+      </c>
+      <c r="D3">
+        <v>5.4681513474023814E-2</v>
+      </c>
+      <c r="F3">
+        <v>7755</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C4">
+        <v>0.79437071595311015</v>
+      </c>
+      <c r="D4">
+        <v>9.3095368370348777E-2</v>
+      </c>
+      <c r="F4">
+        <v>7756</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C5">
+        <v>0.78437739816785135</v>
+      </c>
+      <c r="D5">
+        <v>0.16401812657434703</v>
+      </c>
+      <c r="F5">
+        <v>9267</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="C6">
+        <v>0.78179824712783108</v>
+      </c>
+      <c r="D6">
+        <v>0.19286969182270219</v>
+      </c>
+      <c r="F6">
+        <v>9962</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="C7">
+        <v>0.73861509557125093</v>
+      </c>
+      <c r="D7">
+        <v>0.64394155576003376</v>
+      </c>
+      <c r="F7">
+        <v>26035</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="C8">
+        <v>0.7239276778497078</v>
+      </c>
+      <c r="D8">
+        <v>1.0957449909361878</v>
+      </c>
+      <c r="F8">
+        <v>28642</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="C9">
+        <v>0.71826449064591802</v>
+      </c>
+      <c r="D9">
+        <v>1.492769900300196</v>
+      </c>
+      <c r="F9">
+        <v>27254</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="C10">
+        <v>0.7169209272600825</v>
+      </c>
+      <c r="D10">
+        <v>1.6428201800251401</v>
+      </c>
+      <c r="F10">
+        <v>46002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C11">
+        <v>0.71441221191838489</v>
+      </c>
+      <c r="D11">
+        <v>2.0411937649027232</v>
+      </c>
+      <c r="F11">
+        <v>59089</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3">
+        <v>2E-3</v>
+      </c>
+      <c r="C12">
+        <v>0.71140898708903821</v>
+      </c>
+      <c r="D12">
+        <v>3.0009007739958649</v>
+      </c>
+      <c r="F12">
+        <v>56005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C13">
+        <v>0.71000249730629483</v>
+      </c>
+      <c r="D13">
+        <v>3.9926070186089171</v>
+      </c>
+      <c r="F13">
+        <v>64799</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="C14">
+        <v>0.70963909730305796</v>
+      </c>
+      <c r="D14">
+        <v>4.3995195440660728</v>
+      </c>
+      <c r="F14">
+        <v>74053</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C15">
+        <v>0.70946135148915301</v>
+      </c>
+      <c r="D15">
+        <v>5.4266375647591136</v>
+      </c>
+      <c r="F15">
+        <v>32913</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="C16">
+        <v>0.70938336809921632</v>
+      </c>
+      <c r="D16">
+        <v>7.4333965585710802</v>
+      </c>
+      <c r="F16">
+        <v>32823</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="C17">
+        <v>0.70931978900076187</v>
+      </c>
+      <c r="D17">
+        <v>8.3607072135673963</v>
+      </c>
+      <c r="F17">
+        <v>19456</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8374,14 +11953,310 @@
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S34" sqref="S34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="C2">
+        <v>0.89989698283604536</v>
+      </c>
+      <c r="D2">
+        <v>3.155531600900717E-2</v>
+      </c>
+      <c r="F2">
+        <v>6961</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C3">
+        <v>0.89647656261739816</v>
+      </c>
+      <c r="D3">
+        <v>3.853762450001523E-2</v>
+      </c>
+      <c r="F3">
+        <v>6564</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C4">
+        <v>0.89037346242850812</v>
+      </c>
+      <c r="D4">
+        <v>5.8584318638587443E-2</v>
+      </c>
+      <c r="F4">
+        <v>4691</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C5">
+        <v>0.88621163691614258</v>
+      </c>
+      <c r="D5">
+        <v>8.8697984884401171E-2</v>
+      </c>
+      <c r="F5">
+        <v>6516</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="C6">
+        <v>0.8848203870098077</v>
+      </c>
+      <c r="D6">
+        <v>0.10430253083804066</v>
+      </c>
+      <c r="F6">
+        <v>6744</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="C7">
+        <v>0.88176045783105117</v>
+      </c>
+      <c r="D7">
+        <v>0.15325733618607895</v>
+      </c>
+      <c r="F7">
+        <v>9196</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="C8">
+        <v>0.87528208933887042</v>
+      </c>
+      <c r="D8">
+        <v>0.36502275913832838</v>
+      </c>
+      <c r="F8">
+        <v>13984</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="C9">
+        <v>0.86450820073480317</v>
+      </c>
+      <c r="D9">
+        <v>0.70402114128756377</v>
+      </c>
+      <c r="F9">
+        <v>30961</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="C10">
+        <v>0.86375459887120343</v>
+      </c>
+      <c r="D10">
+        <v>0.78826607796981585</v>
+      </c>
+      <c r="F10">
+        <v>13434</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C11">
+        <v>0.8622795572878329</v>
+      </c>
+      <c r="D11">
+        <v>1.0246497170621731</v>
+      </c>
+      <c r="F11">
+        <v>20732</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3">
+        <v>2E-3</v>
+      </c>
+      <c r="C12">
+        <v>0.86001109628141992</v>
+      </c>
+      <c r="D12">
+        <v>1.7172596556073976</v>
+      </c>
+      <c r="F12">
+        <v>56308</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C13">
+        <v>0.85929520098689671</v>
+      </c>
+      <c r="D13">
+        <v>2.2128180404941999</v>
+      </c>
+      <c r="F13">
+        <v>55502</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="C14">
+        <v>0.85914572259899691</v>
+      </c>
+      <c r="D14">
+        <v>2.3798224972637114</v>
+      </c>
+      <c r="F14">
+        <v>70100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C15">
+        <v>0.85883863360350332</v>
+      </c>
+      <c r="D15">
+        <v>2.8717284192911463</v>
+      </c>
+      <c r="F15">
+        <v>66371</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="C16">
+        <v>0.8583150789549352</v>
+      </c>
+      <c r="D16">
+        <v>4.6092782479164836</v>
+      </c>
+      <c r="F16">
+        <v>94877</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="C17">
+        <v>0.85765747974689188</v>
+      </c>
+      <c r="D17">
+        <v>9.0752577575214683</v>
+      </c>
+      <c r="F17">
+        <v>116049</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/data/Summer2017/L-curve/compiled_L-curve_data_2017-06-21_updated.xlsx
+++ b/data/Summer2017/L-curve/compiled_L-curve_data_2017-06-21_updated.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\L-curve_Analysis_Summer-2017\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="6315" windowHeight="9015" tabRatio="851"/>
   </bookViews>
@@ -568,7 +573,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -576,9 +581,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -675,7 +685,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>25</v>
@@ -683,7 +693,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>24</v>
@@ -906,8 +916,13 @@
       </c>
     </row>
   </sheetData>
+  <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup scale="86" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;F</oddHeader>
+    <oddFooter>&amp;A</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
